--- a/public/pds/PDS.xlsx
+++ b/public/pds/PDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB_PROJECTS\hris\public\pds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3344-D5A5-4167-82E2-4677E400E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210895A-2788-4282-9EBB-7681164BDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3364,22 +3364,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3421,6 +3405,53 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3429,82 +3460,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3518,178 +3513,225 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3703,185 +3745,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3891,178 +3768,410 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4071,6 +4180,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4085,185 +4224,91 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4287,42 +4332,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4330,19 +4347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4366,18 +4374,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4401,61 +4397,122 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4463,12 +4520,279 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4486,36 +4810,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4525,345 +4841,29 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -8955,8 +8955,8 @@
   </sheetPr>
   <dimension ref="A1:R264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8981,20 +8981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="343"/>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="345"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="386"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="162"/>
@@ -9024,73 +9024,73 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="387" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="348"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="389"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="355" t="s">
+      <c r="A4" s="396" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="356"/>
-      <c r="F4" s="356"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="356"/>
-      <c r="I4" s="356"/>
-      <c r="J4" s="356"/>
-      <c r="K4" s="356"/>
-      <c r="L4" s="356"/>
-      <c r="M4" s="356"/>
-      <c r="N4" s="357"/>
+      <c r="B4" s="397"/>
+      <c r="C4" s="397"/>
+      <c r="D4" s="397"/>
+      <c r="E4" s="397"/>
+      <c r="F4" s="397"/>
+      <c r="G4" s="397"/>
+      <c r="H4" s="397"/>
+      <c r="I4" s="397"/>
+      <c r="J4" s="397"/>
+      <c r="K4" s="397"/>
+      <c r="L4" s="397"/>
+      <c r="M4" s="397"/>
+      <c r="N4" s="398"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="413" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
-      <c r="L5" s="382"/>
-      <c r="M5" s="382"/>
-      <c r="N5" s="383"/>
+      <c r="B5" s="414"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
+      <c r="F5" s="414"/>
+      <c r="G5" s="414"/>
+      <c r="H5" s="414"/>
+      <c r="I5" s="414"/>
+      <c r="J5" s="414"/>
+      <c r="K5" s="414"/>
+      <c r="L5" s="414"/>
+      <c r="M5" s="414"/>
+      <c r="N5" s="415"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="198"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="266"/>
-      <c r="M6" s="266"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
       <c r="N6" s="199"/>
     </row>
     <row r="7" spans="1:18" s="97" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9109,63 +9109,63 @@
       <c r="K7" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="352" t="s">
+      <c r="L7" s="393" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="353"/>
-      <c r="N7" s="354"/>
+      <c r="M7" s="394"/>
+      <c r="N7" s="395"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="166"/>
       <c r="N8" s="158"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="390" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="350"/>
-      <c r="C9" s="350"/>
-      <c r="D9" s="350"/>
-      <c r="E9" s="350"/>
-      <c r="F9" s="350"/>
-      <c r="G9" s="350"/>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="350"/>
-      <c r="M9" s="350"/>
-      <c r="N9" s="351"/>
+      <c r="B9" s="391"/>
+      <c r="C9" s="391"/>
+      <c r="D9" s="391"/>
+      <c r="E9" s="391"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="391"/>
+      <c r="H9" s="391"/>
+      <c r="I9" s="391"/>
+      <c r="J9" s="391"/>
+      <c r="K9" s="391"/>
+      <c r="L9" s="391"/>
+      <c r="M9" s="391"/>
+      <c r="N9" s="392"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="402" t="s">
+      <c r="B10" s="362" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="387"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="392"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="392"/>
-      <c r="J10" s="392"/>
-      <c r="K10" s="392"/>
-      <c r="L10" s="392"/>
-      <c r="M10" s="392"/>
-      <c r="N10" s="393"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="351"/>
+      <c r="G10" s="351"/>
+      <c r="H10" s="351"/>
+      <c r="I10" s="351"/>
+      <c r="J10" s="351"/>
+      <c r="K10" s="351"/>
+      <c r="L10" s="351"/>
+      <c r="M10" s="351"/>
+      <c r="N10" s="352"/>
       <c r="P10" s="98" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="167"/>
-      <c r="B11" s="403" t="s">
+      <c r="B11" s="364" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="404"/>
+      <c r="C11" s="365"/>
       <c r="D11" s="205"/>
       <c r="E11" s="206"/>
       <c r="F11" s="206"/>
@@ -9174,11 +9174,11 @@
       <c r="I11" s="206"/>
       <c r="J11" s="206"/>
       <c r="K11" s="206"/>
-      <c r="L11" s="372" t="s">
+      <c r="L11" s="404" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="373"/>
-      <c r="N11" s="268"/>
+      <c r="M11" s="405"/>
+      <c r="N11" s="264"/>
       <c r="P11" s="99" t="s">
         <v>52</v>
       </c>
@@ -9188,10 +9188,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="168"/>
-      <c r="B12" s="405" t="s">
+      <c r="B12" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="406"/>
+      <c r="C12" s="367"/>
       <c r="D12" s="202"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
@@ -9214,23 +9214,23 @@
       <c r="A13" s="234" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="386" t="s">
+      <c r="B13" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="387"/>
-      <c r="D13" s="735"/>
-      <c r="E13" s="735"/>
-      <c r="F13" s="736"/>
+      <c r="C13" s="363"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="451"/>
+      <c r="F13" s="452"/>
       <c r="G13" s="105" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="149"/>
       <c r="I13" s="149"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="367"/>
-      <c r="L13" s="367"/>
-      <c r="M13" s="367"/>
-      <c r="N13" s="368"/>
+      <c r="J13" s="399"/>
+      <c r="K13" s="400"/>
+      <c r="L13" s="400"/>
+      <c r="M13" s="400"/>
+      <c r="N13" s="401"/>
       <c r="P13" s="99" t="s">
         <v>53</v>
       </c>
@@ -9246,12 +9246,12 @@
       <c r="E14" s="233"/>
       <c r="F14" s="233"/>
       <c r="G14" s="153"/>
-      <c r="H14" s="267"/>
-      <c r="I14" s="267"/>
+      <c r="H14" s="263"/>
+      <c r="I14" s="263"/>
       <c r="J14" s="231"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
+      <c r="K14" s="265"/>
+      <c r="L14" s="265"/>
+      <c r="M14" s="265"/>
       <c r="N14" s="232"/>
       <c r="P14" s="99"/>
       <c r="Q14" s="3"/>
@@ -9264,19 +9264,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="100"/>
-      <c r="D15" s="378"/>
-      <c r="E15" s="378"/>
-      <c r="F15" s="379"/>
-      <c r="G15" s="280" t="s">
+      <c r="D15" s="410"/>
+      <c r="E15" s="410"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="456" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="281"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
-      <c r="M15" s="291"/>
-      <c r="N15" s="292"/>
+      <c r="H15" s="457"/>
+      <c r="I15" s="457"/>
+      <c r="J15" s="464"/>
+      <c r="K15" s="465"/>
+      <c r="L15" s="465"/>
+      <c r="M15" s="465"/>
+      <c r="N15" s="466"/>
       <c r="P15" s="99" t="s">
         <v>118</v>
       </c>
@@ -9292,19 +9292,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="101"/>
-      <c r="D16" s="394"/>
-      <c r="E16" s="394"/>
-      <c r="F16" s="327"/>
-      <c r="G16" s="277" t="s">
+      <c r="D16" s="353"/>
+      <c r="E16" s="353"/>
+      <c r="F16" s="354"/>
+      <c r="G16" s="453" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="278"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="294"/>
-      <c r="N16" s="295"/>
+      <c r="H16" s="454"/>
+      <c r="I16" s="455"/>
+      <c r="J16" s="467"/>
+      <c r="K16" s="468"/>
+      <c r="L16" s="468"/>
+      <c r="M16" s="468"/>
+      <c r="N16" s="469"/>
       <c r="P16" s="99" t="s">
         <v>119</v>
       </c>
@@ -9313,156 +9313,156 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="282">
+      <c r="A17" s="458">
         <v>6</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="460" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="284"/>
+      <c r="C17" s="461"/>
+      <c r="D17" s="429"/>
+      <c r="E17" s="429"/>
+      <c r="F17" s="429"/>
       <c r="G17" s="106" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="107"/>
-      <c r="I17" s="361"/>
-      <c r="J17" s="362"/>
-      <c r="K17" s="362"/>
-      <c r="L17" s="362"/>
-      <c r="M17" s="362"/>
-      <c r="N17" s="369"/>
+      <c r="I17" s="331"/>
+      <c r="J17" s="332"/>
+      <c r="K17" s="332"/>
+      <c r="L17" s="332"/>
+      <c r="M17" s="332"/>
+      <c r="N17" s="333"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="283"/>
-      <c r="B18" s="288"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="285"/>
-      <c r="E18" s="285"/>
-      <c r="F18" s="285"/>
+      <c r="A18" s="434"/>
+      <c r="B18" s="462"/>
+      <c r="C18" s="463"/>
+      <c r="D18" s="459"/>
+      <c r="E18" s="459"/>
+      <c r="F18" s="459"/>
       <c r="G18" s="155"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="370" t="s">
+      <c r="H18" s="267"/>
+      <c r="I18" s="402" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="371"/>
-      <c r="K18" s="371"/>
-      <c r="L18" s="371" t="s">
+      <c r="J18" s="403"/>
+      <c r="K18" s="403"/>
+      <c r="L18" s="403" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="371"/>
-      <c r="N18" s="374"/>
+      <c r="M18" s="403"/>
+      <c r="N18" s="406"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="171"/>
-      <c r="B19" s="272"/>
+      <c r="B19" s="268"/>
       <c r="C19" s="159"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="269"/>
       <c r="G19" s="155"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="384"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="318"/>
-      <c r="M19" s="319"/>
-      <c r="N19" s="320"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="416"/>
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="422"/>
+      <c r="M19" s="417"/>
+      <c r="N19" s="423"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="283"/>
-      <c r="B20" s="272"/>
+      <c r="A20" s="434"/>
+      <c r="B20" s="268"/>
       <c r="C20" s="142"/>
-      <c r="D20" s="274"/>
-      <c r="E20" s="400"/>
-      <c r="F20" s="400"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="360"/>
       <c r="G20" s="153"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="385"/>
-      <c r="J20" s="321"/>
-      <c r="K20" s="321"/>
-      <c r="L20" s="321"/>
-      <c r="M20" s="321"/>
-      <c r="N20" s="322"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="418"/>
+      <c r="J20" s="419"/>
+      <c r="K20" s="419"/>
+      <c r="L20" s="419"/>
+      <c r="M20" s="419"/>
+      <c r="N20" s="424"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="332"/>
+      <c r="A21" s="435"/>
       <c r="B21" s="220"/>
       <c r="C21" s="140"/>
       <c r="D21" s="143"/>
-      <c r="E21" s="401"/>
-      <c r="F21" s="401"/>
+      <c r="E21" s="361"/>
+      <c r="F21" s="361"/>
       <c r="G21" s="153"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="323" t="s">
+      <c r="H21" s="263"/>
+      <c r="I21" s="425" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="324"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="437" t="s">
+      <c r="J21" s="426"/>
+      <c r="K21" s="426"/>
+      <c r="L21" s="328" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="438"/>
-      <c r="N21" s="439"/>
+      <c r="M21" s="329"/>
+      <c r="N21" s="330"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="333" t="s">
+      <c r="A22" s="436" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="337" t="s">
+      <c r="B22" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="338"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="284"/>
-      <c r="F22" s="328"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="354"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="430"/>
       <c r="G22" s="153"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="362"/>
-      <c r="L22" s="362"/>
-      <c r="M22" s="362"/>
-      <c r="N22" s="369"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="331"/>
+      <c r="J22" s="332"/>
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="333"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="334"/>
-      <c r="B23" s="339"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="329"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="331"/>
+      <c r="A23" s="437"/>
+      <c r="B23" s="378"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="431"/>
+      <c r="E23" s="432"/>
+      <c r="F23" s="433"/>
       <c r="G23" s="153"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="442" t="s">
+      <c r="H23" s="263"/>
+      <c r="I23" s="336" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="443"/>
-      <c r="K23" s="443"/>
-      <c r="L23" s="440" t="s">
+      <c r="J23" s="337"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="334" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="440"/>
-      <c r="N23" s="441"/>
+      <c r="M23" s="334"/>
+      <c r="N23" s="335"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -9471,163 +9471,163 @@
       <c r="A24" s="167" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="341" t="s">
+      <c r="B24" s="440" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="342"/>
-      <c r="D24" s="358"/>
-      <c r="E24" s="359"/>
-      <c r="F24" s="360"/>
-      <c r="G24" s="407" t="s">
+      <c r="C24" s="370"/>
+      <c r="D24" s="372"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="374"/>
+      <c r="G24" s="368" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="408"/>
-      <c r="I24" s="375"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
-      <c r="L24" s="376"/>
-      <c r="M24" s="376"/>
-      <c r="N24" s="377"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="407"/>
+      <c r="J24" s="408"/>
+      <c r="K24" s="408"/>
+      <c r="L24" s="408"/>
+      <c r="M24" s="408"/>
+      <c r="N24" s="409"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="325" t="s">
+      <c r="A25" s="427" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="337" t="s">
+      <c r="B25" s="376" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="338"/>
-      <c r="D25" s="327"/>
-      <c r="E25" s="284"/>
-      <c r="F25" s="328"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="430"/>
       <c r="G25" s="112" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="102"/>
-      <c r="I25" s="361"/>
-      <c r="J25" s="362"/>
-      <c r="K25" s="362"/>
-      <c r="L25" s="362"/>
-      <c r="M25" s="362"/>
-      <c r="N25" s="369"/>
+      <c r="I25" s="331"/>
+      <c r="J25" s="332"/>
+      <c r="K25" s="332"/>
+      <c r="L25" s="332"/>
+      <c r="M25" s="332"/>
+      <c r="N25" s="333"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="326"/>
-      <c r="B26" s="339"/>
-      <c r="C26" s="340"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="331"/>
+      <c r="A26" s="428"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="431"/>
+      <c r="E26" s="432"/>
+      <c r="F26" s="433"/>
       <c r="G26" s="153"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="370" t="s">
+      <c r="H26" s="263"/>
+      <c r="I26" s="402" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="371"/>
-      <c r="K26" s="371"/>
-      <c r="L26" s="371" t="s">
+      <c r="J26" s="403"/>
+      <c r="K26" s="403"/>
+      <c r="L26" s="403" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="371"/>
-      <c r="N26" s="374"/>
+      <c r="M26" s="403"/>
+      <c r="N26" s="406"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="325" t="s">
+      <c r="A27" s="427" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="376" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="338"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="328"/>
+      <c r="C27" s="377"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="429"/>
+      <c r="F27" s="430"/>
       <c r="G27" s="155"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="362"/>
-      <c r="K27" s="362"/>
-      <c r="L27" s="362"/>
-      <c r="M27" s="362"/>
-      <c r="N27" s="369"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="331"/>
+      <c r="J27" s="332"/>
+      <c r="K27" s="332"/>
+      <c r="L27" s="332"/>
+      <c r="M27" s="332"/>
+      <c r="N27" s="333"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="326"/>
-      <c r="B28" s="339"/>
-      <c r="C28" s="340"/>
-      <c r="D28" s="329"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="331"/>
+      <c r="A28" s="428"/>
+      <c r="B28" s="378"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="431"/>
+      <c r="E28" s="432"/>
+      <c r="F28" s="433"/>
       <c r="G28" s="155"/>
-      <c r="H28" s="271"/>
-      <c r="I28" s="419" t="s">
+      <c r="H28" s="267"/>
+      <c r="I28" s="383" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="417"/>
-      <c r="K28" s="417"/>
-      <c r="L28" s="416" t="s">
+      <c r="J28" s="381"/>
+      <c r="K28" s="381"/>
+      <c r="L28" s="380" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="417"/>
-      <c r="N28" s="418"/>
+      <c r="M28" s="381"/>
+      <c r="N28" s="382"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="325" t="s">
+      <c r="A29" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="337" t="s">
+      <c r="B29" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="338"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="328"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="354"/>
+      <c r="E29" s="429"/>
+      <c r="F29" s="430"/>
       <c r="G29" s="155"/>
       <c r="H29" s="160"/>
-      <c r="I29" s="414"/>
-      <c r="J29" s="415"/>
-      <c r="K29" s="415"/>
-      <c r="L29" s="415"/>
-      <c r="M29" s="415"/>
-      <c r="N29" s="448"/>
+      <c r="I29" s="375"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="345"/>
+      <c r="L29" s="345"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="346"/>
       <c r="Q29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="326"/>
-      <c r="B30" s="339"/>
-      <c r="C30" s="340"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="331"/>
+      <c r="A30" s="428"/>
+      <c r="B30" s="378"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="431"/>
+      <c r="E30" s="432"/>
+      <c r="F30" s="433"/>
       <c r="G30" s="155"/>
       <c r="H30" s="160"/>
-      <c r="I30" s="444" t="s">
+      <c r="I30" s="338" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="444"/>
-      <c r="K30" s="444"/>
-      <c r="L30" s="444" t="s">
+      <c r="J30" s="338"/>
+      <c r="K30" s="338"/>
+      <c r="L30" s="338" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="444"/>
-      <c r="N30" s="445"/>
+      <c r="M30" s="338"/>
+      <c r="N30" s="339"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -9640,19 +9640,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="101"/>
-      <c r="D31" s="358"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="360"/>
-      <c r="G31" s="446" t="s">
+      <c r="D31" s="372"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="374"/>
+      <c r="G31" s="340" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="447"/>
-      <c r="I31" s="363"/>
-      <c r="J31" s="364"/>
-      <c r="K31" s="364"/>
-      <c r="L31" s="364"/>
-      <c r="M31" s="364"/>
-      <c r="N31" s="365"/>
+      <c r="H31" s="341"/>
+      <c r="I31" s="342"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="343"/>
+      <c r="L31" s="343"/>
+      <c r="M31" s="343"/>
+      <c r="N31" s="344"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -9665,42 +9665,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="101"/>
-      <c r="D32" s="358"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="360"/>
-      <c r="G32" s="380" t="s">
+      <c r="D32" s="372"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="374"/>
+      <c r="G32" s="412" t="s">
         <v>375</v>
       </c>
-      <c r="H32" s="342"/>
-      <c r="I32" s="363"/>
-      <c r="J32" s="364"/>
-      <c r="K32" s="364"/>
-      <c r="L32" s="364"/>
-      <c r="M32" s="364"/>
-      <c r="N32" s="365"/>
+      <c r="H32" s="370"/>
+      <c r="I32" s="342"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="343"/>
+      <c r="L32" s="343"/>
+      <c r="M32" s="343"/>
+      <c r="N32" s="344"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="409" t="s">
+      <c r="A33" s="369" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="342"/>
-      <c r="C33" s="410"/>
-      <c r="D33" s="358"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="360"/>
+      <c r="B33" s="370"/>
+      <c r="C33" s="371"/>
+      <c r="D33" s="372"/>
+      <c r="E33" s="373"/>
+      <c r="F33" s="374"/>
       <c r="G33" s="204" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="154"/>
-      <c r="I33" s="363"/>
-      <c r="J33" s="364"/>
-      <c r="K33" s="364"/>
-      <c r="L33" s="364"/>
-      <c r="M33" s="364"/>
-      <c r="N33" s="365"/>
+      <c r="I33" s="342"/>
+      <c r="J33" s="343"/>
+      <c r="K33" s="343"/>
+      <c r="L33" s="343"/>
+      <c r="M33" s="343"/>
+      <c r="N33" s="344"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -9709,21 +9709,21 @@
       <c r="A34" s="172" t="s">
         <v>371</v>
       </c>
-      <c r="B34" s="270"/>
+      <c r="B34" s="266"/>
       <c r="C34" s="156"/>
-      <c r="D34" s="397"/>
-      <c r="E34" s="398"/>
-      <c r="F34" s="399"/>
+      <c r="D34" s="357"/>
+      <c r="E34" s="358"/>
+      <c r="F34" s="359"/>
       <c r="G34" s="112" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="102"/>
-      <c r="I34" s="363"/>
-      <c r="J34" s="364"/>
-      <c r="K34" s="364"/>
-      <c r="L34" s="364"/>
-      <c r="M34" s="364"/>
-      <c r="N34" s="365"/>
+      <c r="I34" s="342"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="343"/>
+      <c r="L34" s="343"/>
+      <c r="M34" s="343"/>
+      <c r="N34" s="344"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -9757,44 +9757,44 @@
         <v>74</v>
       </c>
       <c r="C36" s="224"/>
-      <c r="D36" s="316"/>
-      <c r="E36" s="316"/>
-      <c r="F36" s="316"/>
-      <c r="G36" s="316"/>
-      <c r="H36" s="316"/>
-      <c r="I36" s="298" t="s">
+      <c r="D36" s="421"/>
+      <c r="E36" s="421"/>
+      <c r="F36" s="421"/>
+      <c r="G36" s="421"/>
+      <c r="H36" s="421"/>
+      <c r="I36" s="470" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="298"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-      <c r="M36" s="335" t="s">
+      <c r="J36" s="470"/>
+      <c r="K36" s="470"/>
+      <c r="L36" s="471"/>
+      <c r="M36" s="438" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="336"/>
+      <c r="N36" s="439"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="153"/>
-      <c r="B37" s="271" t="s">
+      <c r="B37" s="267" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="160"/>
-      <c r="D37" s="411"/>
-      <c r="E37" s="412"/>
-      <c r="F37" s="413"/>
-      <c r="G37" s="263" t="s">
+      <c r="D37" s="289"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="291"/>
+      <c r="G37" s="259" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="264"/>
-      <c r="I37" s="300"/>
-      <c r="J37" s="275"/>
-      <c r="K37" s="275"/>
-      <c r="L37" s="276"/>
-      <c r="M37" s="296"/>
-      <c r="N37" s="297"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="472"/>
+      <c r="J37" s="285"/>
+      <c r="K37" s="285"/>
+      <c r="L37" s="286"/>
+      <c r="M37" s="283"/>
+      <c r="N37" s="284"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -9805,17 +9805,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="217"/>
-      <c r="D38" s="411"/>
-      <c r="E38" s="412"/>
-      <c r="F38" s="412"/>
-      <c r="G38" s="412"/>
-      <c r="H38" s="413"/>
-      <c r="I38" s="275"/>
-      <c r="J38" s="275"/>
-      <c r="K38" s="275"/>
-      <c r="L38" s="276"/>
-      <c r="M38" s="296"/>
-      <c r="N38" s="297"/>
+      <c r="D38" s="289"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="291"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="285"/>
+      <c r="K38" s="285"/>
+      <c r="L38" s="286"/>
+      <c r="M38" s="283"/>
+      <c r="N38" s="284"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -9826,17 +9826,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="101"/>
-      <c r="D39" s="317"/>
-      <c r="E39" s="317"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="275"/>
-      <c r="J39" s="275"/>
-      <c r="K39" s="275"/>
-      <c r="L39" s="276"/>
-      <c r="M39" s="296"/>
-      <c r="N39" s="297"/>
+      <c r="D39" s="302"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="285"/>
+      <c r="J39" s="285"/>
+      <c r="K39" s="285"/>
+      <c r="L39" s="286"/>
+      <c r="M39" s="283"/>
+      <c r="N39" s="284"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -9847,17 +9847,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="101"/>
-      <c r="D40" s="317"/>
-      <c r="E40" s="317"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="276"/>
-      <c r="M40" s="296"/>
-      <c r="N40" s="297"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="285"/>
+      <c r="J40" s="285"/>
+      <c r="K40" s="285"/>
+      <c r="L40" s="286"/>
+      <c r="M40" s="283"/>
+      <c r="N40" s="284"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -9868,17 +9868,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="101"/>
-      <c r="D41" s="317"/>
-      <c r="E41" s="317"/>
-      <c r="F41" s="317"/>
-      <c r="G41" s="317"/>
-      <c r="H41" s="317"/>
-      <c r="I41" s="275"/>
-      <c r="J41" s="275"/>
-      <c r="K41" s="275"/>
-      <c r="L41" s="276"/>
-      <c r="M41" s="296"/>
-      <c r="N41" s="297"/>
+      <c r="D41" s="302"/>
+      <c r="E41" s="302"/>
+      <c r="F41" s="302"/>
+      <c r="G41" s="302"/>
+      <c r="H41" s="302"/>
+      <c r="I41" s="285"/>
+      <c r="J41" s="285"/>
+      <c r="K41" s="285"/>
+      <c r="L41" s="286"/>
+      <c r="M41" s="283"/>
+      <c r="N41" s="284"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -9889,17 +9889,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="141"/>
-      <c r="D42" s="317"/>
-      <c r="E42" s="317"/>
-      <c r="F42" s="317"/>
-      <c r="G42" s="317"/>
-      <c r="H42" s="317"/>
-      <c r="I42" s="275"/>
-      <c r="J42" s="275"/>
-      <c r="K42" s="275"/>
-      <c r="L42" s="276"/>
-      <c r="M42" s="296"/>
-      <c r="N42" s="297"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="285"/>
+      <c r="J42" s="285"/>
+      <c r="K42" s="285"/>
+      <c r="L42" s="286"/>
+      <c r="M42" s="283"/>
+      <c r="N42" s="284"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -9912,40 +9912,40 @@
         <v>72</v>
       </c>
       <c r="C43" s="107"/>
-      <c r="D43" s="317"/>
-      <c r="E43" s="317"/>
-      <c r="F43" s="317"/>
-      <c r="G43" s="317"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="275"/>
-      <c r="J43" s="275"/>
-      <c r="K43" s="275"/>
-      <c r="L43" s="276"/>
-      <c r="M43" s="296"/>
-      <c r="N43" s="297"/>
+      <c r="D43" s="302"/>
+      <c r="E43" s="302"/>
+      <c r="F43" s="302"/>
+      <c r="G43" s="302"/>
+      <c r="H43" s="302"/>
+      <c r="I43" s="285"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="285"/>
+      <c r="L43" s="286"/>
+      <c r="M43" s="283"/>
+      <c r="N43" s="284"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="153"/>
-      <c r="B44" s="267" t="s">
+      <c r="B44" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="267"/>
-      <c r="D44" s="411"/>
-      <c r="E44" s="412"/>
-      <c r="F44" s="413"/>
-      <c r="G44" s="263" t="s">
+      <c r="C44" s="263"/>
+      <c r="D44" s="289"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="259" t="s">
         <v>402</v>
       </c>
-      <c r="H44" s="264"/>
-      <c r="I44" s="275"/>
-      <c r="J44" s="275"/>
-      <c r="K44" s="275"/>
-      <c r="L44" s="276"/>
-      <c r="M44" s="296"/>
-      <c r="N44" s="297"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="285"/>
+      <c r="K44" s="285"/>
+      <c r="L44" s="286"/>
+      <c r="M44" s="283"/>
+      <c r="N44" s="284"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -9956,17 +9956,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="211"/>
-      <c r="D45" s="411"/>
-      <c r="E45" s="412"/>
-      <c r="F45" s="412"/>
-      <c r="G45" s="412"/>
-      <c r="H45" s="413"/>
-      <c r="I45" s="304"/>
-      <c r="J45" s="304"/>
-      <c r="K45" s="304"/>
-      <c r="L45" s="305"/>
-      <c r="M45" s="296"/>
-      <c r="N45" s="297"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
+      <c r="H45" s="291"/>
+      <c r="I45" s="287"/>
+      <c r="J45" s="287"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="288"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="284"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -9979,59 +9979,59 @@
         <v>85</v>
       </c>
       <c r="C46" s="107"/>
-      <c r="D46" s="315"/>
-      <c r="E46" s="315"/>
-      <c r="F46" s="315"/>
-      <c r="G46" s="315"/>
-      <c r="H46" s="315"/>
-      <c r="I46" s="304"/>
-      <c r="J46" s="304"/>
-      <c r="K46" s="304"/>
-      <c r="L46" s="305"/>
-      <c r="M46" s="296"/>
-      <c r="N46" s="297"/>
+      <c r="D46" s="450"/>
+      <c r="E46" s="450"/>
+      <c r="F46" s="450"/>
+      <c r="G46" s="450"/>
+      <c r="H46" s="450"/>
+      <c r="I46" s="287"/>
+      <c r="J46" s="287"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="288"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="284"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="153"/>
-      <c r="B47" s="267" t="s">
+      <c r="B47" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="267"/>
-      <c r="D47" s="468"/>
-      <c r="E47" s="468"/>
-      <c r="F47" s="468"/>
-      <c r="G47" s="468"/>
-      <c r="H47" s="468"/>
-      <c r="I47" s="304"/>
-      <c r="J47" s="304"/>
-      <c r="K47" s="304"/>
-      <c r="L47" s="305"/>
-      <c r="M47" s="296"/>
-      <c r="N47" s="297"/>
+      <c r="C47" s="263"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="303"/>
+      <c r="F47" s="303"/>
+      <c r="G47" s="303"/>
+      <c r="H47" s="303"/>
+      <c r="I47" s="287"/>
+      <c r="J47" s="287"/>
+      <c r="K47" s="287"/>
+      <c r="L47" s="288"/>
+      <c r="M47" s="283"/>
+      <c r="N47" s="284"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="153"/>
-      <c r="B48" s="267" t="s">
+      <c r="B48" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="267"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
-      <c r="F48" s="468"/>
-      <c r="G48" s="468"/>
-      <c r="H48" s="468"/>
-      <c r="I48" s="304"/>
-      <c r="J48" s="304"/>
-      <c r="K48" s="304"/>
-      <c r="L48" s="305"/>
-      <c r="M48" s="296"/>
-      <c r="N48" s="297"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="303"/>
+      <c r="E48" s="303"/>
+      <c r="F48" s="303"/>
+      <c r="G48" s="303"/>
+      <c r="H48" s="303"/>
+      <c r="I48" s="287"/>
+      <c r="J48" s="287"/>
+      <c r="K48" s="287"/>
+      <c r="L48" s="288"/>
+      <c r="M48" s="283"/>
+      <c r="N48" s="284"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -10042,19 +10042,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="212"/>
-      <c r="D49" s="308"/>
-      <c r="E49" s="308"/>
-      <c r="F49" s="308"/>
-      <c r="G49" s="308"/>
-      <c r="H49" s="308"/>
-      <c r="I49" s="306" t="s">
+      <c r="D49" s="443"/>
+      <c r="E49" s="443"/>
+      <c r="F49" s="443"/>
+      <c r="G49" s="443"/>
+      <c r="H49" s="443"/>
+      <c r="I49" s="441" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="306"/>
-      <c r="K49" s="306"/>
-      <c r="L49" s="306"/>
-      <c r="M49" s="306"/>
-      <c r="N49" s="307"/>
+      <c r="J49" s="441"/>
+      <c r="K49" s="441"/>
+      <c r="L49" s="441"/>
+      <c r="M49" s="441"/>
+      <c r="N49" s="442"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -10070,47 +10070,47 @@
       <c r="F50" s="104"/>
       <c r="G50" s="104"/>
       <c r="H50" s="104"/>
-      <c r="I50" s="395" t="s">
+      <c r="I50" s="355" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="395"/>
-      <c r="K50" s="395"/>
-      <c r="L50" s="395"/>
-      <c r="M50" s="395"/>
-      <c r="N50" s="396"/>
+      <c r="J50" s="355"/>
+      <c r="K50" s="355"/>
+      <c r="L50" s="355"/>
+      <c r="M50" s="355"/>
+      <c r="N50" s="356"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="388" t="s">
+      <c r="A51" s="347" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="420" t="s">
+      <c r="B51" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="420"/>
-      <c r="D51" s="423" t="s">
+      <c r="C51" s="316"/>
+      <c r="D51" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="424"/>
-      <c r="F51" s="425"/>
-      <c r="G51" s="423" t="s">
+      <c r="E51" s="305"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="304" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="424"/>
-      <c r="I51" s="469"/>
-      <c r="J51" s="309" t="s">
+      <c r="H51" s="305"/>
+      <c r="I51" s="306"/>
+      <c r="J51" s="444" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="310"/>
-      <c r="L51" s="466" t="s">
+      <c r="K51" s="445"/>
+      <c r="L51" s="297" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="390" t="s">
+      <c r="M51" s="349" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="313" t="s">
+      <c r="N51" s="448" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -10118,43 +10118,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="389"/>
-      <c r="B52" s="421"/>
-      <c r="C52" s="421"/>
-      <c r="D52" s="426"/>
-      <c r="E52" s="427"/>
-      <c r="F52" s="428"/>
-      <c r="G52" s="426"/>
-      <c r="H52" s="427"/>
-      <c r="I52" s="470"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="312"/>
-      <c r="L52" s="466"/>
-      <c r="M52" s="390"/>
-      <c r="N52" s="313"/>
+      <c r="A52" s="348"/>
+      <c r="B52" s="317"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="308"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="307"/>
+      <c r="H52" s="308"/>
+      <c r="I52" s="309"/>
+      <c r="J52" s="446"/>
+      <c r="K52" s="447"/>
+      <c r="L52" s="297"/>
+      <c r="M52" s="349"/>
+      <c r="N52" s="448"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="222"/>
-      <c r="B53" s="422"/>
-      <c r="C53" s="422"/>
-      <c r="D53" s="429"/>
-      <c r="E53" s="430"/>
-      <c r="F53" s="408"/>
-      <c r="G53" s="429"/>
-      <c r="H53" s="430"/>
-      <c r="I53" s="471"/>
+      <c r="B53" s="318"/>
+      <c r="C53" s="318"/>
+      <c r="D53" s="310"/>
+      <c r="E53" s="311"/>
+      <c r="F53" s="321"/>
+      <c r="G53" s="310"/>
+      <c r="H53" s="311"/>
+      <c r="I53" s="312"/>
       <c r="J53" s="108" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="467"/>
-      <c r="M53" s="391"/>
-      <c r="N53" s="314"/>
+      <c r="L53" s="298"/>
+      <c r="M53" s="350"/>
+      <c r="N53" s="449"/>
       <c r="O53" s="110"/>
       <c r="P53" s="110"/>
       <c r="Q53" s="3" t="s">
@@ -10167,14 +10167,14 @@
         <v>23</v>
       </c>
       <c r="C54" s="226"/>
-      <c r="D54" s="431"/>
-      <c r="E54" s="432"/>
-      <c r="F54" s="433"/>
-      <c r="G54" s="301"/>
-      <c r="H54" s="302"/>
-      <c r="I54" s="303"/>
-      <c r="J54" s="259"/>
-      <c r="K54" s="260"/>
+      <c r="D54" s="322"/>
+      <c r="E54" s="323"/>
+      <c r="F54" s="324"/>
+      <c r="G54" s="299"/>
+      <c r="H54" s="300"/>
+      <c r="I54" s="301"/>
+      <c r="J54" s="733"/>
+      <c r="K54" s="734"/>
       <c r="L54" s="161"/>
       <c r="M54" s="18"/>
       <c r="N54" s="157"/>
@@ -10188,14 +10188,14 @@
         <v>24</v>
       </c>
       <c r="C55" s="226"/>
-      <c r="D55" s="431"/>
-      <c r="E55" s="432"/>
-      <c r="F55" s="433"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="302"/>
-      <c r="I55" s="303"/>
-      <c r="J55" s="259"/>
-      <c r="K55" s="260"/>
+      <c r="D55" s="322"/>
+      <c r="E55" s="323"/>
+      <c r="F55" s="324"/>
+      <c r="G55" s="299"/>
+      <c r="H55" s="300"/>
+      <c r="I55" s="301"/>
+      <c r="J55" s="733"/>
+      <c r="K55" s="734"/>
       <c r="L55" s="161"/>
       <c r="M55" s="19"/>
       <c r="N55" s="157"/>
@@ -10209,14 +10209,14 @@
         <v>58</v>
       </c>
       <c r="C56" s="226"/>
-      <c r="D56" s="431"/>
-      <c r="E56" s="432"/>
-      <c r="F56" s="433"/>
-      <c r="G56" s="301"/>
-      <c r="H56" s="302"/>
-      <c r="I56" s="303"/>
-      <c r="J56" s="259"/>
-      <c r="K56" s="260"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="323"/>
+      <c r="F56" s="324"/>
+      <c r="G56" s="299"/>
+      <c r="H56" s="300"/>
+      <c r="I56" s="301"/>
+      <c r="J56" s="733"/>
+      <c r="K56" s="734"/>
       <c r="L56" s="161"/>
       <c r="M56" s="18"/>
       <c r="N56" s="157"/>
@@ -10230,14 +10230,14 @@
         <v>71</v>
       </c>
       <c r="C57" s="226"/>
-      <c r="D57" s="431"/>
-      <c r="E57" s="432"/>
-      <c r="F57" s="433"/>
-      <c r="G57" s="301"/>
-      <c r="H57" s="302"/>
-      <c r="I57" s="303"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="260"/>
+      <c r="D57" s="322"/>
+      <c r="E57" s="323"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="299"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="301"/>
+      <c r="J57" s="733"/>
+      <c r="K57" s="734"/>
       <c r="L57" s="161"/>
       <c r="M57" s="19"/>
       <c r="N57" s="157"/>
@@ -10251,14 +10251,14 @@
         <v>25</v>
       </c>
       <c r="C58" s="228"/>
-      <c r="D58" s="434"/>
-      <c r="E58" s="435"/>
-      <c r="F58" s="436"/>
-      <c r="G58" s="472"/>
-      <c r="H58" s="473"/>
-      <c r="I58" s="474"/>
-      <c r="J58" s="261"/>
-      <c r="K58" s="262"/>
+      <c r="D58" s="325"/>
+      <c r="E58" s="326"/>
+      <c r="F58" s="327"/>
+      <c r="G58" s="313"/>
+      <c r="H58" s="314"/>
+      <c r="I58" s="315"/>
+      <c r="J58" s="735"/>
+      <c r="K58" s="736"/>
       <c r="L58" s="20"/>
       <c r="M58" s="21"/>
       <c r="N58" s="157"/>
@@ -10267,66 +10267,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="455" t="s">
+      <c r="A59" s="277" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="456"/>
-      <c r="C59" s="456"/>
-      <c r="D59" s="456"/>
-      <c r="E59" s="456"/>
-      <c r="F59" s="456"/>
-      <c r="G59" s="456"/>
-      <c r="H59" s="456"/>
-      <c r="I59" s="456"/>
-      <c r="J59" s="456"/>
-      <c r="K59" s="456"/>
-      <c r="L59" s="456"/>
-      <c r="M59" s="456"/>
-      <c r="N59" s="457"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="278"/>
+      <c r="D59" s="278"/>
+      <c r="E59" s="278"/>
+      <c r="F59" s="278"/>
+      <c r="G59" s="278"/>
+      <c r="H59" s="278"/>
+      <c r="I59" s="278"/>
+      <c r="J59" s="278"/>
+      <c r="K59" s="278"/>
+      <c r="L59" s="278"/>
+      <c r="M59" s="278"/>
+      <c r="N59" s="279"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="452" t="s">
+      <c r="A60" s="274" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="453"/>
-      <c r="C60" s="454"/>
-      <c r="D60" s="461"/>
-      <c r="E60" s="462"/>
-      <c r="F60" s="462"/>
-      <c r="G60" s="462"/>
-      <c r="H60" s="462"/>
-      <c r="I60" s="463"/>
-      <c r="J60" s="464" t="s">
+      <c r="B60" s="275"/>
+      <c r="C60" s="276"/>
+      <c r="D60" s="292"/>
+      <c r="E60" s="293"/>
+      <c r="F60" s="293"/>
+      <c r="G60" s="293"/>
+      <c r="H60" s="293"/>
+      <c r="I60" s="294"/>
+      <c r="J60" s="295" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="465"/>
-      <c r="L60" s="458"/>
-      <c r="M60" s="459"/>
-      <c r="N60" s="460"/>
+      <c r="K60" s="296"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="281"/>
+      <c r="N60" s="282"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="147" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="449" t="s">
+      <c r="A61" s="271" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="450"/>
-      <c r="C61" s="450"/>
-      <c r="D61" s="450"/>
-      <c r="E61" s="450"/>
-      <c r="F61" s="450"/>
-      <c r="G61" s="450"/>
-      <c r="H61" s="450"/>
-      <c r="I61" s="450"/>
-      <c r="J61" s="450"/>
-      <c r="K61" s="450"/>
-      <c r="L61" s="450"/>
-      <c r="M61" s="450"/>
-      <c r="N61" s="451"/>
+      <c r="B61" s="272"/>
+      <c r="C61" s="272"/>
+      <c r="D61" s="272"/>
+      <c r="E61" s="272"/>
+      <c r="F61" s="272"/>
+      <c r="G61" s="272"/>
+      <c r="H61" s="272"/>
+      <c r="I61" s="272"/>
+      <c r="J61" s="272"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="272"/>
+      <c r="M61" s="272"/>
+      <c r="N61" s="273"/>
       <c r="Q61" s="241" t="s">
         <v>396</v>
       </c>
@@ -14053,6 +14053,124 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="142">
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -14077,124 +14195,6 @@
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -14439,76 +14439,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="511"/>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="513"/>
+      <c r="A1" s="477"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="521" t="s">
+      <c r="A2" s="490" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="522"/>
-      <c r="F2" s="522"/>
-      <c r="G2" s="522"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
-      <c r="K2" s="522"/>
-      <c r="L2" s="522"/>
-      <c r="M2" s="523"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
+      <c r="K2" s="491"/>
+      <c r="L2" s="491"/>
+      <c r="M2" s="492"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="514" t="s">
+      <c r="B3" s="480" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="515"/>
-      <c r="F3" s="519" t="s">
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="488" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="516" t="s">
+      <c r="G3" s="484" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="515"/>
-      <c r="I3" s="516" t="s">
+      <c r="H3" s="481"/>
+      <c r="I3" s="484" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="514"/>
-      <c r="K3" s="515"/>
-      <c r="L3" s="517" t="s">
+      <c r="J3" s="480"/>
+      <c r="K3" s="481"/>
+      <c r="L3" s="486" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="518"/>
+      <c r="M3" s="487"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="491"/>
-      <c r="F4" s="520"/>
-      <c r="G4" s="502"/>
-      <c r="H4" s="491"/>
-      <c r="I4" s="502"/>
-      <c r="J4" s="490"/>
-      <c r="K4" s="491"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="485"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="483"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -14517,143 +14517,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="500"/>
-      <c r="B5" s="475"/>
-      <c r="C5" s="475"/>
-      <c r="D5" s="475"/>
-      <c r="E5" s="475"/>
+      <c r="A5" s="497"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="499"/>
-      <c r="I5" s="503"/>
-      <c r="J5" s="503"/>
-      <c r="K5" s="503"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="496"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="500"/>
-      <c r="B6" s="475"/>
-      <c r="C6" s="475"/>
-      <c r="D6" s="475"/>
-      <c r="E6" s="475"/>
+      <c r="A6" s="497"/>
+      <c r="B6" s="498"/>
+      <c r="C6" s="498"/>
+      <c r="D6" s="498"/>
+      <c r="E6" s="498"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="530"/>
-      <c r="H6" s="531"/>
-      <c r="I6" s="503"/>
-      <c r="J6" s="503"/>
-      <c r="K6" s="503"/>
+      <c r="G6" s="506"/>
+      <c r="H6" s="507"/>
+      <c r="I6" s="496"/>
+      <c r="J6" s="496"/>
+      <c r="K6" s="496"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="500"/>
-      <c r="B7" s="475"/>
-      <c r="C7" s="475"/>
-      <c r="D7" s="475"/>
-      <c r="E7" s="475"/>
+      <c r="A7" s="497"/>
+      <c r="B7" s="498"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="499"/>
-      <c r="I7" s="503"/>
-      <c r="J7" s="503"/>
-      <c r="K7" s="503"/>
+      <c r="G7" s="495"/>
+      <c r="H7" s="495"/>
+      <c r="I7" s="496"/>
+      <c r="J7" s="496"/>
+      <c r="K7" s="496"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="500"/>
-      <c r="B8" s="475"/>
-      <c r="C8" s="475"/>
-      <c r="D8" s="475"/>
-      <c r="E8" s="475"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="498"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="499"/>
-      <c r="H8" s="499"/>
-      <c r="I8" s="503"/>
-      <c r="J8" s="503"/>
-      <c r="K8" s="503"/>
+      <c r="G8" s="495"/>
+      <c r="H8" s="495"/>
+      <c r="I8" s="496"/>
+      <c r="J8" s="496"/>
+      <c r="K8" s="496"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="500"/>
-      <c r="B9" s="475"/>
-      <c r="C9" s="475"/>
-      <c r="D9" s="475"/>
-      <c r="E9" s="475"/>
+      <c r="A9" s="497"/>
+      <c r="B9" s="498"/>
+      <c r="C9" s="498"/>
+      <c r="D9" s="498"/>
+      <c r="E9" s="498"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="499"/>
-      <c r="H9" s="499"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="503"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="495"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="500"/>
-      <c r="B10" s="475"/>
-      <c r="C10" s="475"/>
-      <c r="D10" s="475"/>
-      <c r="E10" s="475"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="498"/>
+      <c r="D10" s="498"/>
+      <c r="E10" s="498"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="499"/>
-      <c r="I10" s="503"/>
-      <c r="J10" s="503"/>
-      <c r="K10" s="503"/>
+      <c r="G10" s="495"/>
+      <c r="H10" s="495"/>
+      <c r="I10" s="496"/>
+      <c r="J10" s="496"/>
+      <c r="K10" s="496"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="487"/>
-      <c r="B11" s="482"/>
-      <c r="C11" s="482"/>
-      <c r="D11" s="482"/>
-      <c r="E11" s="482"/>
+      <c r="A11" s="513"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="514"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="498"/>
-      <c r="H11" s="498"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="504"/>
-      <c r="K11" s="504"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="508"/>
+      <c r="J11" s="508"/>
+      <c r="K11" s="508"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="492" t="s">
+      <c r="A12" s="515" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="493"/>
-      <c r="C12" s="493"/>
-      <c r="D12" s="493"/>
-      <c r="E12" s="493"/>
-      <c r="F12" s="493"/>
-      <c r="G12" s="493"/>
-      <c r="H12" s="493"/>
-      <c r="I12" s="493"/>
-      <c r="J12" s="493"/>
-      <c r="K12" s="493"/>
-      <c r="L12" s="493"/>
-      <c r="M12" s="494"/>
+      <c r="B12" s="516"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="516"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="516"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="516"/>
+      <c r="M12" s="517"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="495" t="s">
+      <c r="A13" s="518" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="496"/>
-      <c r="C13" s="496"/>
-      <c r="D13" s="496"/>
-      <c r="E13" s="496"/>
-      <c r="F13" s="496"/>
-      <c r="G13" s="496"/>
-      <c r="H13" s="496"/>
-      <c r="I13" s="496"/>
-      <c r="J13" s="496"/>
-      <c r="K13" s="496"/>
-      <c r="L13" s="496"/>
-      <c r="M13" s="497"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="519"/>
+      <c r="D13" s="519"/>
+      <c r="E13" s="519"/>
+      <c r="F13" s="519"/>
+      <c r="G13" s="519"/>
+      <c r="H13" s="519"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="519"/>
+      <c r="K13" s="519"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="520"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="210" t="s">
@@ -14676,515 +14676,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="488" t="s">
+      <c r="B15" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="489"/>
-      <c r="D15" s="501" t="s">
+      <c r="C15" s="505"/>
+      <c r="D15" s="503" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="488"/>
-      <c r="F15" s="489"/>
-      <c r="G15" s="501" t="s">
+      <c r="E15" s="504"/>
+      <c r="F15" s="505"/>
+      <c r="G15" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="488"/>
-      <c r="I15" s="489"/>
-      <c r="J15" s="505" t="s">
+      <c r="H15" s="504"/>
+      <c r="I15" s="505"/>
+      <c r="J15" s="509" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="526" t="s">
+      <c r="K15" s="499" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="480" t="s">
+      <c r="L15" s="524" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="524" t="s">
+      <c r="M15" s="493" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="490"/>
-      <c r="C16" s="491"/>
-      <c r="D16" s="501"/>
-      <c r="E16" s="488"/>
-      <c r="F16" s="489"/>
-      <c r="G16" s="501"/>
-      <c r="H16" s="488"/>
-      <c r="I16" s="489"/>
-      <c r="J16" s="505"/>
-      <c r="K16" s="526"/>
-      <c r="L16" s="480"/>
-      <c r="M16" s="524"/>
+      <c r="B16" s="482"/>
+      <c r="C16" s="483"/>
+      <c r="D16" s="503"/>
+      <c r="E16" s="504"/>
+      <c r="F16" s="505"/>
+      <c r="G16" s="503"/>
+      <c r="H16" s="504"/>
+      <c r="I16" s="505"/>
+      <c r="J16" s="509"/>
+      <c r="K16" s="499"/>
+      <c r="L16" s="524"/>
+      <c r="M16" s="493"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="528" t="s">
+      <c r="A17" s="501" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="529"/>
+      <c r="B17" s="502"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="502"/>
-      <c r="E17" s="490"/>
-      <c r="F17" s="491"/>
-      <c r="G17" s="502"/>
-      <c r="H17" s="490"/>
-      <c r="I17" s="491"/>
-      <c r="J17" s="506"/>
-      <c r="K17" s="527"/>
-      <c r="L17" s="481"/>
-      <c r="M17" s="525"/>
+      <c r="D17" s="485"/>
+      <c r="E17" s="482"/>
+      <c r="F17" s="483"/>
+      <c r="G17" s="485"/>
+      <c r="H17" s="482"/>
+      <c r="I17" s="483"/>
+      <c r="J17" s="510"/>
+      <c r="K17" s="500"/>
+      <c r="L17" s="525"/>
+      <c r="M17" s="494"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="476"/>
-      <c r="B18" s="477"/>
+      <c r="A18" s="511"/>
+      <c r="B18" s="512"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="475"/>
-      <c r="E18" s="475"/>
-      <c r="F18" s="475"/>
-      <c r="G18" s="475"/>
-      <c r="H18" s="475"/>
-      <c r="I18" s="475"/>
+      <c r="D18" s="498"/>
+      <c r="E18" s="498"/>
+      <c r="F18" s="498"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="498"/>
+      <c r="I18" s="498"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="476"/>
-      <c r="B19" s="477"/>
+      <c r="A19" s="511"/>
+      <c r="B19" s="512"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="475"/>
-      <c r="E19" s="475"/>
-      <c r="F19" s="475"/>
-      <c r="G19" s="475"/>
-      <c r="H19" s="475"/>
-      <c r="I19" s="475"/>
+      <c r="D19" s="498"/>
+      <c r="E19" s="498"/>
+      <c r="F19" s="498"/>
+      <c r="G19" s="498"/>
+      <c r="H19" s="498"/>
+      <c r="I19" s="498"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="476"/>
-      <c r="B20" s="477"/>
+      <c r="A20" s="511"/>
+      <c r="B20" s="512"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="475"/>
-      <c r="E20" s="475"/>
-      <c r="F20" s="475"/>
-      <c r="G20" s="475"/>
-      <c r="H20" s="475"/>
-      <c r="I20" s="475"/>
+      <c r="D20" s="498"/>
+      <c r="E20" s="498"/>
+      <c r="F20" s="498"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="498"/>
+      <c r="I20" s="498"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="476"/>
-      <c r="B21" s="477"/>
+      <c r="A21" s="511"/>
+      <c r="B21" s="512"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="475"/>
-      <c r="E21" s="475"/>
-      <c r="F21" s="475"/>
-      <c r="G21" s="475"/>
-      <c r="H21" s="475"/>
-      <c r="I21" s="475"/>
+      <c r="D21" s="498"/>
+      <c r="E21" s="498"/>
+      <c r="F21" s="498"/>
+      <c r="G21" s="498"/>
+      <c r="H21" s="498"/>
+      <c r="I21" s="498"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="476"/>
-      <c r="B22" s="477"/>
+      <c r="A22" s="511"/>
+      <c r="B22" s="512"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="475"/>
-      <c r="E22" s="475"/>
-      <c r="F22" s="475"/>
-      <c r="G22" s="475"/>
-      <c r="H22" s="475"/>
-      <c r="I22" s="475"/>
+      <c r="D22" s="498"/>
+      <c r="E22" s="498"/>
+      <c r="F22" s="498"/>
+      <c r="G22" s="498"/>
+      <c r="H22" s="498"/>
+      <c r="I22" s="498"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="476"/>
-      <c r="B23" s="477"/>
+      <c r="A23" s="511"/>
+      <c r="B23" s="512"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="475"/>
-      <c r="E23" s="475"/>
-      <c r="F23" s="475"/>
-      <c r="G23" s="475"/>
-      <c r="H23" s="475"/>
-      <c r="I23" s="475"/>
+      <c r="D23" s="498"/>
+      <c r="E23" s="498"/>
+      <c r="F23" s="498"/>
+      <c r="G23" s="498"/>
+      <c r="H23" s="498"/>
+      <c r="I23" s="498"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="476"/>
-      <c r="B24" s="477"/>
+      <c r="A24" s="511"/>
+      <c r="B24" s="512"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="475"/>
-      <c r="E24" s="475"/>
-      <c r="F24" s="475"/>
-      <c r="G24" s="475"/>
-      <c r="H24" s="475"/>
-      <c r="I24" s="475"/>
+      <c r="D24" s="498"/>
+      <c r="E24" s="498"/>
+      <c r="F24" s="498"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="498"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="476"/>
-      <c r="B25" s="477"/>
+      <c r="A25" s="511"/>
+      <c r="B25" s="512"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="475"/>
-      <c r="E25" s="475"/>
-      <c r="F25" s="475"/>
-      <c r="G25" s="475"/>
-      <c r="H25" s="475"/>
-      <c r="I25" s="475"/>
+      <c r="D25" s="498"/>
+      <c r="E25" s="498"/>
+      <c r="F25" s="498"/>
+      <c r="G25" s="498"/>
+      <c r="H25" s="498"/>
+      <c r="I25" s="498"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="476"/>
-      <c r="B26" s="477"/>
+      <c r="A26" s="511"/>
+      <c r="B26" s="512"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="475"/>
-      <c r="E26" s="475"/>
-      <c r="F26" s="475"/>
-      <c r="G26" s="475"/>
-      <c r="H26" s="475"/>
-      <c r="I26" s="475"/>
+      <c r="D26" s="498"/>
+      <c r="E26" s="498"/>
+      <c r="F26" s="498"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="498"/>
+      <c r="I26" s="498"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="476"/>
-      <c r="B27" s="477"/>
+      <c r="A27" s="511"/>
+      <c r="B27" s="512"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="475"/>
-      <c r="E27" s="475"/>
-      <c r="F27" s="475"/>
-      <c r="G27" s="475"/>
-      <c r="H27" s="475"/>
-      <c r="I27" s="475"/>
+      <c r="D27" s="498"/>
+      <c r="E27" s="498"/>
+      <c r="F27" s="498"/>
+      <c r="G27" s="498"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="498"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="476"/>
-      <c r="B28" s="477"/>
+      <c r="A28" s="511"/>
+      <c r="B28" s="512"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="475"/>
-      <c r="E28" s="475"/>
-      <c r="F28" s="475"/>
-      <c r="G28" s="475"/>
-      <c r="H28" s="475"/>
-      <c r="I28" s="475"/>
+      <c r="D28" s="498"/>
+      <c r="E28" s="498"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="498"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="476"/>
-      <c r="B29" s="477"/>
+      <c r="A29" s="511"/>
+      <c r="B29" s="512"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="475"/>
-      <c r="E29" s="475"/>
-      <c r="F29" s="475"/>
-      <c r="G29" s="475"/>
-      <c r="H29" s="475"/>
-      <c r="I29" s="475"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="498"/>
+      <c r="G29" s="498"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="498"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="476"/>
-      <c r="B30" s="477"/>
+      <c r="A30" s="511"/>
+      <c r="B30" s="512"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="475"/>
-      <c r="E30" s="475"/>
-      <c r="F30" s="475"/>
-      <c r="G30" s="475"/>
-      <c r="H30" s="475"/>
-      <c r="I30" s="475"/>
+      <c r="D30" s="498"/>
+      <c r="E30" s="498"/>
+      <c r="F30" s="498"/>
+      <c r="G30" s="498"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="498"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="476"/>
-      <c r="B31" s="477"/>
+      <c r="A31" s="511"/>
+      <c r="B31" s="512"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="475"/>
-      <c r="E31" s="475"/>
-      <c r="F31" s="475"/>
-      <c r="G31" s="475"/>
-      <c r="H31" s="475"/>
-      <c r="I31" s="475"/>
+      <c r="D31" s="498"/>
+      <c r="E31" s="498"/>
+      <c r="F31" s="498"/>
+      <c r="G31" s="498"/>
+      <c r="H31" s="498"/>
+      <c r="I31" s="498"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="476"/>
-      <c r="B32" s="477"/>
+      <c r="A32" s="511"/>
+      <c r="B32" s="512"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="475"/>
-      <c r="E32" s="475"/>
-      <c r="F32" s="475"/>
-      <c r="G32" s="475"/>
-      <c r="H32" s="475"/>
-      <c r="I32" s="475"/>
+      <c r="D32" s="498"/>
+      <c r="E32" s="498"/>
+      <c r="F32" s="498"/>
+      <c r="G32" s="498"/>
+      <c r="H32" s="498"/>
+      <c r="I32" s="498"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="476"/>
-      <c r="B33" s="477"/>
+      <c r="A33" s="511"/>
+      <c r="B33" s="512"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="475"/>
-      <c r="E33" s="475"/>
-      <c r="F33" s="475"/>
-      <c r="G33" s="475"/>
-      <c r="H33" s="475"/>
-      <c r="I33" s="475"/>
+      <c r="D33" s="498"/>
+      <c r="E33" s="498"/>
+      <c r="F33" s="498"/>
+      <c r="G33" s="498"/>
+      <c r="H33" s="498"/>
+      <c r="I33" s="498"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="476"/>
-      <c r="B34" s="477"/>
+      <c r="A34" s="511"/>
+      <c r="B34" s="512"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="475"/>
-      <c r="E34" s="475"/>
-      <c r="F34" s="475"/>
-      <c r="G34" s="475"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="475"/>
+      <c r="D34" s="498"/>
+      <c r="E34" s="498"/>
+      <c r="F34" s="498"/>
+      <c r="G34" s="498"/>
+      <c r="H34" s="498"/>
+      <c r="I34" s="498"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="476"/>
-      <c r="B35" s="477"/>
+      <c r="A35" s="511"/>
+      <c r="B35" s="512"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="475"/>
-      <c r="E35" s="475"/>
-      <c r="F35" s="475"/>
-      <c r="G35" s="475"/>
-      <c r="H35" s="475"/>
-      <c r="I35" s="475"/>
+      <c r="D35" s="498"/>
+      <c r="E35" s="498"/>
+      <c r="F35" s="498"/>
+      <c r="G35" s="498"/>
+      <c r="H35" s="498"/>
+      <c r="I35" s="498"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="476"/>
-      <c r="B36" s="477"/>
+      <c r="A36" s="511"/>
+      <c r="B36" s="512"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="475"/>
-      <c r="E36" s="475"/>
-      <c r="F36" s="475"/>
-      <c r="G36" s="475"/>
-      <c r="H36" s="475"/>
-      <c r="I36" s="475"/>
+      <c r="D36" s="498"/>
+      <c r="E36" s="498"/>
+      <c r="F36" s="498"/>
+      <c r="G36" s="498"/>
+      <c r="H36" s="498"/>
+      <c r="I36" s="498"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="476"/>
-      <c r="B37" s="477"/>
+      <c r="A37" s="511"/>
+      <c r="B37" s="512"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="475"/>
-      <c r="E37" s="475"/>
-      <c r="F37" s="475"/>
-      <c r="G37" s="475"/>
-      <c r="H37" s="475"/>
-      <c r="I37" s="475"/>
+      <c r="D37" s="498"/>
+      <c r="E37" s="498"/>
+      <c r="F37" s="498"/>
+      <c r="G37" s="498"/>
+      <c r="H37" s="498"/>
+      <c r="I37" s="498"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="476"/>
-      <c r="B38" s="477"/>
+      <c r="A38" s="511"/>
+      <c r="B38" s="512"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="475"/>
-      <c r="E38" s="475"/>
-      <c r="F38" s="475"/>
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
-      <c r="I38" s="475"/>
+      <c r="D38" s="498"/>
+      <c r="E38" s="498"/>
+      <c r="F38" s="498"/>
+      <c r="G38" s="498"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="498"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="476"/>
-      <c r="B39" s="477"/>
+      <c r="A39" s="511"/>
+      <c r="B39" s="512"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="475"/>
-      <c r="E39" s="475"/>
-      <c r="F39" s="475"/>
-      <c r="G39" s="475"/>
-      <c r="H39" s="475"/>
-      <c r="I39" s="475"/>
+      <c r="D39" s="498"/>
+      <c r="E39" s="498"/>
+      <c r="F39" s="498"/>
+      <c r="G39" s="498"/>
+      <c r="H39" s="498"/>
+      <c r="I39" s="498"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="476"/>
-      <c r="B40" s="477"/>
+      <c r="A40" s="511"/>
+      <c r="B40" s="512"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="475"/>
-      <c r="E40" s="475"/>
-      <c r="F40" s="475"/>
-      <c r="G40" s="475"/>
-      <c r="H40" s="475"/>
-      <c r="I40" s="475"/>
+      <c r="D40" s="498"/>
+      <c r="E40" s="498"/>
+      <c r="F40" s="498"/>
+      <c r="G40" s="498"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="498"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="476"/>
-      <c r="B41" s="477"/>
+      <c r="A41" s="511"/>
+      <c r="B41" s="512"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="475"/>
-      <c r="E41" s="475"/>
-      <c r="F41" s="475"/>
-      <c r="G41" s="475"/>
-      <c r="H41" s="475"/>
-      <c r="I41" s="475"/>
+      <c r="D41" s="498"/>
+      <c r="E41" s="498"/>
+      <c r="F41" s="498"/>
+      <c r="G41" s="498"/>
+      <c r="H41" s="498"/>
+      <c r="I41" s="498"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="476"/>
-      <c r="B42" s="477"/>
+      <c r="A42" s="511"/>
+      <c r="B42" s="512"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="475"/>
-      <c r="E42" s="475"/>
-      <c r="F42" s="475"/>
-      <c r="G42" s="475"/>
-      <c r="H42" s="475"/>
-      <c r="I42" s="475"/>
+      <c r="D42" s="498"/>
+      <c r="E42" s="498"/>
+      <c r="F42" s="498"/>
+      <c r="G42" s="498"/>
+      <c r="H42" s="498"/>
+      <c r="I42" s="498"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="476"/>
-      <c r="B43" s="477"/>
+      <c r="A43" s="511"/>
+      <c r="B43" s="512"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="475"/>
-      <c r="E43" s="475"/>
-      <c r="F43" s="475"/>
-      <c r="G43" s="475"/>
-      <c r="H43" s="475"/>
-      <c r="I43" s="475"/>
+      <c r="D43" s="498"/>
+      <c r="E43" s="498"/>
+      <c r="F43" s="498"/>
+      <c r="G43" s="498"/>
+      <c r="H43" s="498"/>
+      <c r="I43" s="498"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="476"/>
-      <c r="B44" s="477"/>
+      <c r="A44" s="511"/>
+      <c r="B44" s="512"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="475"/>
-      <c r="F44" s="475"/>
-      <c r="G44" s="475"/>
-      <c r="H44" s="475"/>
-      <c r="I44" s="475"/>
+      <c r="D44" s="498"/>
+      <c r="E44" s="498"/>
+      <c r="F44" s="498"/>
+      <c r="G44" s="498"/>
+      <c r="H44" s="498"/>
+      <c r="I44" s="498"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="478"/>
-      <c r="B45" s="479"/>
+      <c r="A45" s="522"/>
+      <c r="B45" s="523"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="482"/>
-      <c r="E45" s="482"/>
-      <c r="F45" s="482"/>
-      <c r="G45" s="482"/>
-      <c r="H45" s="482"/>
-      <c r="I45" s="482"/>
+      <c r="D45" s="514"/>
+      <c r="E45" s="514"/>
+      <c r="F45" s="514"/>
+      <c r="G45" s="514"/>
+      <c r="H45" s="514"/>
+      <c r="I45" s="514"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="483" t="s">
+      <c r="A46" s="526" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="484"/>
-      <c r="C46" s="484"/>
-      <c r="D46" s="484"/>
-      <c r="E46" s="484"/>
-      <c r="F46" s="484"/>
-      <c r="G46" s="484"/>
-      <c r="H46" s="484"/>
-      <c r="I46" s="484"/>
-      <c r="J46" s="484"/>
-      <c r="K46" s="485"/>
-      <c r="L46" s="485"/>
-      <c r="M46" s="486"/>
+      <c r="B46" s="527"/>
+      <c r="C46" s="527"/>
+      <c r="D46" s="527"/>
+      <c r="E46" s="527"/>
+      <c r="F46" s="527"/>
+      <c r="G46" s="527"/>
+      <c r="H46" s="527"/>
+      <c r="I46" s="527"/>
+      <c r="J46" s="527"/>
+      <c r="K46" s="528"/>
+      <c r="L46" s="528"/>
+      <c r="M46" s="529"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="452" t="s">
+      <c r="A47" s="274" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="453"/>
-      <c r="C47" s="454"/>
-      <c r="D47" s="508"/>
-      <c r="E47" s="509"/>
-      <c r="F47" s="509"/>
-      <c r="G47" s="509"/>
-      <c r="H47" s="510"/>
+      <c r="B47" s="275"/>
+      <c r="C47" s="276"/>
+      <c r="D47" s="474"/>
+      <c r="E47" s="475"/>
+      <c r="F47" s="475"/>
+      <c r="G47" s="475"/>
+      <c r="H47" s="476"/>
       <c r="I47" s="236" t="s">
         <v>393</v>
       </c>
@@ -15195,21 +15195,21 @@
       <c r="N47" s="239"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="507" t="s">
+      <c r="A48" s="473" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="507"/>
-      <c r="C48" s="507"/>
-      <c r="D48" s="507"/>
-      <c r="E48" s="507"/>
-      <c r="F48" s="507"/>
-      <c r="G48" s="507"/>
-      <c r="H48" s="507"/>
-      <c r="I48" s="507"/>
-      <c r="J48" s="507"/>
-      <c r="K48" s="507"/>
-      <c r="L48" s="507"/>
-      <c r="M48" s="507"/>
+      <c r="B48" s="473"/>
+      <c r="C48" s="473"/>
+      <c r="D48" s="473"/>
+      <c r="E48" s="473"/>
+      <c r="F48" s="473"/>
+      <c r="G48" s="473"/>
+      <c r="H48" s="473"/>
+      <c r="I48" s="473"/>
+      <c r="J48" s="473"/>
+      <c r="K48" s="473"/>
+      <c r="L48" s="473"/>
+      <c r="M48" s="473"/>
       <c r="N48" s="242"/>
     </row>
   </sheetData>
@@ -15223,6 +15223,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
@@ -15247,108 +15349,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15386,17 +15386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="554"/>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
-      <c r="K1" s="556"/>
+      <c r="A1" s="559"/>
+      <c r="B1" s="560"/>
+      <c r="C1" s="560"/>
+      <c r="D1" s="560"/>
+      <c r="E1" s="560"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="560"/>
+      <c r="H1" s="560"/>
+      <c r="I1" s="560"/>
+      <c r="J1" s="560"/>
+      <c r="K1" s="561"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="579" t="s">
@@ -15414,22 +15414,22 @@
       <c r="K2" s="581"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="563" t="s">
+      <c r="A3" s="565" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="564" t="s">
+      <c r="B3" s="567" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="514" t="s">
+      <c r="C3" s="567"/>
+      <c r="D3" s="568"/>
+      <c r="E3" s="480" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="515"/>
-      <c r="G3" s="591" t="s">
+      <c r="F3" s="481"/>
+      <c r="G3" s="543" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="484" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="574"/>
@@ -15437,16 +15437,16 @@
       <c r="K3" s="575"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="553"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="491"/>
-      <c r="G4" s="526"/>
+      <c r="A4" s="566"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="499"/>
       <c r="H4" s="576"/>
-      <c r="I4" s="557"/>
-      <c r="J4" s="557"/>
+      <c r="I4" s="562"/>
+      <c r="J4" s="562"/>
       <c r="K4" s="577"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15460,206 +15460,206 @@
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="527"/>
+      <c r="G5" s="500"/>
       <c r="H5" s="578"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="439"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="330"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="571"/>
-      <c r="B6" s="572"/>
-      <c r="C6" s="572"/>
-      <c r="D6" s="573"/>
+      <c r="A6" s="540"/>
+      <c r="B6" s="541"/>
+      <c r="C6" s="541"/>
+      <c r="D6" s="542"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
-      <c r="H6" s="560"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="562"/>
+      <c r="H6" s="544"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="545"/>
+      <c r="K6" s="546"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="571"/>
-      <c r="B7" s="572"/>
-      <c r="C7" s="572"/>
-      <c r="D7" s="573"/>
+      <c r="A7" s="540"/>
+      <c r="B7" s="541"/>
+      <c r="C7" s="541"/>
+      <c r="D7" s="542"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="561"/>
-      <c r="J7" s="561"/>
-      <c r="K7" s="562"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="545"/>
+      <c r="J7" s="545"/>
+      <c r="K7" s="546"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="571"/>
-      <c r="B8" s="572"/>
-      <c r="C8" s="572"/>
-      <c r="D8" s="573"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="541"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="542"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="560"/>
-      <c r="I8" s="561"/>
-      <c r="J8" s="561"/>
-      <c r="K8" s="562"/>
+      <c r="H8" s="544"/>
+      <c r="I8" s="545"/>
+      <c r="J8" s="545"/>
+      <c r="K8" s="546"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="571"/>
-      <c r="B9" s="572"/>
-      <c r="C9" s="572"/>
-      <c r="D9" s="573"/>
+      <c r="A9" s="540"/>
+      <c r="B9" s="541"/>
+      <c r="C9" s="541"/>
+      <c r="D9" s="542"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="560"/>
-      <c r="I9" s="561"/>
-      <c r="J9" s="561"/>
-      <c r="K9" s="562"/>
+      <c r="H9" s="544"/>
+      <c r="I9" s="545"/>
+      <c r="J9" s="545"/>
+      <c r="K9" s="546"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="571"/>
-      <c r="B10" s="572"/>
-      <c r="C10" s="572"/>
-      <c r="D10" s="573"/>
+      <c r="A10" s="540"/>
+      <c r="B10" s="541"/>
+      <c r="C10" s="541"/>
+      <c r="D10" s="542"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="560"/>
-      <c r="I10" s="561"/>
-      <c r="J10" s="561"/>
-      <c r="K10" s="562"/>
+      <c r="H10" s="544"/>
+      <c r="I10" s="545"/>
+      <c r="J10" s="545"/>
+      <c r="K10" s="546"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="571"/>
-      <c r="B11" s="572"/>
-      <c r="C11" s="572"/>
-      <c r="D11" s="573"/>
+      <c r="A11" s="540"/>
+      <c r="B11" s="541"/>
+      <c r="C11" s="541"/>
+      <c r="D11" s="542"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="560"/>
-      <c r="I11" s="561"/>
-      <c r="J11" s="561"/>
-      <c r="K11" s="562"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="545"/>
+      <c r="J11" s="545"/>
+      <c r="K11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="568"/>
-      <c r="B12" s="569"/>
-      <c r="C12" s="569"/>
-      <c r="D12" s="570"/>
+      <c r="A12" s="571"/>
+      <c r="B12" s="572"/>
+      <c r="C12" s="572"/>
+      <c r="D12" s="573"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="532"/>
-      <c r="I12" s="533"/>
-      <c r="J12" s="533"/>
-      <c r="K12" s="534"/>
+      <c r="H12" s="584"/>
+      <c r="I12" s="585"/>
+      <c r="J12" s="585"/>
+      <c r="K12" s="586"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="492" t="s">
+      <c r="A13" s="515" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="493"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="493"/>
-      <c r="E13" s="493"/>
-      <c r="F13" s="493"/>
-      <c r="G13" s="493"/>
-      <c r="H13" s="493"/>
-      <c r="I13" s="493"/>
-      <c r="J13" s="493"/>
-      <c r="K13" s="494"/>
+      <c r="B13" s="516"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="516"/>
+      <c r="E13" s="516"/>
+      <c r="F13" s="516"/>
+      <c r="G13" s="516"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="516"/>
+      <c r="K13" s="517"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="535" t="s">
+      <c r="A14" s="587" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="536"/>
-      <c r="C14" s="536"/>
-      <c r="D14" s="536"/>
-      <c r="E14" s="536"/>
-      <c r="F14" s="536"/>
-      <c r="G14" s="536"/>
-      <c r="H14" s="536"/>
-      <c r="I14" s="536"/>
-      <c r="J14" s="536"/>
-      <c r="K14" s="537"/>
+      <c r="B14" s="588"/>
+      <c r="C14" s="588"/>
+      <c r="D14" s="588"/>
+      <c r="E14" s="588"/>
+      <c r="F14" s="588"/>
+      <c r="G14" s="588"/>
+      <c r="H14" s="588"/>
+      <c r="I14" s="588"/>
+      <c r="J14" s="588"/>
+      <c r="K14" s="589"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="553" t="s">
+      <c r="A15" s="566" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="488" t="s">
+      <c r="B15" s="504" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="557"/>
-      <c r="D15" s="558"/>
-      <c r="E15" s="488" t="s">
+      <c r="C15" s="562"/>
+      <c r="D15" s="563"/>
+      <c r="E15" s="504" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="489"/>
-      <c r="G15" s="526" t="s">
+      <c r="F15" s="505"/>
+      <c r="G15" s="499" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="505" t="s">
+      <c r="H15" s="509" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="501" t="s">
+      <c r="I15" s="503" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="557"/>
+      <c r="J15" s="562"/>
       <c r="K15" s="577"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="553"/>
-      <c r="B16" s="557"/>
-      <c r="C16" s="557"/>
-      <c r="D16" s="558"/>
-      <c r="E16" s="490"/>
-      <c r="F16" s="491"/>
-      <c r="G16" s="526"/>
-      <c r="H16" s="505"/>
+      <c r="A16" s="566"/>
+      <c r="B16" s="562"/>
+      <c r="C16" s="562"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="482"/>
+      <c r="F16" s="483"/>
+      <c r="G16" s="499"/>
+      <c r="H16" s="509"/>
       <c r="I16" s="576"/>
-      <c r="J16" s="557"/>
+      <c r="J16" s="562"/>
       <c r="K16" s="577"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="438"/>
-      <c r="C17" s="438"/>
-      <c r="D17" s="559"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="564"/>
       <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="527"/>
-      <c r="H17" s="506"/>
+      <c r="G17" s="500"/>
+      <c r="H17" s="510"/>
       <c r="I17" s="578"/>
-      <c r="J17" s="438"/>
-      <c r="K17" s="439"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="330"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="544"/>
-      <c r="B18" s="545"/>
-      <c r="C18" s="545"/>
-      <c r="D18" s="546"/>
+      <c r="A18" s="547"/>
+      <c r="B18" s="548"/>
+      <c r="C18" s="548"/>
+      <c r="D18" s="549"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="541"/>
-      <c r="J18" s="542"/>
-      <c r="K18" s="543"/>
+      <c r="I18" s="553"/>
+      <c r="J18" s="554"/>
+      <c r="K18" s="555"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="538"/>
-      <c r="B19" s="539"/>
-      <c r="C19" s="539"/>
-      <c r="D19" s="540"/>
+      <c r="A19" s="550"/>
+      <c r="B19" s="551"/>
+      <c r="C19" s="551"/>
+      <c r="D19" s="552"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="30"/>
@@ -15669,10 +15669,10 @@
       <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="538"/>
-      <c r="B20" s="539"/>
-      <c r="C20" s="539"/>
-      <c r="D20" s="540"/>
+      <c r="A20" s="550"/>
+      <c r="B20" s="551"/>
+      <c r="C20" s="551"/>
+      <c r="D20" s="552"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="30"/>
@@ -15682,10 +15682,10 @@
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="538"/>
-      <c r="B21" s="539"/>
-      <c r="C21" s="539"/>
-      <c r="D21" s="540"/>
+      <c r="A21" s="550"/>
+      <c r="B21" s="551"/>
+      <c r="C21" s="551"/>
+      <c r="D21" s="552"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="30"/>
@@ -15695,10 +15695,10 @@
       <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="538"/>
-      <c r="B22" s="539"/>
-      <c r="C22" s="539"/>
-      <c r="D22" s="540"/>
+      <c r="A22" s="550"/>
+      <c r="B22" s="551"/>
+      <c r="C22" s="551"/>
+      <c r="D22" s="552"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30"/>
@@ -15708,10 +15708,10 @@
       <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="538"/>
-      <c r="B23" s="539"/>
-      <c r="C23" s="539"/>
-      <c r="D23" s="540"/>
+      <c r="A23" s="550"/>
+      <c r="B23" s="551"/>
+      <c r="C23" s="551"/>
+      <c r="D23" s="552"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="30"/>
@@ -15721,10 +15721,10 @@
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="538"/>
-      <c r="B24" s="539"/>
-      <c r="C24" s="539"/>
-      <c r="D24" s="540"/>
+      <c r="A24" s="550"/>
+      <c r="B24" s="551"/>
+      <c r="C24" s="551"/>
+      <c r="D24" s="552"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="30"/>
@@ -15734,10 +15734,10 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="538"/>
-      <c r="B25" s="539"/>
-      <c r="C25" s="539"/>
-      <c r="D25" s="540"/>
+      <c r="A25" s="550"/>
+      <c r="B25" s="551"/>
+      <c r="C25" s="551"/>
+      <c r="D25" s="552"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30"/>
@@ -15747,43 +15747,43 @@
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="544"/>
-      <c r="B26" s="545"/>
-      <c r="C26" s="545"/>
-      <c r="D26" s="546"/>
+      <c r="A26" s="547"/>
+      <c r="B26" s="548"/>
+      <c r="C26" s="548"/>
+      <c r="D26" s="549"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="541"/>
-      <c r="J26" s="542"/>
-      <c r="K26" s="543"/>
+      <c r="I26" s="553"/>
+      <c r="J26" s="554"/>
+      <c r="K26" s="555"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="544"/>
-      <c r="B27" s="545"/>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
+      <c r="A27" s="547"/>
+      <c r="B27" s="548"/>
+      <c r="C27" s="548"/>
+      <c r="D27" s="549"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="30"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="541"/>
-      <c r="J27" s="542"/>
-      <c r="K27" s="543"/>
+      <c r="I27" s="553"/>
+      <c r="J27" s="554"/>
+      <c r="K27" s="555"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="544"/>
-      <c r="B28" s="545"/>
-      <c r="C28" s="545"/>
-      <c r="D28" s="546"/>
+      <c r="A28" s="547"/>
+      <c r="B28" s="548"/>
+      <c r="C28" s="548"/>
+      <c r="D28" s="549"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="30"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="541"/>
-      <c r="J28" s="542"/>
-      <c r="K28" s="543"/>
+      <c r="I28" s="553"/>
+      <c r="J28" s="554"/>
+      <c r="K28" s="555"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="195"/>
@@ -15864,86 +15864,86 @@
       <c r="K34" s="33"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="544"/>
-      <c r="B35" s="545"/>
-      <c r="C35" s="545"/>
-      <c r="D35" s="546"/>
+      <c r="A35" s="547"/>
+      <c r="B35" s="548"/>
+      <c r="C35" s="548"/>
+      <c r="D35" s="549"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="30"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="541"/>
-      <c r="J35" s="542"/>
-      <c r="K35" s="543"/>
+      <c r="I35" s="553"/>
+      <c r="J35" s="554"/>
+      <c r="K35" s="555"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="544"/>
-      <c r="B36" s="545"/>
-      <c r="C36" s="545"/>
-      <c r="D36" s="546"/>
+      <c r="A36" s="547"/>
+      <c r="B36" s="548"/>
+      <c r="C36" s="548"/>
+      <c r="D36" s="549"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="30"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="543"/>
+      <c r="I36" s="553"/>
+      <c r="J36" s="554"/>
+      <c r="K36" s="555"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="544"/>
-      <c r="B37" s="545"/>
-      <c r="C37" s="545"/>
-      <c r="D37" s="546"/>
+      <c r="A37" s="547"/>
+      <c r="B37" s="548"/>
+      <c r="C37" s="548"/>
+      <c r="D37" s="549"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="30"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="543"/>
+      <c r="I37" s="553"/>
+      <c r="J37" s="554"/>
+      <c r="K37" s="555"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="547"/>
-      <c r="B38" s="548"/>
-      <c r="C38" s="548"/>
-      <c r="D38" s="549"/>
+      <c r="A38" s="590"/>
+      <c r="B38" s="591"/>
+      <c r="C38" s="591"/>
+      <c r="D38" s="592"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="550"/>
-      <c r="J38" s="551"/>
-      <c r="K38" s="552"/>
+      <c r="I38" s="593"/>
+      <c r="J38" s="594"/>
+      <c r="K38" s="595"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="455" t="s">
+      <c r="A39" s="277" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="456"/>
-      <c r="C39" s="456"/>
-      <c r="D39" s="456"/>
-      <c r="E39" s="456"/>
-      <c r="F39" s="456"/>
-      <c r="G39" s="456"/>
-      <c r="H39" s="456"/>
-      <c r="I39" s="456"/>
-      <c r="J39" s="456"/>
-      <c r="K39" s="457"/>
+      <c r="B39" s="278"/>
+      <c r="C39" s="278"/>
+      <c r="D39" s="278"/>
+      <c r="E39" s="278"/>
+      <c r="F39" s="278"/>
+      <c r="G39" s="278"/>
+      <c r="H39" s="278"/>
+      <c r="I39" s="278"/>
+      <c r="J39" s="278"/>
+      <c r="K39" s="279"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="588" t="s">
+      <c r="A40" s="556" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="589"/>
-      <c r="C40" s="589"/>
-      <c r="D40" s="589"/>
-      <c r="E40" s="589"/>
-      <c r="F40" s="589"/>
-      <c r="G40" s="589"/>
-      <c r="H40" s="589"/>
-      <c r="I40" s="589"/>
-      <c r="J40" s="589"/>
-      <c r="K40" s="590"/>
+      <c r="B40" s="557"/>
+      <c r="C40" s="557"/>
+      <c r="D40" s="557"/>
+      <c r="E40" s="557"/>
+      <c r="F40" s="557"/>
+      <c r="G40" s="557"/>
+      <c r="H40" s="557"/>
+      <c r="I40" s="557"/>
+      <c r="J40" s="557"/>
+      <c r="K40" s="558"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="145" t="s">
@@ -15955,143 +15955,143 @@
       <c r="C41" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="592" t="s">
+      <c r="D41" s="537" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="592"/>
-      <c r="F41" s="592"/>
-      <c r="G41" s="592"/>
-      <c r="H41" s="593"/>
+      <c r="E41" s="537"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="538"/>
       <c r="I41" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="592" t="s">
+      <c r="J41" s="537" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="595"/>
+      <c r="K41" s="539"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="584"/>
-      <c r="B42" s="585"/>
-      <c r="C42" s="586"/>
-      <c r="D42" s="587"/>
-      <c r="E42" s="587"/>
-      <c r="F42" s="587"/>
-      <c r="G42" s="587"/>
-      <c r="H42" s="585"/>
-      <c r="I42" s="586"/>
-      <c r="J42" s="587"/>
-      <c r="K42" s="594"/>
+      <c r="A42" s="532"/>
+      <c r="B42" s="533"/>
+      <c r="C42" s="534"/>
+      <c r="D42" s="535"/>
+      <c r="E42" s="535"/>
+      <c r="F42" s="535"/>
+      <c r="G42" s="535"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
+      <c r="K42" s="536"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="584"/>
-      <c r="B43" s="585"/>
-      <c r="C43" s="586"/>
-      <c r="D43" s="587"/>
-      <c r="E43" s="587"/>
-      <c r="F43" s="587"/>
-      <c r="G43" s="587"/>
-      <c r="H43" s="585"/>
-      <c r="I43" s="586"/>
-      <c r="J43" s="587"/>
-      <c r="K43" s="594"/>
+      <c r="A43" s="532"/>
+      <c r="B43" s="533"/>
+      <c r="C43" s="534"/>
+      <c r="D43" s="535"/>
+      <c r="E43" s="535"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="534"/>
+      <c r="J43" s="535"/>
+      <c r="K43" s="536"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="584"/>
-      <c r="B44" s="585"/>
-      <c r="C44" s="586"/>
-      <c r="D44" s="587"/>
-      <c r="E44" s="587"/>
-      <c r="F44" s="587"/>
-      <c r="G44" s="587"/>
-      <c r="H44" s="585"/>
-      <c r="I44" s="586"/>
-      <c r="J44" s="587"/>
-      <c r="K44" s="594"/>
+      <c r="A44" s="532"/>
+      <c r="B44" s="533"/>
+      <c r="C44" s="534"/>
+      <c r="D44" s="535"/>
+      <c r="E44" s="535"/>
+      <c r="F44" s="535"/>
+      <c r="G44" s="535"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="584"/>
-      <c r="B45" s="585"/>
-      <c r="C45" s="586"/>
-      <c r="D45" s="587"/>
-      <c r="E45" s="587"/>
-      <c r="F45" s="587"/>
-      <c r="G45" s="587"/>
-      <c r="H45" s="585"/>
-      <c r="I45" s="586"/>
-      <c r="J45" s="587"/>
-      <c r="K45" s="594"/>
+      <c r="A45" s="532"/>
+      <c r="B45" s="533"/>
+      <c r="C45" s="534"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="535"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="533"/>
+      <c r="I45" s="534"/>
+      <c r="J45" s="535"/>
+      <c r="K45" s="536"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="584"/>
-      <c r="B46" s="585"/>
-      <c r="C46" s="586"/>
-      <c r="D46" s="587"/>
-      <c r="E46" s="587"/>
-      <c r="F46" s="587"/>
-      <c r="G46" s="587"/>
-      <c r="H46" s="585"/>
-      <c r="I46" s="586"/>
-      <c r="J46" s="587"/>
-      <c r="K46" s="594"/>
+      <c r="A46" s="532"/>
+      <c r="B46" s="533"/>
+      <c r="C46" s="534"/>
+      <c r="D46" s="535"/>
+      <c r="E46" s="535"/>
+      <c r="F46" s="535"/>
+      <c r="G46" s="535"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
+      <c r="K46" s="536"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="584"/>
-      <c r="B47" s="585"/>
-      <c r="C47" s="586"/>
-      <c r="D47" s="587"/>
-      <c r="E47" s="587"/>
-      <c r="F47" s="587"/>
-      <c r="G47" s="587"/>
-      <c r="H47" s="585"/>
-      <c r="I47" s="586"/>
-      <c r="J47" s="587"/>
-      <c r="K47" s="594"/>
+      <c r="A47" s="532"/>
+      <c r="B47" s="533"/>
+      <c r="C47" s="534"/>
+      <c r="D47" s="535"/>
+      <c r="E47" s="535"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="533"/>
+      <c r="I47" s="534"/>
+      <c r="J47" s="535"/>
+      <c r="K47" s="536"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="584"/>
-      <c r="B48" s="585"/>
-      <c r="C48" s="586"/>
-      <c r="D48" s="587"/>
-      <c r="E48" s="587"/>
-      <c r="F48" s="587"/>
-      <c r="G48" s="587"/>
-      <c r="H48" s="585"/>
-      <c r="I48" s="586"/>
-      <c r="J48" s="587"/>
-      <c r="K48" s="594"/>
+      <c r="A48" s="532"/>
+      <c r="B48" s="533"/>
+      <c r="C48" s="534"/>
+      <c r="D48" s="535"/>
+      <c r="E48" s="535"/>
+      <c r="F48" s="535"/>
+      <c r="G48" s="535"/>
+      <c r="H48" s="533"/>
+      <c r="I48" s="534"/>
+      <c r="J48" s="535"/>
+      <c r="K48" s="536"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="455" t="s">
+      <c r="A49" s="277" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="456"/>
-      <c r="C49" s="456"/>
-      <c r="D49" s="456"/>
-      <c r="E49" s="456"/>
-      <c r="F49" s="456"/>
-      <c r="G49" s="456"/>
-      <c r="H49" s="456"/>
-      <c r="I49" s="456"/>
-      <c r="J49" s="456"/>
-      <c r="K49" s="494"/>
+      <c r="B49" s="278"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="278"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="278"/>
+      <c r="G49" s="278"/>
+      <c r="H49" s="278"/>
+      <c r="I49" s="278"/>
+      <c r="J49" s="278"/>
+      <c r="K49" s="517"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="452" t="s">
+      <c r="A50" s="274" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="454"/>
-      <c r="C50" s="508"/>
-      <c r="D50" s="509"/>
-      <c r="E50" s="509"/>
-      <c r="F50" s="510"/>
-      <c r="G50" s="596" t="s">
+      <c r="B50" s="276"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="475"/>
+      <c r="E50" s="475"/>
+      <c r="F50" s="476"/>
+      <c r="G50" s="530" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="597"/>
-      <c r="I50" s="508"/>
-      <c r="J50" s="509"/>
-      <c r="K50" s="510"/>
+      <c r="H50" s="531"/>
+      <c r="I50" s="474"/>
+      <c r="J50" s="475"/>
+      <c r="K50" s="476"/>
       <c r="L50" s="240"/>
       <c r="M50" s="240"/>
     </row>
@@ -16112,6 +16112,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="I50:K50"/>
@@ -16128,73 +16195,6 @@
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16232,35 +16232,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="605"/>
-      <c r="B1" s="606"/>
-      <c r="C1" s="606"/>
-      <c r="D1" s="606"/>
-      <c r="E1" s="606"/>
-      <c r="F1" s="606"/>
-      <c r="G1" s="606"/>
-      <c r="H1" s="606"/>
-      <c r="I1" s="606"/>
-      <c r="J1" s="606"/>
-      <c r="K1" s="606"/>
-      <c r="L1" s="606"/>
-      <c r="M1" s="607"/>
+      <c r="A1" s="713"/>
+      <c r="B1" s="714"/>
+      <c r="C1" s="714"/>
+      <c r="D1" s="714"/>
+      <c r="E1" s="714"/>
+      <c r="F1" s="714"/>
+      <c r="G1" s="714"/>
+      <c r="H1" s="714"/>
+      <c r="I1" s="714"/>
+      <c r="J1" s="714"/>
+      <c r="K1" s="714"/>
+      <c r="L1" s="714"/>
+      <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="630" t="s">
+      <c r="A2" s="690" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="631"/>
-      <c r="C2" s="610" t="s">
+      <c r="B2" s="691"/>
+      <c r="C2" s="718" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="610"/>
-      <c r="E2" s="610"/>
-      <c r="F2" s="611"/>
+      <c r="D2" s="718"/>
+      <c r="E2" s="718"/>
+      <c r="F2" s="719"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
-      <c r="I2" s="608"/>
-      <c r="J2" s="608"/>
+      <c r="I2" s="716"/>
+      <c r="J2" s="716"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
       <c r="M2" s="41"/>
@@ -16268,16 +16268,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="614" t="s">
+      <c r="C3" s="706" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="614"/>
-      <c r="E3" s="614"/>
-      <c r="F3" s="615"/>
+      <c r="D3" s="706"/>
+      <c r="E3" s="706"/>
+      <c r="F3" s="707"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="609"/>
+      <c r="I3" s="717"/>
+      <c r="J3" s="717"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
@@ -16285,42 +16285,42 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="614" t="s">
+      <c r="C4" s="706" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="614"/>
-      <c r="E4" s="614"/>
-      <c r="F4" s="615"/>
+      <c r="D4" s="706"/>
+      <c r="E4" s="706"/>
+      <c r="F4" s="707"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="43"/>
-      <c r="C5" s="614"/>
-      <c r="D5" s="614"/>
-      <c r="E5" s="614"/>
-      <c r="F5" s="615"/>
-      <c r="G5" s="602"/>
-      <c r="H5" s="602"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="602"/>
-      <c r="K5" s="602"/>
-      <c r="L5" s="602"/>
+      <c r="C5" s="706"/>
+      <c r="D5" s="706"/>
+      <c r="E5" s="706"/>
+      <c r="F5" s="707"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="621"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="621"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="614" t="s">
+      <c r="C6" s="706" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="614"/>
-      <c r="E6" s="614"/>
-      <c r="F6" s="615"/>
-      <c r="I6" s="636"/>
-      <c r="J6" s="636"/>
-      <c r="K6" s="636"/>
-      <c r="L6" s="636"/>
+      <c r="D6" s="706"/>
+      <c r="E6" s="706"/>
+      <c r="F6" s="707"/>
+      <c r="I6" s="712"/>
+      <c r="J6" s="712"/>
+      <c r="K6" s="712"/>
+      <c r="L6" s="712"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -16339,12 +16339,12 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="614" t="s">
+      <c r="C8" s="706" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="614"/>
-      <c r="E8" s="614"/>
-      <c r="F8" s="615"/>
+      <c r="D8" s="706"/>
+      <c r="E8" s="706"/>
+      <c r="F8" s="707"/>
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16359,61 +16359,61 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="614"/>
-      <c r="D10" s="614"/>
-      <c r="E10" s="614"/>
-      <c r="F10" s="615"/>
-      <c r="G10" s="602" t="s">
+      <c r="C10" s="706"/>
+      <c r="D10" s="706"/>
+      <c r="E10" s="706"/>
+      <c r="F10" s="707"/>
+      <c r="G10" s="621" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="602"/>
-      <c r="I10" s="602"/>
-      <c r="J10" s="602"/>
-      <c r="K10" s="602"/>
-      <c r="L10" s="602"/>
+      <c r="H10" s="621"/>
+      <c r="I10" s="621"/>
+      <c r="J10" s="621"/>
+      <c r="K10" s="621"/>
+      <c r="L10" s="621"/>
       <c r="M10" s="94"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="614"/>
-      <c r="D11" s="614"/>
-      <c r="E11" s="614"/>
-      <c r="F11" s="615"/>
+      <c r="C11" s="706"/>
+      <c r="D11" s="706"/>
+      <c r="E11" s="706"/>
+      <c r="F11" s="707"/>
       <c r="G11" s="151"/>
       <c r="H11" s="152"/>
-      <c r="I11" s="634"/>
-      <c r="J11" s="634"/>
-      <c r="K11" s="634"/>
-      <c r="L11" s="634"/>
+      <c r="I11" s="710"/>
+      <c r="J11" s="710"/>
+      <c r="K11" s="710"/>
+      <c r="L11" s="710"/>
       <c r="M11" s="94"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="632"/>
-      <c r="D12" s="632"/>
-      <c r="E12" s="632"/>
-      <c r="F12" s="633"/>
+      <c r="C12" s="708"/>
+      <c r="D12" s="708"/>
+      <c r="E12" s="708"/>
+      <c r="F12" s="709"/>
       <c r="G12" s="152"/>
       <c r="H12" s="152"/>
-      <c r="I12" s="635"/>
-      <c r="J12" s="635"/>
-      <c r="K12" s="635"/>
-      <c r="L12" s="635"/>
+      <c r="I12" s="711"/>
+      <c r="J12" s="711"/>
+      <c r="K12" s="711"/>
+      <c r="L12" s="711"/>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="598" t="s">
+      <c r="A13" s="730" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="599"/>
-      <c r="C13" s="600" t="s">
+      <c r="B13" s="731"/>
+      <c r="C13" s="726" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="600"/>
-      <c r="E13" s="557"/>
-      <c r="F13" s="558"/>
+      <c r="D13" s="726"/>
+      <c r="E13" s="562"/>
+      <c r="F13" s="563"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
@@ -16425,48 +16425,48 @@
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
-      <c r="C14" s="600"/>
-      <c r="D14" s="600"/>
-      <c r="E14" s="557"/>
-      <c r="F14" s="558"/>
-      <c r="G14" s="601" t="s">
+      <c r="C14" s="726"/>
+      <c r="D14" s="726"/>
+      <c r="E14" s="562"/>
+      <c r="F14" s="563"/>
+      <c r="G14" s="620" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="602"/>
-      <c r="I14" s="602"/>
-      <c r="J14" s="602"/>
-      <c r="K14" s="602"/>
-      <c r="L14" s="602"/>
+      <c r="H14" s="621"/>
+      <c r="I14" s="621"/>
+      <c r="J14" s="621"/>
+      <c r="K14" s="621"/>
+      <c r="L14" s="621"/>
       <c r="M14" s="131"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65"/>
       <c r="B15" s="66"/>
-      <c r="C15" s="600"/>
-      <c r="D15" s="600"/>
-      <c r="E15" s="557"/>
-      <c r="F15" s="558"/>
+      <c r="C15" s="726"/>
+      <c r="D15" s="726"/>
+      <c r="E15" s="562"/>
+      <c r="F15" s="563"/>
       <c r="G15" s="44"/>
       <c r="H15" s="255"/>
-      <c r="I15" s="603"/>
-      <c r="J15" s="603"/>
-      <c r="K15" s="603"/>
-      <c r="L15" s="603"/>
+      <c r="I15" s="732"/>
+      <c r="J15" s="732"/>
+      <c r="K15" s="732"/>
+      <c r="L15" s="732"/>
       <c r="M15" s="131"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="557"/>
-      <c r="D16" s="557"/>
-      <c r="E16" s="557"/>
-      <c r="F16" s="558"/>
+      <c r="C16" s="562"/>
+      <c r="D16" s="562"/>
+      <c r="E16" s="562"/>
+      <c r="F16" s="563"/>
       <c r="G16" s="128"/>
       <c r="H16" s="245"/>
-      <c r="I16" s="604"/>
-      <c r="J16" s="604"/>
-      <c r="K16" s="604"/>
-      <c r="L16" s="604"/>
+      <c r="I16" s="723"/>
+      <c r="J16" s="723"/>
+      <c r="K16" s="723"/>
+      <c r="L16" s="723"/>
       <c r="M16" s="129"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16487,12 +16487,12 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="729" t="s">
+      <c r="C18" s="623" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="729"/>
-      <c r="E18" s="730"/>
-      <c r="F18" s="731"/>
+      <c r="D18" s="623"/>
+      <c r="E18" s="624"/>
+      <c r="F18" s="625"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
@@ -16504,32 +16504,32 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="729"/>
-      <c r="D19" s="729"/>
-      <c r="E19" s="730"/>
-      <c r="F19" s="731"/>
-      <c r="G19" s="601" t="s">
+      <c r="C19" s="623"/>
+      <c r="D19" s="623"/>
+      <c r="E19" s="624"/>
+      <c r="F19" s="625"/>
+      <c r="G19" s="620" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="602"/>
-      <c r="I19" s="602"/>
-      <c r="J19" s="602"/>
-      <c r="K19" s="602"/>
-      <c r="L19" s="602"/>
+      <c r="H19" s="621"/>
+      <c r="I19" s="621"/>
+      <c r="J19" s="621"/>
+      <c r="K19" s="621"/>
+      <c r="L19" s="621"/>
       <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="729"/>
-      <c r="D20" s="729"/>
-      <c r="E20" s="730"/>
-      <c r="F20" s="731"/>
+      <c r="C20" s="623"/>
+      <c r="D20" s="623"/>
+      <c r="E20" s="624"/>
+      <c r="F20" s="625"/>
       <c r="G20" s="59"/>
-      <c r="H20" s="707" t="s">
+      <c r="H20" s="596" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="707"/>
+      <c r="I20" s="596"/>
       <c r="J20" s="256"/>
       <c r="K20" s="257"/>
       <c r="L20" s="133"/>
@@ -16538,15 +16538,15 @@
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="729"/>
-      <c r="D21" s="729"/>
-      <c r="E21" s="730"/>
-      <c r="F21" s="731"/>
-      <c r="G21" s="708" t="s">
+      <c r="C21" s="623"/>
+      <c r="D21" s="623"/>
+      <c r="E21" s="624"/>
+      <c r="F21" s="625"/>
+      <c r="G21" s="597" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="709"/>
-      <c r="I21" s="709"/>
+      <c r="H21" s="598"/>
+      <c r="I21" s="598"/>
       <c r="J21" s="256"/>
       <c r="K21" s="258"/>
       <c r="L21" s="133"/>
@@ -16555,31 +16555,31 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="732"/>
-      <c r="D22" s="732"/>
-      <c r="E22" s="732"/>
-      <c r="F22" s="733"/>
+      <c r="C22" s="626"/>
+      <c r="D22" s="626"/>
+      <c r="E22" s="626"/>
+      <c r="F22" s="627"/>
       <c r="G22" s="128" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="245"/>
-      <c r="I22" s="734"/>
-      <c r="J22" s="734"/>
-      <c r="K22" s="734"/>
+      <c r="I22" s="628"/>
+      <c r="J22" s="628"/>
+      <c r="K22" s="628"/>
       <c r="L22" s="134"/>
       <c r="M22" s="129"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="637" t="s">
+      <c r="A23" s="616" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="638"/>
-      <c r="C23" s="626" t="s">
+      <c r="B23" s="617"/>
+      <c r="C23" s="630" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="626"/>
-      <c r="E23" s="626"/>
-      <c r="F23" s="627"/>
+      <c r="D23" s="630"/>
+      <c r="E23" s="630"/>
+      <c r="F23" s="631"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
@@ -16591,61 +16591,61 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="617"/>
-      <c r="D24" s="617"/>
-      <c r="E24" s="617"/>
-      <c r="F24" s="616"/>
-      <c r="G24" s="601" t="s">
+      <c r="C24" s="632"/>
+      <c r="D24" s="632"/>
+      <c r="E24" s="632"/>
+      <c r="F24" s="633"/>
+      <c r="G24" s="620" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="602"/>
-      <c r="I24" s="602"/>
-      <c r="J24" s="602"/>
-      <c r="K24" s="602"/>
-      <c r="L24" s="602"/>
+      <c r="H24" s="621"/>
+      <c r="I24" s="621"/>
+      <c r="J24" s="621"/>
+      <c r="K24" s="621"/>
+      <c r="L24" s="621"/>
       <c r="M24" s="127"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="617"/>
-      <c r="D25" s="617"/>
-      <c r="E25" s="617"/>
-      <c r="F25" s="616"/>
+      <c r="C25" s="632"/>
+      <c r="D25" s="632"/>
+      <c r="E25" s="632"/>
+      <c r="F25" s="633"/>
       <c r="G25" s="126"/>
       <c r="H25" s="245"/>
-      <c r="I25" s="625"/>
-      <c r="J25" s="625"/>
-      <c r="K25" s="625"/>
-      <c r="L25" s="625"/>
+      <c r="I25" s="629"/>
+      <c r="J25" s="629"/>
+      <c r="K25" s="629"/>
+      <c r="L25" s="629"/>
       <c r="M25" s="127"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63"/>
       <c r="B26" s="64"/>
-      <c r="C26" s="628"/>
-      <c r="D26" s="628"/>
-      <c r="E26" s="628"/>
-      <c r="F26" s="629"/>
+      <c r="C26" s="634"/>
+      <c r="D26" s="634"/>
+      <c r="E26" s="634"/>
+      <c r="F26" s="635"/>
       <c r="G26" s="128"/>
       <c r="H26" s="245"/>
-      <c r="I26" s="604"/>
-      <c r="J26" s="604"/>
-      <c r="K26" s="604"/>
-      <c r="L26" s="604"/>
+      <c r="I26" s="723"/>
+      <c r="J26" s="723"/>
+      <c r="K26" s="723"/>
+      <c r="L26" s="723"/>
       <c r="M26" s="129"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="637" t="s">
+      <c r="A27" s="616" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="638"/>
-      <c r="C27" s="626" t="s">
+      <c r="B27" s="617"/>
+      <c r="C27" s="630" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="626"/>
-      <c r="E27" s="626"/>
-      <c r="F27" s="627"/>
+      <c r="D27" s="630"/>
+      <c r="E27" s="630"/>
+      <c r="F27" s="631"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
@@ -16657,41 +16657,41 @@
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="617"/>
-      <c r="D28" s="617"/>
-      <c r="E28" s="617"/>
-      <c r="F28" s="616"/>
-      <c r="G28" s="601" t="s">
+      <c r="C28" s="632"/>
+      <c r="D28" s="632"/>
+      <c r="E28" s="632"/>
+      <c r="F28" s="633"/>
+      <c r="G28" s="620" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="602"/>
-      <c r="I28" s="602"/>
-      <c r="J28" s="602"/>
-      <c r="K28" s="602"/>
-      <c r="L28" s="602"/>
+      <c r="H28" s="621"/>
+      <c r="I28" s="621"/>
+      <c r="J28" s="621"/>
+      <c r="K28" s="621"/>
+      <c r="L28" s="621"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="617"/>
-      <c r="D29" s="617"/>
-      <c r="E29" s="617"/>
-      <c r="F29" s="616"/>
+      <c r="C29" s="632"/>
+      <c r="D29" s="632"/>
+      <c r="E29" s="632"/>
+      <c r="F29" s="633"/>
       <c r="H29" s="182"/>
-      <c r="I29" s="625"/>
-      <c r="J29" s="625"/>
-      <c r="K29" s="625"/>
-      <c r="L29" s="625"/>
+      <c r="I29" s="629"/>
+      <c r="J29" s="629"/>
+      <c r="K29" s="629"/>
+      <c r="L29" s="629"/>
       <c r="M29" s="127"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="628"/>
-      <c r="D30" s="628"/>
-      <c r="E30" s="628"/>
-      <c r="F30" s="629"/>
+      <c r="C30" s="634"/>
+      <c r="D30" s="634"/>
+      <c r="E30" s="634"/>
+      <c r="F30" s="635"/>
       <c r="G30" s="148"/>
       <c r="H30" s="247"/>
       <c r="I30" s="182"/>
@@ -16701,16 +16701,16 @@
       <c r="M30" s="129"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="637" t="s">
+      <c r="A31" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="638"/>
-      <c r="C31" s="626" t="s">
+      <c r="B31" s="617"/>
+      <c r="C31" s="630" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="626"/>
-      <c r="E31" s="626"/>
-      <c r="F31" s="627"/>
+      <c r="D31" s="630"/>
+      <c r="E31" s="630"/>
+      <c r="F31" s="631"/>
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
@@ -16722,18 +16722,18 @@
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="617"/>
-      <c r="D32" s="617"/>
-      <c r="E32" s="617"/>
-      <c r="F32" s="616"/>
-      <c r="G32" s="674" t="s">
+      <c r="C32" s="632"/>
+      <c r="D32" s="632"/>
+      <c r="E32" s="632"/>
+      <c r="F32" s="633"/>
+      <c r="G32" s="668" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="675"/>
-      <c r="I32" s="675"/>
-      <c r="J32" s="675"/>
-      <c r="K32" s="639"/>
-      <c r="L32" s="639"/>
+      <c r="H32" s="669"/>
+      <c r="I32" s="669"/>
+      <c r="J32" s="669"/>
+      <c r="K32" s="667"/>
+      <c r="L32" s="667"/>
       <c r="M32" s="127"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16754,44 +16754,44 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="53"/>
-      <c r="C34" s="617" t="s">
+      <c r="C34" s="632" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="617"/>
-      <c r="E34" s="617"/>
-      <c r="F34" s="616"/>
+      <c r="D34" s="632"/>
+      <c r="E34" s="632"/>
+      <c r="F34" s="633"/>
       <c r="G34" s="126"/>
       <c r="H34" s="246"/>
-      <c r="I34" s="673"/>
-      <c r="J34" s="673"/>
-      <c r="K34" s="673"/>
-      <c r="L34" s="673"/>
+      <c r="I34" s="666"/>
+      <c r="J34" s="666"/>
+      <c r="K34" s="666"/>
+      <c r="L34" s="666"/>
       <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="53"/>
-      <c r="C35" s="617"/>
-      <c r="D35" s="617"/>
-      <c r="E35" s="617"/>
-      <c r="F35" s="616"/>
-      <c r="G35" s="674" t="s">
+      <c r="C35" s="632"/>
+      <c r="D35" s="632"/>
+      <c r="E35" s="632"/>
+      <c r="F35" s="633"/>
+      <c r="G35" s="668" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="675"/>
-      <c r="I35" s="675"/>
-      <c r="J35" s="675"/>
-      <c r="K35" s="639"/>
-      <c r="L35" s="639"/>
+      <c r="H35" s="669"/>
+      <c r="I35" s="669"/>
+      <c r="J35" s="669"/>
+      <c r="K35" s="667"/>
+      <c r="L35" s="667"/>
       <c r="M35" s="127"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="64"/>
-      <c r="C36" s="628"/>
-      <c r="D36" s="628"/>
-      <c r="E36" s="628"/>
-      <c r="F36" s="629"/>
+      <c r="C36" s="634"/>
+      <c r="D36" s="634"/>
+      <c r="E36" s="634"/>
+      <c r="F36" s="635"/>
       <c r="G36" s="130"/>
       <c r="H36" s="74"/>
       <c r="I36" s="121"/>
@@ -16800,16 +16800,16 @@
       <c r="M36" s="129"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="637" t="s">
+      <c r="A37" s="616" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="638"/>
-      <c r="C37" s="620" t="s">
+      <c r="B37" s="617"/>
+      <c r="C37" s="724" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="620"/>
-      <c r="E37" s="620"/>
-      <c r="F37" s="621"/>
+      <c r="D37" s="724"/>
+      <c r="E37" s="724"/>
+      <c r="F37" s="725"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
@@ -16821,61 +16821,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="53"/>
-      <c r="C38" s="600"/>
-      <c r="D38" s="600"/>
-      <c r="E38" s="600"/>
-      <c r="F38" s="622"/>
-      <c r="G38" s="601" t="s">
+      <c r="C38" s="726"/>
+      <c r="D38" s="726"/>
+      <c r="E38" s="726"/>
+      <c r="F38" s="727"/>
+      <c r="G38" s="620" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="602"/>
-      <c r="I38" s="602"/>
-      <c r="J38" s="602"/>
-      <c r="K38" s="602"/>
-      <c r="L38" s="602"/>
-      <c r="M38" s="728"/>
+      <c r="H38" s="621"/>
+      <c r="I38" s="621"/>
+      <c r="J38" s="621"/>
+      <c r="K38" s="621"/>
+      <c r="L38" s="621"/>
+      <c r="M38" s="622"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="53"/>
-      <c r="C39" s="600"/>
-      <c r="D39" s="600"/>
-      <c r="E39" s="600"/>
-      <c r="F39" s="622"/>
+      <c r="C39" s="726"/>
+      <c r="D39" s="726"/>
+      <c r="E39" s="726"/>
+      <c r="F39" s="727"/>
       <c r="G39" s="126"/>
       <c r="H39" s="245"/>
-      <c r="I39" s="625"/>
-      <c r="J39" s="625"/>
-      <c r="K39" s="625"/>
-      <c r="L39" s="625"/>
+      <c r="I39" s="629"/>
+      <c r="J39" s="629"/>
+      <c r="K39" s="629"/>
+      <c r="L39" s="629"/>
       <c r="M39" s="127"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
       <c r="B40" s="64"/>
-      <c r="C40" s="623"/>
-      <c r="D40" s="623"/>
-      <c r="E40" s="623"/>
-      <c r="F40" s="624"/>
+      <c r="C40" s="728"/>
+      <c r="D40" s="728"/>
+      <c r="E40" s="728"/>
+      <c r="F40" s="729"/>
       <c r="G40" s="128"/>
       <c r="H40" s="245"/>
-      <c r="I40" s="604"/>
-      <c r="J40" s="604"/>
-      <c r="K40" s="604"/>
-      <c r="L40" s="604"/>
+      <c r="I40" s="723"/>
+      <c r="J40" s="723"/>
+      <c r="K40" s="723"/>
+      <c r="L40" s="723"/>
       <c r="M40" s="129"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="618" t="s">
+      <c r="A41" s="721" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="619"/>
-      <c r="C41" s="617" t="s">
+      <c r="B41" s="722"/>
+      <c r="C41" s="632" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="617"/>
-      <c r="E41" s="617"/>
-      <c r="F41" s="616"/>
+      <c r="D41" s="632"/>
+      <c r="E41" s="632"/>
+      <c r="F41" s="633"/>
       <c r="G41" s="50"/>
       <c r="H41" s="50"/>
       <c r="I41" s="69"/>
@@ -16887,10 +16887,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="617"/>
-      <c r="D42" s="617"/>
-      <c r="E42" s="617"/>
-      <c r="F42" s="616"/>
+      <c r="C42" s="632"/>
+      <c r="D42" s="632"/>
+      <c r="E42" s="632"/>
+      <c r="F42" s="633"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
       <c r="I42" s="72"/>
@@ -16904,21 +16904,21 @@
         <v>80</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="617" t="s">
+      <c r="C43" s="632" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="617"/>
-      <c r="E43" s="617"/>
-      <c r="F43" s="616"/>
+      <c r="D43" s="632"/>
+      <c r="E43" s="632"/>
+      <c r="F43" s="633"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="617"/>
-      <c r="D44" s="617"/>
-      <c r="E44" s="617"/>
-      <c r="F44" s="616"/>
+      <c r="C44" s="632"/>
+      <c r="D44" s="632"/>
+      <c r="E44" s="632"/>
+      <c r="F44" s="633"/>
       <c r="G44" s="192" t="s">
         <v>327</v>
       </c>
@@ -16934,21 +16934,21 @@
         <v>81</v>
       </c>
       <c r="B45" s="68"/>
-      <c r="C45" s="616" t="s">
+      <c r="C45" s="633" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="616"/>
-      <c r="E45" s="616"/>
-      <c r="F45" s="616"/>
+      <c r="D45" s="633"/>
+      <c r="E45" s="633"/>
+      <c r="F45" s="633"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="67"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="616"/>
-      <c r="D46" s="616"/>
-      <c r="E46" s="616"/>
-      <c r="F46" s="616"/>
+      <c r="C46" s="633"/>
+      <c r="D46" s="633"/>
+      <c r="E46" s="633"/>
+      <c r="F46" s="633"/>
       <c r="G46" s="193" t="s">
         <v>328</v>
       </c>
@@ -16965,21 +16965,21 @@
         <v>83</v>
       </c>
       <c r="B47" s="68"/>
-      <c r="C47" s="617" t="s">
+      <c r="C47" s="632" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="617"/>
+      <c r="D47" s="632"/>
       <c r="E47" s="118"/>
       <c r="F47" s="119"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="652"/>
-      <c r="B48" s="653"/>
-      <c r="C48" s="653"/>
-      <c r="D48" s="653"/>
-      <c r="E48" s="653"/>
-      <c r="F48" s="654"/>
+      <c r="A48" s="683"/>
+      <c r="B48" s="684"/>
+      <c r="C48" s="684"/>
+      <c r="D48" s="684"/>
+      <c r="E48" s="684"/>
+      <c r="F48" s="685"/>
       <c r="G48" s="194" t="s">
         <v>328</v>
       </c>
@@ -16992,12 +16992,12 @@
       <c r="N48" s="74"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="655"/>
-      <c r="B49" s="656"/>
-      <c r="C49" s="656"/>
-      <c r="D49" s="656"/>
-      <c r="E49" s="656"/>
-      <c r="F49" s="657"/>
+      <c r="A49" s="686"/>
+      <c r="B49" s="687"/>
+      <c r="C49" s="687"/>
+      <c r="D49" s="687"/>
+      <c r="E49" s="687"/>
+      <c r="F49" s="688"/>
       <c r="G49" s="120"/>
       <c r="H49" s="116"/>
       <c r="I49" s="116"/>
@@ -17008,10 +17008,10 @@
       <c r="N49" s="74"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="726" t="s">
+      <c r="A50" s="618" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="727"/>
+      <c r="B50" s="619"/>
       <c r="C50" s="190" t="s">
         <v>383</v>
       </c>
@@ -17021,127 +17021,127 @@
       <c r="G50" s="190"/>
       <c r="H50" s="190"/>
       <c r="I50" s="191"/>
-      <c r="J50" s="640"/>
-      <c r="K50" s="641"/>
-      <c r="L50" s="641"/>
-      <c r="M50" s="642"/>
+      <c r="J50" s="670"/>
+      <c r="K50" s="671"/>
+      <c r="L50" s="671"/>
+      <c r="M50" s="672"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="649" t="s">
+      <c r="A51" s="680" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="650"/>
-      <c r="C51" s="650"/>
-      <c r="D51" s="650"/>
-      <c r="E51" s="651"/>
+      <c r="B51" s="681"/>
+      <c r="C51" s="681"/>
+      <c r="D51" s="681"/>
+      <c r="E51" s="682"/>
       <c r="F51" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="658" t="s">
+      <c r="G51" s="689" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="592"/>
-      <c r="I51" s="595"/>
-      <c r="J51" s="643"/>
-      <c r="K51" s="644"/>
-      <c r="L51" s="644"/>
-      <c r="M51" s="645"/>
+      <c r="H51" s="537"/>
+      <c r="I51" s="539"/>
+      <c r="J51" s="673"/>
+      <c r="K51" s="674"/>
+      <c r="L51" s="674"/>
+      <c r="M51" s="675"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="666"/>
-      <c r="B52" s="667"/>
-      <c r="C52" s="669"/>
-      <c r="D52" s="669"/>
-      <c r="E52" s="670"/>
+      <c r="A52" s="699"/>
+      <c r="B52" s="700"/>
+      <c r="C52" s="702"/>
+      <c r="D52" s="702"/>
+      <c r="E52" s="703"/>
       <c r="F52" s="75"/>
-      <c r="G52" s="659"/>
-      <c r="H52" s="660"/>
-      <c r="I52" s="661"/>
-      <c r="J52" s="643"/>
-      <c r="K52" s="644"/>
-      <c r="L52" s="644"/>
-      <c r="M52" s="645"/>
+      <c r="G52" s="692"/>
+      <c r="H52" s="693"/>
+      <c r="I52" s="694"/>
+      <c r="J52" s="673"/>
+      <c r="K52" s="674"/>
+      <c r="L52" s="674"/>
+      <c r="M52" s="675"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="666"/>
-      <c r="B53" s="667"/>
-      <c r="C53" s="667"/>
-      <c r="D53" s="667"/>
-      <c r="E53" s="668"/>
+      <c r="A53" s="699"/>
+      <c r="B53" s="700"/>
+      <c r="C53" s="700"/>
+      <c r="D53" s="700"/>
+      <c r="E53" s="701"/>
       <c r="F53" s="75"/>
-      <c r="G53" s="659"/>
-      <c r="H53" s="660"/>
-      <c r="I53" s="661"/>
-      <c r="J53" s="643"/>
-      <c r="K53" s="644"/>
-      <c r="L53" s="644"/>
-      <c r="M53" s="645"/>
+      <c r="G53" s="692"/>
+      <c r="H53" s="693"/>
+      <c r="I53" s="694"/>
+      <c r="J53" s="673"/>
+      <c r="K53" s="674"/>
+      <c r="L53" s="674"/>
+      <c r="M53" s="675"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="662"/>
-      <c r="B54" s="663"/>
-      <c r="C54" s="664"/>
-      <c r="D54" s="664"/>
-      <c r="E54" s="665"/>
+      <c r="A54" s="695"/>
+      <c r="B54" s="696"/>
+      <c r="C54" s="697"/>
+      <c r="D54" s="697"/>
+      <c r="E54" s="698"/>
       <c r="F54" s="201"/>
-      <c r="G54" s="646"/>
-      <c r="H54" s="647"/>
-      <c r="I54" s="648"/>
-      <c r="J54" s="643"/>
-      <c r="K54" s="644"/>
-      <c r="L54" s="644"/>
-      <c r="M54" s="645"/>
+      <c r="G54" s="677"/>
+      <c r="H54" s="678"/>
+      <c r="I54" s="679"/>
+      <c r="J54" s="673"/>
+      <c r="K54" s="674"/>
+      <c r="L54" s="674"/>
+      <c r="M54" s="675"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="630" t="s">
+      <c r="A55" s="690" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="631"/>
-      <c r="C55" s="671" t="s">
+      <c r="B55" s="691"/>
+      <c r="C55" s="704" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="671"/>
-      <c r="E55" s="671"/>
-      <c r="F55" s="671"/>
-      <c r="G55" s="671"/>
-      <c r="H55" s="671"/>
+      <c r="D55" s="704"/>
+      <c r="E55" s="704"/>
+      <c r="F55" s="704"/>
+      <c r="G55" s="704"/>
+      <c r="H55" s="704"/>
       <c r="I55" s="251"/>
-      <c r="J55" s="644"/>
-      <c r="K55" s="644"/>
-      <c r="L55" s="644"/>
-      <c r="M55" s="645"/>
+      <c r="J55" s="674"/>
+      <c r="K55" s="674"/>
+      <c r="L55" s="674"/>
+      <c r="M55" s="675"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76"/>
       <c r="B56" s="77"/>
-      <c r="C56" s="672"/>
-      <c r="D56" s="672"/>
-      <c r="E56" s="672"/>
-      <c r="F56" s="672"/>
-      <c r="G56" s="672"/>
-      <c r="H56" s="672"/>
+      <c r="C56" s="705"/>
+      <c r="D56" s="705"/>
+      <c r="E56" s="705"/>
+      <c r="F56" s="705"/>
+      <c r="G56" s="705"/>
+      <c r="H56" s="705"/>
       <c r="I56" s="252"/>
       <c r="J56" s="200"/>
-      <c r="K56" s="612" t="s">
+      <c r="K56" s="676" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="612"/>
+      <c r="L56" s="676"/>
       <c r="M56" s="180"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="77"/>
-      <c r="C57" s="672"/>
-      <c r="D57" s="672"/>
-      <c r="E57" s="672"/>
-      <c r="F57" s="672"/>
-      <c r="G57" s="672"/>
-      <c r="H57" s="672"/>
+      <c r="C57" s="705"/>
+      <c r="D57" s="705"/>
+      <c r="E57" s="705"/>
+      <c r="F57" s="705"/>
+      <c r="G57" s="705"/>
+      <c r="H57" s="705"/>
       <c r="I57" s="252"/>
-      <c r="J57" s="612"/>
-      <c r="K57" s="612"/>
-      <c r="L57" s="612"/>
-      <c r="M57" s="613"/>
+      <c r="J57" s="676"/>
+      <c r="K57" s="676"/>
+      <c r="L57" s="676"/>
+      <c r="M57" s="720"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="178"/>
@@ -17153,8 +17153,8 @@
       <c r="G58" s="253"/>
       <c r="H58" s="253"/>
       <c r="I58" s="254"/>
-      <c r="K58" s="697"/>
-      <c r="L58" s="698"/>
+      <c r="K58" s="656"/>
+      <c r="L58" s="657"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17166,102 +17166,102 @@
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
-      <c r="K59" s="699"/>
-      <c r="L59" s="700"/>
+      <c r="K59" s="658"/>
+      <c r="L59" s="659"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
-      <c r="B60" s="719" t="s">
+      <c r="B60" s="608" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="720"/>
-      <c r="D60" s="721"/>
-      <c r="F60" s="710"/>
-      <c r="G60" s="711"/>
-      <c r="H60" s="711"/>
-      <c r="I60" s="712"/>
-      <c r="K60" s="699"/>
-      <c r="L60" s="700"/>
+      <c r="C60" s="609"/>
+      <c r="D60" s="610"/>
+      <c r="F60" s="599"/>
+      <c r="G60" s="600"/>
+      <c r="H60" s="600"/>
+      <c r="I60" s="601"/>
+      <c r="K60" s="658"/>
+      <c r="L60" s="659"/>
       <c r="M60" s="79"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
-      <c r="B61" s="703" t="s">
+      <c r="B61" s="662" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="704"/>
+      <c r="C61" s="663"/>
       <c r="D61" s="135"/>
-      <c r="F61" s="713"/>
-      <c r="G61" s="714"/>
-      <c r="H61" s="714"/>
-      <c r="I61" s="715"/>
-      <c r="K61" s="699"/>
-      <c r="L61" s="700"/>
+      <c r="F61" s="602"/>
+      <c r="G61" s="603"/>
+      <c r="H61" s="603"/>
+      <c r="I61" s="604"/>
+      <c r="K61" s="658"/>
+      <c r="L61" s="659"/>
       <c r="M61" s="79"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
-      <c r="B62" s="691" t="s">
+      <c r="B62" s="651" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="692"/>
-      <c r="D62" s="695"/>
-      <c r="F62" s="716"/>
-      <c r="G62" s="717"/>
-      <c r="H62" s="717"/>
-      <c r="I62" s="718"/>
-      <c r="K62" s="699"/>
-      <c r="L62" s="700"/>
+      <c r="C62" s="652"/>
+      <c r="D62" s="611"/>
+      <c r="F62" s="605"/>
+      <c r="G62" s="606"/>
+      <c r="H62" s="606"/>
+      <c r="I62" s="607"/>
+      <c r="K62" s="658"/>
+      <c r="L62" s="659"/>
       <c r="M62" s="79"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="705"/>
-      <c r="C63" s="706"/>
-      <c r="D63" s="722"/>
-      <c r="F63" s="723" t="s">
+      <c r="B63" s="664"/>
+      <c r="C63" s="665"/>
+      <c r="D63" s="612"/>
+      <c r="F63" s="613" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="724"/>
-      <c r="H63" s="724"/>
-      <c r="I63" s="725"/>
-      <c r="K63" s="699"/>
-      <c r="L63" s="700"/>
+      <c r="G63" s="614"/>
+      <c r="H63" s="614"/>
+      <c r="I63" s="615"/>
+      <c r="K63" s="658"/>
+      <c r="L63" s="659"/>
       <c r="M63" s="79"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="691" t="s">
+      <c r="B64" s="651" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="692"/>
-      <c r="D64" s="695"/>
+      <c r="C64" s="652"/>
+      <c r="D64" s="611"/>
       <c r="F64" s="80"/>
       <c r="G64" s="182"/>
       <c r="H64" s="182"/>
       <c r="I64" s="183"/>
       <c r="J64" s="81"/>
-      <c r="K64" s="701"/>
-      <c r="L64" s="702"/>
+      <c r="K64" s="660"/>
+      <c r="L64" s="661"/>
       <c r="M64" s="79"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
-      <c r="B65" s="693"/>
-      <c r="C65" s="694"/>
-      <c r="D65" s="696"/>
-      <c r="F65" s="688" t="s">
+      <c r="B65" s="653"/>
+      <c r="C65" s="654"/>
+      <c r="D65" s="655"/>
+      <c r="F65" s="648" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="689"/>
-      <c r="H65" s="689"/>
-      <c r="I65" s="690"/>
+      <c r="G65" s="649"/>
+      <c r="H65" s="649"/>
+      <c r="I65" s="650"/>
       <c r="J65" s="81"/>
-      <c r="K65" s="686" t="s">
+      <c r="K65" s="646" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="687"/>
+      <c r="L65" s="647"/>
       <c r="M65" s="79"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17280,32 +17280,32 @@
       <c r="M66" s="87"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="683" t="s">
+      <c r="A67" s="643" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="684"/>
-      <c r="C67" s="684"/>
-      <c r="D67" s="684"/>
-      <c r="E67" s="684"/>
-      <c r="F67" s="684"/>
-      <c r="G67" s="684"/>
-      <c r="H67" s="684"/>
-      <c r="I67" s="684"/>
-      <c r="J67" s="684"/>
-      <c r="K67" s="684"/>
-      <c r="L67" s="684"/>
-      <c r="M67" s="685"/>
+      <c r="B67" s="644"/>
+      <c r="C67" s="644"/>
+      <c r="D67" s="644"/>
+      <c r="E67" s="644"/>
+      <c r="F67" s="644"/>
+      <c r="G67" s="644"/>
+      <c r="H67" s="644"/>
+      <c r="I67" s="644"/>
+      <c r="J67" s="644"/>
+      <c r="K67" s="644"/>
+      <c r="L67" s="644"/>
+      <c r="M67" s="645"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="81"/>
       <c r="C68" s="88"/>
       <c r="D68" s="88"/>
-      <c r="E68" s="680"/>
-      <c r="F68" s="681"/>
-      <c r="G68" s="681"/>
-      <c r="H68" s="681"/>
-      <c r="I68" s="682"/>
+      <c r="E68" s="640"/>
+      <c r="F68" s="641"/>
+      <c r="G68" s="641"/>
+      <c r="H68" s="641"/>
+      <c r="I68" s="642"/>
       <c r="J68" s="136"/>
       <c r="K68" s="136"/>
       <c r="M68" s="79"/>
@@ -17315,13 +17315,13 @@
       <c r="B69" s="81"/>
       <c r="C69" s="235"/>
       <c r="D69" s="235"/>
-      <c r="E69" s="677" t="s">
+      <c r="E69" s="637" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="678"/>
-      <c r="G69" s="678"/>
-      <c r="H69" s="678"/>
-      <c r="I69" s="679"/>
+      <c r="F69" s="638"/>
+      <c r="G69" s="638"/>
+      <c r="H69" s="638"/>
+      <c r="I69" s="639"/>
       <c r="J69" s="138"/>
       <c r="K69" s="137"/>
       <c r="L69" s="89"/>
@@ -17343,21 +17343,21 @@
       <c r="M70" s="92"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="676" t="s">
+      <c r="A71" s="636" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="676"/>
-      <c r="C71" s="676"/>
-      <c r="D71" s="676"/>
-      <c r="E71" s="676"/>
-      <c r="F71" s="676"/>
-      <c r="G71" s="676"/>
-      <c r="H71" s="676"/>
-      <c r="I71" s="676"/>
-      <c r="J71" s="676"/>
-      <c r="K71" s="676"/>
-      <c r="L71" s="676"/>
-      <c r="M71" s="676"/>
+      <c r="B71" s="636"/>
+      <c r="C71" s="636"/>
+      <c r="D71" s="636"/>
+      <c r="E71" s="636"/>
+      <c r="F71" s="636"/>
+      <c r="G71" s="636"/>
+      <c r="H71" s="636"/>
+      <c r="I71" s="636"/>
+      <c r="J71" s="636"/>
+      <c r="K71" s="636"/>
+      <c r="L71" s="636"/>
+      <c r="M71" s="636"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -17370,6 +17370,75 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="85">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="F60:I62"/>
@@ -17386,75 +17455,6 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="C23:F26"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/public/pds/PDS.xlsx
+++ b/public/pds/PDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB_PROJECTS\hris\public\pds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0F54D-3CD6-4E82-967E-92B984CE74DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4ECC23-F220-4357-B020-88C6C47144C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -3422,6 +3422,66 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3430,90 +3490,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3527,178 +3543,225 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3712,185 +3775,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3900,178 +3798,410 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4080,6 +4210,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4094,185 +4254,91 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4296,42 +4362,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4339,19 +4377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4375,18 +4404,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4410,61 +4427,158 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4472,9 +4586,285 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4491,36 +4881,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4530,395 +4912,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6825,8 +6825,8 @@
   </sheetPr>
   <dimension ref="A1:R264"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6851,20 +6851,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="338"/>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="340"/>
+      <c r="A1" s="385"/>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="387"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="161"/>
@@ -6894,58 +6894,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="388" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
-      <c r="N3" s="343"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="390"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="397" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="351"/>
-      <c r="I4" s="351"/>
-      <c r="J4" s="351"/>
-      <c r="K4" s="351"/>
-      <c r="L4" s="351"/>
-      <c r="M4" s="351"/>
-      <c r="N4" s="352"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="399"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="376" t="s">
+      <c r="A5" s="414" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="377"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377"/>
-      <c r="L5" s="377"/>
-      <c r="M5" s="377"/>
-      <c r="N5" s="378"/>
+      <c r="B5" s="415"/>
+      <c r="C5" s="415"/>
+      <c r="D5" s="415"/>
+      <c r="E5" s="415"/>
+      <c r="F5" s="415"/>
+      <c r="G5" s="415"/>
+      <c r="H5" s="415"/>
+      <c r="I5" s="415"/>
+      <c r="J5" s="415"/>
+      <c r="K5" s="415"/>
+      <c r="L5" s="415"/>
+      <c r="M5" s="415"/>
+      <c r="N5" s="416"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="196"/>
@@ -6979,63 +6979,63 @@
       <c r="K7" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="347" t="s">
+      <c r="L7" s="394" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="348"/>
-      <c r="N7" s="349"/>
+      <c r="M7" s="395"/>
+      <c r="N7" s="396"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
       <c r="N8" s="157"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="344" t="s">
+      <c r="A9" s="391" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="345"/>
-      <c r="C9" s="345"/>
-      <c r="D9" s="345"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="345"/>
-      <c r="G9" s="345"/>
-      <c r="H9" s="345"/>
-      <c r="I9" s="345"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
-      <c r="N9" s="346"/>
+      <c r="B9" s="392"/>
+      <c r="C9" s="392"/>
+      <c r="D9" s="392"/>
+      <c r="E9" s="392"/>
+      <c r="F9" s="392"/>
+      <c r="G9" s="392"/>
+      <c r="H9" s="392"/>
+      <c r="I9" s="392"/>
+      <c r="J9" s="392"/>
+      <c r="K9" s="392"/>
+      <c r="L9" s="392"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="393"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="397" t="s">
+      <c r="B10" s="363" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="382"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="387"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="387"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="387"/>
-      <c r="J10" s="387"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="387"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="388"/>
+      <c r="C10" s="364"/>
+      <c r="D10" s="352"/>
+      <c r="E10" s="352"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="352"/>
+      <c r="H10" s="352"/>
+      <c r="I10" s="352"/>
+      <c r="J10" s="352"/>
+      <c r="K10" s="352"/>
+      <c r="L10" s="352"/>
+      <c r="M10" s="352"/>
+      <c r="N10" s="353"/>
       <c r="P10" s="98" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="166"/>
-      <c r="B11" s="398" t="s">
+      <c r="B11" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="399"/>
+      <c r="C11" s="366"/>
       <c r="D11" s="203"/>
       <c r="E11" s="204"/>
       <c r="F11" s="204"/>
@@ -7044,10 +7044,10 @@
       <c r="I11" s="204"/>
       <c r="J11" s="204"/>
       <c r="K11" s="204"/>
-      <c r="L11" s="367" t="s">
+      <c r="L11" s="405" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="368"/>
+      <c r="M11" s="406"/>
       <c r="N11" s="258"/>
       <c r="P11" s="99" t="s">
         <v>52</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="167"/>
-      <c r="B12" s="400" t="s">
+      <c r="B12" s="367" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="401"/>
+      <c r="C12" s="368"/>
       <c r="D12" s="200"/>
       <c r="E12" s="201"/>
       <c r="F12" s="201"/>
@@ -7084,23 +7084,23 @@
       <c r="A13" s="232" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="381" t="s">
+      <c r="B13" s="421" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="382"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="452"/>
+      <c r="E13" s="452"/>
+      <c r="F13" s="453"/>
       <c r="G13" s="105" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="148"/>
       <c r="I13" s="148"/>
-      <c r="J13" s="361"/>
-      <c r="K13" s="362"/>
-      <c r="L13" s="362"/>
-      <c r="M13" s="362"/>
-      <c r="N13" s="363"/>
+      <c r="J13" s="400"/>
+      <c r="K13" s="401"/>
+      <c r="L13" s="401"/>
+      <c r="M13" s="401"/>
+      <c r="N13" s="402"/>
       <c r="P13" s="99" t="s">
         <v>53</v>
       </c>
@@ -7134,19 +7134,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="100"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="275" t="s">
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="412"/>
+      <c r="G15" s="457" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="276"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="285"/>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="287"/>
+      <c r="H15" s="458"/>
+      <c r="I15" s="458"/>
+      <c r="J15" s="465"/>
+      <c r="K15" s="466"/>
+      <c r="L15" s="466"/>
+      <c r="M15" s="466"/>
+      <c r="N15" s="467"/>
       <c r="P15" s="99" t="s">
         <v>118</v>
       </c>
@@ -7162,19 +7162,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="101"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="322"/>
-      <c r="G16" s="272" t="s">
+      <c r="D16" s="354"/>
+      <c r="E16" s="354"/>
+      <c r="F16" s="355"/>
+      <c r="G16" s="454" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="273"/>
-      <c r="I16" s="274"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="290"/>
+      <c r="H16" s="455"/>
+      <c r="I16" s="456"/>
+      <c r="J16" s="468"/>
+      <c r="K16" s="469"/>
+      <c r="L16" s="469"/>
+      <c r="M16" s="469"/>
+      <c r="N16" s="470"/>
       <c r="P16" s="99" t="s">
         <v>119</v>
       </c>
@@ -7183,49 +7183,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="277">
+      <c r="A17" s="459">
         <v>6</v>
       </c>
-      <c r="B17" s="281" t="s">
+      <c r="B17" s="461" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="282"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
+      <c r="C17" s="462"/>
+      <c r="D17" s="430"/>
+      <c r="E17" s="430"/>
+      <c r="F17" s="430"/>
       <c r="G17" s="106" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="107"/>
-      <c r="I17" s="356"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="357"/>
-      <c r="M17" s="357"/>
-      <c r="N17" s="364"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="333"/>
+      <c r="K17" s="333"/>
+      <c r="L17" s="333"/>
+      <c r="M17" s="333"/>
+      <c r="N17" s="334"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="278"/>
-      <c r="B18" s="283"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="280"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="280"/>
+      <c r="A18" s="435"/>
+      <c r="B18" s="463"/>
+      <c r="C18" s="464"/>
+      <c r="D18" s="460"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="460"/>
       <c r="G18" s="154"/>
       <c r="H18" s="261"/>
-      <c r="I18" s="365" t="s">
+      <c r="I18" s="403" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="366"/>
-      <c r="K18" s="366"/>
-      <c r="L18" s="366" t="s">
+      <c r="J18" s="404"/>
+      <c r="K18" s="404"/>
+      <c r="L18" s="404" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="366"/>
-      <c r="N18" s="369"/>
+      <c r="M18" s="404"/>
+      <c r="N18" s="407"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7239,100 +7239,100 @@
       <c r="F19" s="263"/>
       <c r="G19" s="154"/>
       <c r="H19" s="261"/>
-      <c r="I19" s="379"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="313"/>
-      <c r="M19" s="314"/>
-      <c r="N19" s="315"/>
+      <c r="I19" s="417"/>
+      <c r="J19" s="418"/>
+      <c r="K19" s="418"/>
+      <c r="L19" s="423"/>
+      <c r="M19" s="418"/>
+      <c r="N19" s="424"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="278"/>
+      <c r="A20" s="435"/>
       <c r="B20" s="262"/>
       <c r="C20" s="141"/>
       <c r="D20" s="264"/>
-      <c r="E20" s="395"/>
-      <c r="F20" s="395"/>
+      <c r="E20" s="361"/>
+      <c r="F20" s="361"/>
       <c r="G20" s="152"/>
       <c r="H20" s="257"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="316"/>
-      <c r="K20" s="316"/>
-      <c r="L20" s="316"/>
-      <c r="M20" s="316"/>
-      <c r="N20" s="317"/>
+      <c r="I20" s="419"/>
+      <c r="J20" s="420"/>
+      <c r="K20" s="420"/>
+      <c r="L20" s="420"/>
+      <c r="M20" s="420"/>
+      <c r="N20" s="425"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="327"/>
+      <c r="A21" s="436"/>
       <c r="B21" s="218"/>
       <c r="C21" s="139"/>
       <c r="D21" s="142"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="396"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="362"/>
       <c r="G21" s="152"/>
       <c r="H21" s="257"/>
-      <c r="I21" s="318" t="s">
+      <c r="I21" s="426" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="319"/>
-      <c r="K21" s="319"/>
-      <c r="L21" s="432" t="s">
+      <c r="J21" s="427"/>
+      <c r="K21" s="427"/>
+      <c r="L21" s="329" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="433"/>
-      <c r="N21" s="434"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="331"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="328" t="s">
+      <c r="A22" s="437" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="332" t="s">
+      <c r="B22" s="377" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="333"/>
-      <c r="D22" s="322"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="323"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="355"/>
+      <c r="E22" s="430"/>
+      <c r="F22" s="431"/>
       <c r="G22" s="152"/>
       <c r="H22" s="257"/>
-      <c r="I22" s="356"/>
-      <c r="J22" s="357"/>
-      <c r="K22" s="357"/>
-      <c r="L22" s="357"/>
-      <c r="M22" s="357"/>
-      <c r="N22" s="364"/>
+      <c r="I22" s="332"/>
+      <c r="J22" s="333"/>
+      <c r="K22" s="333"/>
+      <c r="L22" s="333"/>
+      <c r="M22" s="333"/>
+      <c r="N22" s="334"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="329"/>
-      <c r="B23" s="334"/>
-      <c r="C23" s="335"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="325"/>
-      <c r="F23" s="326"/>
+      <c r="A23" s="438"/>
+      <c r="B23" s="379"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="432"/>
+      <c r="E23" s="433"/>
+      <c r="F23" s="434"/>
       <c r="G23" s="152"/>
       <c r="H23" s="257"/>
-      <c r="I23" s="437" t="s">
+      <c r="I23" s="337" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="438"/>
-      <c r="K23" s="438"/>
-      <c r="L23" s="435" t="s">
+      <c r="J23" s="338"/>
+      <c r="K23" s="338"/>
+      <c r="L23" s="335" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="435"/>
-      <c r="N23" s="436"/>
+      <c r="M23" s="335"/>
+      <c r="N23" s="336"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7341,163 +7341,163 @@
       <c r="A24" s="166" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="336" t="s">
+      <c r="B24" s="441" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="337"/>
-      <c r="D24" s="353"/>
-      <c r="E24" s="354"/>
-      <c r="F24" s="355"/>
-      <c r="G24" s="402" t="s">
+      <c r="C24" s="371"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="375"/>
+      <c r="G24" s="369" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="403"/>
-      <c r="I24" s="370"/>
-      <c r="J24" s="371"/>
-      <c r="K24" s="371"/>
-      <c r="L24" s="371"/>
-      <c r="M24" s="371"/>
-      <c r="N24" s="372"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="408"/>
+      <c r="J24" s="409"/>
+      <c r="K24" s="409"/>
+      <c r="L24" s="409"/>
+      <c r="M24" s="409"/>
+      <c r="N24" s="410"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="320" t="s">
+      <c r="A25" s="428" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="332" t="s">
+      <c r="B25" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="333"/>
-      <c r="D25" s="322"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="323"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="355"/>
+      <c r="E25" s="430"/>
+      <c r="F25" s="431"/>
       <c r="G25" s="112" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="102"/>
-      <c r="I25" s="356"/>
-      <c r="J25" s="357"/>
-      <c r="K25" s="357"/>
-      <c r="L25" s="357"/>
-      <c r="M25" s="357"/>
-      <c r="N25" s="364"/>
+      <c r="I25" s="332"/>
+      <c r="J25" s="333"/>
+      <c r="K25" s="333"/>
+      <c r="L25" s="333"/>
+      <c r="M25" s="333"/>
+      <c r="N25" s="334"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="321"/>
-      <c r="B26" s="334"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="324"/>
-      <c r="E26" s="325"/>
-      <c r="F26" s="326"/>
+      <c r="A26" s="429"/>
+      <c r="B26" s="379"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="432"/>
+      <c r="E26" s="433"/>
+      <c r="F26" s="434"/>
       <c r="G26" s="152"/>
       <c r="H26" s="257"/>
-      <c r="I26" s="365" t="s">
+      <c r="I26" s="403" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="366"/>
-      <c r="K26" s="366"/>
-      <c r="L26" s="366" t="s">
+      <c r="J26" s="404"/>
+      <c r="K26" s="404"/>
+      <c r="L26" s="404" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="366"/>
-      <c r="N26" s="369"/>
+      <c r="M26" s="404"/>
+      <c r="N26" s="407"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="320" t="s">
+      <c r="A27" s="428" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="332" t="s">
+      <c r="B27" s="377" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="333"/>
-      <c r="D27" s="322"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="323"/>
+      <c r="C27" s="378"/>
+      <c r="D27" s="355"/>
+      <c r="E27" s="430"/>
+      <c r="F27" s="431"/>
       <c r="G27" s="154"/>
       <c r="H27" s="261"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="357"/>
-      <c r="K27" s="357"/>
-      <c r="L27" s="357"/>
-      <c r="M27" s="357"/>
-      <c r="N27" s="364"/>
+      <c r="I27" s="332"/>
+      <c r="J27" s="333"/>
+      <c r="K27" s="333"/>
+      <c r="L27" s="333"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="334"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="321"/>
-      <c r="B28" s="334"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="326"/>
+      <c r="A28" s="429"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="433"/>
+      <c r="F28" s="434"/>
       <c r="G28" s="154"/>
       <c r="H28" s="261"/>
-      <c r="I28" s="414" t="s">
+      <c r="I28" s="384" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="412"/>
-      <c r="K28" s="412"/>
-      <c r="L28" s="411" t="s">
+      <c r="J28" s="382"/>
+      <c r="K28" s="382"/>
+      <c r="L28" s="381" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="412"/>
-      <c r="N28" s="413"/>
+      <c r="M28" s="382"/>
+      <c r="N28" s="383"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="320" t="s">
+      <c r="A29" s="428" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="333"/>
-      <c r="D29" s="322"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="323"/>
+      <c r="C29" s="378"/>
+      <c r="D29" s="355"/>
+      <c r="E29" s="430"/>
+      <c r="F29" s="431"/>
       <c r="G29" s="154"/>
       <c r="H29" s="159"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="410"/>
-      <c r="K29" s="410"/>
-      <c r="L29" s="410"/>
-      <c r="M29" s="410"/>
-      <c r="N29" s="443"/>
+      <c r="I29" s="376"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="346"/>
+      <c r="M29" s="346"/>
+      <c r="N29" s="347"/>
       <c r="Q29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="321"/>
-      <c r="B30" s="334"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="326"/>
+      <c r="A30" s="429"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="432"/>
+      <c r="E30" s="433"/>
+      <c r="F30" s="434"/>
       <c r="G30" s="154"/>
       <c r="H30" s="159"/>
-      <c r="I30" s="439" t="s">
+      <c r="I30" s="339" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="439"/>
-      <c r="K30" s="439"/>
-      <c r="L30" s="439" t="s">
+      <c r="J30" s="339"/>
+      <c r="K30" s="339"/>
+      <c r="L30" s="339" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="439"/>
-      <c r="N30" s="440"/>
+      <c r="M30" s="339"/>
+      <c r="N30" s="340"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7510,19 +7510,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="101"/>
-      <c r="D31" s="353"/>
-      <c r="E31" s="354"/>
-      <c r="F31" s="355"/>
-      <c r="G31" s="441" t="s">
+      <c r="D31" s="373"/>
+      <c r="E31" s="374"/>
+      <c r="F31" s="375"/>
+      <c r="G31" s="341" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="442"/>
-      <c r="I31" s="358"/>
-      <c r="J31" s="359"/>
-      <c r="K31" s="359"/>
-      <c r="L31" s="359"/>
-      <c r="M31" s="359"/>
-      <c r="N31" s="360"/>
+      <c r="H31" s="342"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="344"/>
+      <c r="K31" s="344"/>
+      <c r="L31" s="344"/>
+      <c r="M31" s="344"/>
+      <c r="N31" s="345"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7535,42 +7535,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="101"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="354"/>
-      <c r="F32" s="355"/>
-      <c r="G32" s="375" t="s">
+      <c r="D32" s="373"/>
+      <c r="E32" s="374"/>
+      <c r="F32" s="375"/>
+      <c r="G32" s="413" t="s">
         <v>375</v>
       </c>
-      <c r="H32" s="337"/>
-      <c r="I32" s="358"/>
-      <c r="J32" s="359"/>
-      <c r="K32" s="359"/>
-      <c r="L32" s="359"/>
-      <c r="M32" s="359"/>
-      <c r="N32" s="360"/>
+      <c r="H32" s="371"/>
+      <c r="I32" s="343"/>
+      <c r="J32" s="344"/>
+      <c r="K32" s="344"/>
+      <c r="L32" s="344"/>
+      <c r="M32" s="344"/>
+      <c r="N32" s="345"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="404" t="s">
+      <c r="A33" s="370" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="337"/>
-      <c r="C33" s="405"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="354"/>
-      <c r="F33" s="355"/>
+      <c r="B33" s="371"/>
+      <c r="C33" s="372"/>
+      <c r="D33" s="373"/>
+      <c r="E33" s="374"/>
+      <c r="F33" s="375"/>
       <c r="G33" s="202" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="153"/>
-      <c r="I33" s="358"/>
-      <c r="J33" s="359"/>
-      <c r="K33" s="359"/>
-      <c r="L33" s="359"/>
-      <c r="M33" s="359"/>
-      <c r="N33" s="360"/>
+      <c r="I33" s="343"/>
+      <c r="J33" s="344"/>
+      <c r="K33" s="344"/>
+      <c r="L33" s="344"/>
+      <c r="M33" s="344"/>
+      <c r="N33" s="345"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7581,19 +7581,19 @@
       </c>
       <c r="B34" s="260"/>
       <c r="C34" s="155"/>
-      <c r="D34" s="392"/>
-      <c r="E34" s="393"/>
-      <c r="F34" s="394"/>
+      <c r="D34" s="358"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="360"/>
       <c r="G34" s="112" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="102"/>
-      <c r="I34" s="358"/>
-      <c r="J34" s="359"/>
-      <c r="K34" s="359"/>
-      <c r="L34" s="359"/>
-      <c r="M34" s="359"/>
-      <c r="N34" s="360"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="344"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="344"/>
+      <c r="M34" s="344"/>
+      <c r="N34" s="345"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -7627,21 +7627,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="222"/>
-      <c r="D36" s="311"/>
-      <c r="E36" s="311"/>
-      <c r="F36" s="311"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="293" t="s">
+      <c r="D36" s="422"/>
+      <c r="E36" s="422"/>
+      <c r="F36" s="422"/>
+      <c r="G36" s="422"/>
+      <c r="H36" s="422"/>
+      <c r="I36" s="471" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="293"/>
-      <c r="K36" s="293"/>
-      <c r="L36" s="294"/>
-      <c r="M36" s="330" t="s">
+      <c r="J36" s="471"/>
+      <c r="K36" s="471"/>
+      <c r="L36" s="472"/>
+      <c r="M36" s="439" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="331"/>
+      <c r="N36" s="440"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -7652,19 +7652,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="159"/>
-      <c r="D37" s="406"/>
-      <c r="E37" s="407"/>
-      <c r="F37" s="408"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="292"/>
       <c r="G37" s="253" t="s">
         <v>382</v>
       </c>
       <c r="H37" s="254"/>
-      <c r="I37" s="295"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="268"/>
-      <c r="L37" s="269"/>
-      <c r="M37" s="291"/>
-      <c r="N37" s="292"/>
+      <c r="I37" s="473"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="284"/>
+      <c r="N37" s="285"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -7675,17 +7675,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="215"/>
-      <c r="D38" s="406"/>
-      <c r="E38" s="407"/>
-      <c r="F38" s="407"/>
-      <c r="G38" s="407"/>
-      <c r="H38" s="408"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="268"/>
-      <c r="K38" s="268"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="291"/>
-      <c r="N38" s="292"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="291"/>
+      <c r="G38" s="291"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="286"/>
+      <c r="J38" s="286"/>
+      <c r="K38" s="286"/>
+      <c r="L38" s="287"/>
+      <c r="M38" s="284"/>
+      <c r="N38" s="285"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -7696,17 +7696,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="101"/>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="312"/>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="268"/>
-      <c r="L39" s="269"/>
-      <c r="M39" s="291"/>
-      <c r="N39" s="292"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="303"/>
+      <c r="H39" s="303"/>
+      <c r="I39" s="286"/>
+      <c r="J39" s="286"/>
+      <c r="K39" s="286"/>
+      <c r="L39" s="287"/>
+      <c r="M39" s="284"/>
+      <c r="N39" s="285"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -7717,17 +7717,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="101"/>
-      <c r="D40" s="312"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="312"/>
-      <c r="I40" s="268"/>
-      <c r="J40" s="268"/>
-      <c r="K40" s="268"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="291"/>
-      <c r="N40" s="292"/>
+      <c r="D40" s="303"/>
+      <c r="E40" s="303"/>
+      <c r="F40" s="303"/>
+      <c r="G40" s="303"/>
+      <c r="H40" s="303"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="286"/>
+      <c r="K40" s="286"/>
+      <c r="L40" s="287"/>
+      <c r="M40" s="284"/>
+      <c r="N40" s="285"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -7738,17 +7738,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="101"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="312"/>
-      <c r="I41" s="268"/>
-      <c r="J41" s="268"/>
-      <c r="K41" s="268"/>
-      <c r="L41" s="269"/>
-      <c r="M41" s="291"/>
-      <c r="N41" s="292"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303"/>
+      <c r="I41" s="286"/>
+      <c r="J41" s="286"/>
+      <c r="K41" s="286"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="285"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -7759,17 +7759,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="140"/>
-      <c r="D42" s="312"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="312"/>
-      <c r="G42" s="312"/>
-      <c r="H42" s="312"/>
-      <c r="I42" s="268"/>
-      <c r="J42" s="268"/>
-      <c r="K42" s="268"/>
-      <c r="L42" s="269"/>
-      <c r="M42" s="291"/>
-      <c r="N42" s="292"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
+      <c r="G42" s="303"/>
+      <c r="H42" s="303"/>
+      <c r="I42" s="286"/>
+      <c r="J42" s="286"/>
+      <c r="K42" s="286"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="284"/>
+      <c r="N42" s="285"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -7782,17 +7782,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="107"/>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="268"/>
-      <c r="J43" s="268"/>
-      <c r="K43" s="268"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="292"/>
+      <c r="D43" s="303"/>
+      <c r="E43" s="303"/>
+      <c r="F43" s="303"/>
+      <c r="G43" s="303"/>
+      <c r="H43" s="303"/>
+      <c r="I43" s="286"/>
+      <c r="J43" s="286"/>
+      <c r="K43" s="286"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="284"/>
+      <c r="N43" s="285"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -7803,19 +7803,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="257"/>
-      <c r="D44" s="406"/>
-      <c r="E44" s="407"/>
-      <c r="F44" s="408"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="291"/>
+      <c r="F44" s="292"/>
       <c r="G44" s="253" t="s">
         <v>402</v>
       </c>
       <c r="H44" s="254"/>
-      <c r="I44" s="268"/>
-      <c r="J44" s="268"/>
-      <c r="K44" s="268"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="291"/>
-      <c r="N44" s="292"/>
+      <c r="I44" s="286"/>
+      <c r="J44" s="286"/>
+      <c r="K44" s="286"/>
+      <c r="L44" s="287"/>
+      <c r="M44" s="284"/>
+      <c r="N44" s="285"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -7826,17 +7826,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="209"/>
-      <c r="D45" s="406"/>
-      <c r="E45" s="407"/>
-      <c r="F45" s="407"/>
-      <c r="G45" s="407"/>
-      <c r="H45" s="408"/>
-      <c r="I45" s="299"/>
-      <c r="J45" s="299"/>
-      <c r="K45" s="299"/>
-      <c r="L45" s="300"/>
-      <c r="M45" s="291"/>
-      <c r="N45" s="292"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="291"/>
+      <c r="F45" s="291"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="292"/>
+      <c r="I45" s="288"/>
+      <c r="J45" s="288"/>
+      <c r="K45" s="288"/>
+      <c r="L45" s="289"/>
+      <c r="M45" s="284"/>
+      <c r="N45" s="285"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -7849,17 +7849,17 @@
         <v>85</v>
       </c>
       <c r="C46" s="107"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="310"/>
-      <c r="F46" s="310"/>
-      <c r="G46" s="310"/>
-      <c r="H46" s="310"/>
-      <c r="I46" s="299"/>
-      <c r="J46" s="299"/>
-      <c r="K46" s="299"/>
-      <c r="L46" s="300"/>
-      <c r="M46" s="291"/>
-      <c r="N46" s="292"/>
+      <c r="D46" s="451"/>
+      <c r="E46" s="451"/>
+      <c r="F46" s="451"/>
+      <c r="G46" s="451"/>
+      <c r="H46" s="451"/>
+      <c r="I46" s="288"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="288"/>
+      <c r="L46" s="289"/>
+      <c r="M46" s="284"/>
+      <c r="N46" s="285"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -7870,17 +7870,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="257"/>
-      <c r="D47" s="463"/>
-      <c r="E47" s="463"/>
-      <c r="F47" s="463"/>
-      <c r="G47" s="463"/>
-      <c r="H47" s="463"/>
-      <c r="I47" s="299"/>
-      <c r="J47" s="299"/>
-      <c r="K47" s="299"/>
-      <c r="L47" s="300"/>
-      <c r="M47" s="291"/>
-      <c r="N47" s="292"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="304"/>
+      <c r="F47" s="304"/>
+      <c r="G47" s="304"/>
+      <c r="H47" s="304"/>
+      <c r="I47" s="288"/>
+      <c r="J47" s="288"/>
+      <c r="K47" s="288"/>
+      <c r="L47" s="289"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="285"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -7891,17 +7891,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="257"/>
-      <c r="D48" s="463"/>
-      <c r="E48" s="463"/>
-      <c r="F48" s="463"/>
-      <c r="G48" s="463"/>
-      <c r="H48" s="463"/>
-      <c r="I48" s="299"/>
-      <c r="J48" s="299"/>
-      <c r="K48" s="299"/>
-      <c r="L48" s="300"/>
-      <c r="M48" s="291"/>
-      <c r="N48" s="292"/>
+      <c r="D48" s="304"/>
+      <c r="E48" s="304"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="304"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="288"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="288"/>
+      <c r="L48" s="289"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="285"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -7912,19 +7912,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="210"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="301" t="s">
+      <c r="D49" s="444"/>
+      <c r="E49" s="444"/>
+      <c r="F49" s="444"/>
+      <c r="G49" s="444"/>
+      <c r="H49" s="444"/>
+      <c r="I49" s="442" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="301"/>
-      <c r="K49" s="301"/>
-      <c r="L49" s="301"/>
-      <c r="M49" s="301"/>
-      <c r="N49" s="302"/>
+      <c r="J49" s="442"/>
+      <c r="K49" s="442"/>
+      <c r="L49" s="442"/>
+      <c r="M49" s="442"/>
+      <c r="N49" s="443"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -7940,47 +7940,47 @@
       <c r="F50" s="104"/>
       <c r="G50" s="104"/>
       <c r="H50" s="104"/>
-      <c r="I50" s="390" t="s">
+      <c r="I50" s="356" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="390"/>
-      <c r="K50" s="390"/>
-      <c r="L50" s="390"/>
-      <c r="M50" s="390"/>
-      <c r="N50" s="391"/>
+      <c r="J50" s="356"/>
+      <c r="K50" s="356"/>
+      <c r="L50" s="356"/>
+      <c r="M50" s="356"/>
+      <c r="N50" s="357"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="383" t="s">
+      <c r="A51" s="348" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="415" t="s">
+      <c r="B51" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="415"/>
-      <c r="D51" s="418" t="s">
+      <c r="C51" s="317"/>
+      <c r="D51" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="419"/>
-      <c r="F51" s="420"/>
-      <c r="G51" s="418" t="s">
+      <c r="E51" s="306"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="305" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="419"/>
-      <c r="I51" s="464"/>
-      <c r="J51" s="304" t="s">
+      <c r="H51" s="306"/>
+      <c r="I51" s="307"/>
+      <c r="J51" s="445" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="305"/>
-      <c r="L51" s="461" t="s">
+      <c r="K51" s="446"/>
+      <c r="L51" s="298" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="385" t="s">
+      <c r="M51" s="350" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="308" t="s">
+      <c r="N51" s="449" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7988,43 +7988,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="384"/>
-      <c r="B52" s="416"/>
-      <c r="C52" s="416"/>
-      <c r="D52" s="421"/>
-      <c r="E52" s="422"/>
-      <c r="F52" s="423"/>
-      <c r="G52" s="421"/>
-      <c r="H52" s="422"/>
-      <c r="I52" s="465"/>
-      <c r="J52" s="306"/>
-      <c r="K52" s="307"/>
-      <c r="L52" s="461"/>
-      <c r="M52" s="385"/>
-      <c r="N52" s="308"/>
+      <c r="A52" s="349"/>
+      <c r="B52" s="318"/>
+      <c r="C52" s="318"/>
+      <c r="D52" s="308"/>
+      <c r="E52" s="309"/>
+      <c r="F52" s="321"/>
+      <c r="G52" s="308"/>
+      <c r="H52" s="309"/>
+      <c r="I52" s="310"/>
+      <c r="J52" s="447"/>
+      <c r="K52" s="448"/>
+      <c r="L52" s="298"/>
+      <c r="M52" s="350"/>
+      <c r="N52" s="449"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="220"/>
-      <c r="B53" s="417"/>
-      <c r="C53" s="417"/>
-      <c r="D53" s="424"/>
-      <c r="E53" s="425"/>
-      <c r="F53" s="403"/>
-      <c r="G53" s="424"/>
-      <c r="H53" s="425"/>
-      <c r="I53" s="466"/>
+      <c r="B53" s="319"/>
+      <c r="C53" s="319"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="312"/>
+      <c r="F53" s="322"/>
+      <c r="G53" s="311"/>
+      <c r="H53" s="312"/>
+      <c r="I53" s="313"/>
       <c r="J53" s="108" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="462"/>
-      <c r="M53" s="386"/>
-      <c r="N53" s="309"/>
+      <c r="L53" s="299"/>
+      <c r="M53" s="351"/>
+      <c r="N53" s="450"/>
       <c r="O53" s="110"/>
       <c r="P53" s="110"/>
       <c r="Q53" s="3" t="s">
@@ -8037,12 +8037,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="224"/>
-      <c r="D54" s="426"/>
-      <c r="E54" s="427"/>
-      <c r="F54" s="428"/>
-      <c r="G54" s="296"/>
-      <c r="H54" s="297"/>
-      <c r="I54" s="298"/>
+      <c r="D54" s="323"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="325"/>
+      <c r="G54" s="300"/>
+      <c r="H54" s="301"/>
+      <c r="I54" s="302"/>
       <c r="J54" s="160"/>
       <c r="K54" s="266"/>
       <c r="L54" s="160"/>
@@ -8058,12 +8058,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="224"/>
-      <c r="D55" s="426"/>
-      <c r="E55" s="427"/>
-      <c r="F55" s="428"/>
-      <c r="G55" s="296"/>
-      <c r="H55" s="297"/>
-      <c r="I55" s="298"/>
+      <c r="D55" s="323"/>
+      <c r="E55" s="324"/>
+      <c r="F55" s="325"/>
+      <c r="G55" s="300"/>
+      <c r="H55" s="301"/>
+      <c r="I55" s="302"/>
       <c r="J55" s="160"/>
       <c r="K55" s="266"/>
       <c r="L55" s="160"/>
@@ -8079,12 +8079,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="224"/>
-      <c r="D56" s="426"/>
-      <c r="E56" s="427"/>
-      <c r="F56" s="428"/>
-      <c r="G56" s="296"/>
-      <c r="H56" s="297"/>
-      <c r="I56" s="298"/>
+      <c r="D56" s="323"/>
+      <c r="E56" s="324"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="300"/>
+      <c r="H56" s="301"/>
+      <c r="I56" s="302"/>
       <c r="J56" s="160"/>
       <c r="K56" s="266"/>
       <c r="L56" s="160"/>
@@ -8100,12 +8100,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="224"/>
-      <c r="D57" s="426"/>
-      <c r="E57" s="427"/>
-      <c r="F57" s="428"/>
-      <c r="G57" s="296"/>
-      <c r="H57" s="297"/>
-      <c r="I57" s="298"/>
+      <c r="D57" s="323"/>
+      <c r="E57" s="324"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="301"/>
+      <c r="I57" s="302"/>
       <c r="J57" s="160"/>
       <c r="K57" s="266"/>
       <c r="L57" s="160"/>
@@ -8121,12 +8121,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="226"/>
-      <c r="D58" s="429"/>
-      <c r="E58" s="430"/>
-      <c r="F58" s="431"/>
-      <c r="G58" s="467"/>
-      <c r="H58" s="468"/>
-      <c r="I58" s="469"/>
+      <c r="D58" s="326"/>
+      <c r="E58" s="327"/>
+      <c r="F58" s="328"/>
+      <c r="G58" s="314"/>
+      <c r="H58" s="315"/>
+      <c r="I58" s="316"/>
       <c r="J58" s="265"/>
       <c r="K58" s="267"/>
       <c r="L58" s="20"/>
@@ -8137,66 +8137,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="450" t="s">
+      <c r="A59" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="451"/>
-      <c r="C59" s="451"/>
-      <c r="D59" s="451"/>
-      <c r="E59" s="451"/>
-      <c r="F59" s="451"/>
-      <c r="G59" s="451"/>
-      <c r="H59" s="451"/>
-      <c r="I59" s="451"/>
-      <c r="J59" s="451"/>
-      <c r="K59" s="451"/>
-      <c r="L59" s="451"/>
-      <c r="M59" s="451"/>
-      <c r="N59" s="452"/>
+      <c r="B59" s="279"/>
+      <c r="C59" s="279"/>
+      <c r="D59" s="279"/>
+      <c r="E59" s="279"/>
+      <c r="F59" s="279"/>
+      <c r="G59" s="279"/>
+      <c r="H59" s="279"/>
+      <c r="I59" s="279"/>
+      <c r="J59" s="279"/>
+      <c r="K59" s="279"/>
+      <c r="L59" s="279"/>
+      <c r="M59" s="279"/>
+      <c r="N59" s="280"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="447" t="s">
+      <c r="A60" s="275" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="448"/>
-      <c r="C60" s="449"/>
-      <c r="D60" s="456"/>
-      <c r="E60" s="457"/>
-      <c r="F60" s="457"/>
-      <c r="G60" s="457"/>
-      <c r="H60" s="457"/>
-      <c r="I60" s="458"/>
-      <c r="J60" s="459" t="s">
+      <c r="B60" s="276"/>
+      <c r="C60" s="277"/>
+      <c r="D60" s="293"/>
+      <c r="E60" s="294"/>
+      <c r="F60" s="294"/>
+      <c r="G60" s="294"/>
+      <c r="H60" s="294"/>
+      <c r="I60" s="295"/>
+      <c r="J60" s="296" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="460"/>
-      <c r="L60" s="453"/>
-      <c r="M60" s="454"/>
-      <c r="N60" s="455"/>
+      <c r="K60" s="297"/>
+      <c r="L60" s="281"/>
+      <c r="M60" s="282"/>
+      <c r="N60" s="283"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="146" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="444" t="s">
+      <c r="A61" s="272" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="445"/>
-      <c r="C61" s="445"/>
-      <c r="D61" s="445"/>
-      <c r="E61" s="445"/>
-      <c r="F61" s="445"/>
-      <c r="G61" s="445"/>
-      <c r="H61" s="445"/>
-      <c r="I61" s="445"/>
-      <c r="J61" s="445"/>
-      <c r="K61" s="445"/>
-      <c r="L61" s="445"/>
-      <c r="M61" s="445"/>
-      <c r="N61" s="446"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="273"/>
+      <c r="D61" s="273"/>
+      <c r="E61" s="273"/>
+      <c r="F61" s="273"/>
+      <c r="G61" s="273"/>
+      <c r="H61" s="273"/>
+      <c r="I61" s="273"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="273"/>
+      <c r="L61" s="273"/>
+      <c r="M61" s="273"/>
+      <c r="N61" s="274"/>
       <c r="Q61" s="239" t="s">
         <v>396</v>
       </c>
@@ -11923,6 +11923,124 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="142">
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -11947,124 +12065,6 @@
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12309,76 +12309,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="506"/>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="507"/>
-      <c r="H1" s="507"/>
-      <c r="I1" s="507"/>
-      <c r="J1" s="507"/>
-      <c r="K1" s="507"/>
-      <c r="L1" s="507"/>
-      <c r="M1" s="508"/>
+      <c r="A1" s="478"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="480"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="516" t="s">
+      <c r="A2" s="491" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="517"/>
-      <c r="E2" s="517"/>
-      <c r="F2" s="517"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="L2" s="517"/>
-      <c r="M2" s="518"/>
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="492"/>
+      <c r="J2" s="492"/>
+      <c r="K2" s="492"/>
+      <c r="L2" s="492"/>
+      <c r="M2" s="493"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="509" t="s">
+      <c r="B3" s="481" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="509"/>
-      <c r="D3" s="509"/>
-      <c r="E3" s="510"/>
-      <c r="F3" s="514" t="s">
+      <c r="C3" s="481"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482"/>
+      <c r="F3" s="489" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="511" t="s">
+      <c r="G3" s="485" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="510"/>
-      <c r="I3" s="511" t="s">
+      <c r="H3" s="482"/>
+      <c r="I3" s="485" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="509"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="512" t="s">
+      <c r="J3" s="481"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="487" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="513"/>
+      <c r="M3" s="488"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="485"/>
-      <c r="C4" s="485"/>
-      <c r="D4" s="485"/>
-      <c r="E4" s="486"/>
-      <c r="F4" s="515"/>
-      <c r="G4" s="497"/>
-      <c r="H4" s="486"/>
-      <c r="I4" s="497"/>
-      <c r="J4" s="485"/>
-      <c r="K4" s="486"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="486"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="486"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -12387,143 +12387,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="495"/>
-      <c r="B5" s="470"/>
-      <c r="C5" s="470"/>
-      <c r="D5" s="470"/>
-      <c r="E5" s="470"/>
+      <c r="A5" s="498"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="499"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="498"/>
-      <c r="J5" s="498"/>
-      <c r="K5" s="498"/>
+      <c r="G5" s="496"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="497"/>
+      <c r="J5" s="497"/>
+      <c r="K5" s="497"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="495"/>
-      <c r="B6" s="470"/>
-      <c r="C6" s="470"/>
-      <c r="D6" s="470"/>
-      <c r="E6" s="470"/>
+      <c r="A6" s="498"/>
+      <c r="B6" s="499"/>
+      <c r="C6" s="499"/>
+      <c r="D6" s="499"/>
+      <c r="E6" s="499"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="525"/>
-      <c r="H6" s="526"/>
-      <c r="I6" s="498"/>
-      <c r="J6" s="498"/>
-      <c r="K6" s="498"/>
+      <c r="G6" s="507"/>
+      <c r="H6" s="508"/>
+      <c r="I6" s="497"/>
+      <c r="J6" s="497"/>
+      <c r="K6" s="497"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="495"/>
-      <c r="B7" s="470"/>
-      <c r="C7" s="470"/>
-      <c r="D7" s="470"/>
-      <c r="E7" s="470"/>
+      <c r="A7" s="498"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="494"/>
-      <c r="H7" s="494"/>
-      <c r="I7" s="498"/>
-      <c r="J7" s="498"/>
-      <c r="K7" s="498"/>
+      <c r="G7" s="496"/>
+      <c r="H7" s="496"/>
+      <c r="I7" s="497"/>
+      <c r="J7" s="497"/>
+      <c r="K7" s="497"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="495"/>
-      <c r="B8" s="470"/>
-      <c r="C8" s="470"/>
-      <c r="D8" s="470"/>
-      <c r="E8" s="470"/>
+      <c r="A8" s="498"/>
+      <c r="B8" s="499"/>
+      <c r="C8" s="499"/>
+      <c r="D8" s="499"/>
+      <c r="E8" s="499"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="494"/>
-      <c r="H8" s="494"/>
-      <c r="I8" s="498"/>
-      <c r="J8" s="498"/>
-      <c r="K8" s="498"/>
+      <c r="G8" s="496"/>
+      <c r="H8" s="496"/>
+      <c r="I8" s="497"/>
+      <c r="J8" s="497"/>
+      <c r="K8" s="497"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="495"/>
-      <c r="B9" s="470"/>
-      <c r="C9" s="470"/>
-      <c r="D9" s="470"/>
-      <c r="E9" s="470"/>
+      <c r="A9" s="498"/>
+      <c r="B9" s="499"/>
+      <c r="C9" s="499"/>
+      <c r="D9" s="499"/>
+      <c r="E9" s="499"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="494"/>
-      <c r="H9" s="494"/>
-      <c r="I9" s="498"/>
-      <c r="J9" s="498"/>
-      <c r="K9" s="498"/>
+      <c r="G9" s="496"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="497"/>
+      <c r="J9" s="497"/>
+      <c r="K9" s="497"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="495"/>
-      <c r="B10" s="470"/>
-      <c r="C10" s="470"/>
-      <c r="D10" s="470"/>
-      <c r="E10" s="470"/>
+      <c r="A10" s="498"/>
+      <c r="B10" s="499"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="499"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="494"/>
-      <c r="H10" s="494"/>
-      <c r="I10" s="498"/>
-      <c r="J10" s="498"/>
-      <c r="K10" s="498"/>
+      <c r="G10" s="496"/>
+      <c r="H10" s="496"/>
+      <c r="I10" s="497"/>
+      <c r="J10" s="497"/>
+      <c r="K10" s="497"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="482"/>
-      <c r="B11" s="477"/>
-      <c r="C11" s="477"/>
-      <c r="D11" s="477"/>
-      <c r="E11" s="477"/>
+      <c r="A11" s="514"/>
+      <c r="B11" s="515"/>
+      <c r="C11" s="515"/>
+      <c r="D11" s="515"/>
+      <c r="E11" s="515"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="493"/>
-      <c r="H11" s="493"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="499"/>
-      <c r="K11" s="499"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="509"/>
+      <c r="K11" s="509"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="487" t="s">
+      <c r="A12" s="516" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="488"/>
-      <c r="C12" s="488"/>
-      <c r="D12" s="488"/>
-      <c r="E12" s="488"/>
-      <c r="F12" s="488"/>
-      <c r="G12" s="488"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="488"/>
-      <c r="J12" s="488"/>
-      <c r="K12" s="488"/>
-      <c r="L12" s="488"/>
-      <c r="M12" s="489"/>
+      <c r="B12" s="517"/>
+      <c r="C12" s="517"/>
+      <c r="D12" s="517"/>
+      <c r="E12" s="517"/>
+      <c r="F12" s="517"/>
+      <c r="G12" s="517"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="517"/>
+      <c r="J12" s="517"/>
+      <c r="K12" s="517"/>
+      <c r="L12" s="517"/>
+      <c r="M12" s="518"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="490" t="s">
+      <c r="A13" s="519" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="491"/>
-      <c r="C13" s="491"/>
-      <c r="D13" s="491"/>
-      <c r="E13" s="491"/>
-      <c r="F13" s="491"/>
-      <c r="G13" s="491"/>
-      <c r="H13" s="491"/>
-      <c r="I13" s="491"/>
-      <c r="J13" s="491"/>
-      <c r="K13" s="491"/>
-      <c r="L13" s="491"/>
-      <c r="M13" s="492"/>
+      <c r="B13" s="520"/>
+      <c r="C13" s="520"/>
+      <c r="D13" s="520"/>
+      <c r="E13" s="520"/>
+      <c r="F13" s="520"/>
+      <c r="G13" s="520"/>
+      <c r="H13" s="520"/>
+      <c r="I13" s="520"/>
+      <c r="J13" s="520"/>
+      <c r="K13" s="520"/>
+      <c r="L13" s="520"/>
+      <c r="M13" s="521"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="208" t="s">
@@ -12546,515 +12546,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="483" t="s">
+      <c r="B15" s="505" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="484"/>
-      <c r="D15" s="496" t="s">
+      <c r="C15" s="506"/>
+      <c r="D15" s="504" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="484"/>
-      <c r="G15" s="496" t="s">
+      <c r="E15" s="505"/>
+      <c r="F15" s="506"/>
+      <c r="G15" s="504" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="483"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="500" t="s">
+      <c r="H15" s="505"/>
+      <c r="I15" s="506"/>
+      <c r="J15" s="510" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="521" t="s">
+      <c r="K15" s="500" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="475" t="s">
+      <c r="L15" s="525" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="519" t="s">
+      <c r="M15" s="494" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="485"/>
-      <c r="C16" s="486"/>
-      <c r="D16" s="496"/>
-      <c r="E16" s="483"/>
-      <c r="F16" s="484"/>
-      <c r="G16" s="496"/>
-      <c r="H16" s="483"/>
-      <c r="I16" s="484"/>
-      <c r="J16" s="500"/>
-      <c r="K16" s="521"/>
-      <c r="L16" s="475"/>
-      <c r="M16" s="519"/>
+      <c r="B16" s="483"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="504"/>
+      <c r="E16" s="505"/>
+      <c r="F16" s="506"/>
+      <c r="G16" s="504"/>
+      <c r="H16" s="505"/>
+      <c r="I16" s="506"/>
+      <c r="J16" s="510"/>
+      <c r="K16" s="500"/>
+      <c r="L16" s="525"/>
+      <c r="M16" s="494"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="523" t="s">
+      <c r="A17" s="502" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="524"/>
+      <c r="B17" s="503"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="497"/>
-      <c r="E17" s="485"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="497"/>
-      <c r="H17" s="485"/>
-      <c r="I17" s="486"/>
-      <c r="J17" s="501"/>
-      <c r="K17" s="522"/>
-      <c r="L17" s="476"/>
-      <c r="M17" s="520"/>
+      <c r="D17" s="486"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="511"/>
+      <c r="K17" s="501"/>
+      <c r="L17" s="526"/>
+      <c r="M17" s="495"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="471"/>
-      <c r="B18" s="472"/>
+      <c r="A18" s="512"/>
+      <c r="B18" s="513"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="470"/>
-      <c r="E18" s="470"/>
-      <c r="F18" s="470"/>
-      <c r="G18" s="470"/>
-      <c r="H18" s="470"/>
-      <c r="I18" s="470"/>
+      <c r="D18" s="499"/>
+      <c r="E18" s="499"/>
+      <c r="F18" s="499"/>
+      <c r="G18" s="499"/>
+      <c r="H18" s="499"/>
+      <c r="I18" s="499"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="471"/>
-      <c r="B19" s="472"/>
+      <c r="A19" s="512"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="470"/>
-      <c r="E19" s="470"/>
-      <c r="F19" s="470"/>
-      <c r="G19" s="470"/>
-      <c r="H19" s="470"/>
-      <c r="I19" s="470"/>
+      <c r="D19" s="499"/>
+      <c r="E19" s="499"/>
+      <c r="F19" s="499"/>
+      <c r="G19" s="499"/>
+      <c r="H19" s="499"/>
+      <c r="I19" s="499"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="471"/>
-      <c r="B20" s="472"/>
+      <c r="A20" s="512"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="470"/>
-      <c r="E20" s="470"/>
-      <c r="F20" s="470"/>
-      <c r="G20" s="470"/>
-      <c r="H20" s="470"/>
-      <c r="I20" s="470"/>
+      <c r="D20" s="499"/>
+      <c r="E20" s="499"/>
+      <c r="F20" s="499"/>
+      <c r="G20" s="499"/>
+      <c r="H20" s="499"/>
+      <c r="I20" s="499"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="471"/>
-      <c r="B21" s="472"/>
+      <c r="A21" s="512"/>
+      <c r="B21" s="513"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="470"/>
-      <c r="E21" s="470"/>
-      <c r="F21" s="470"/>
-      <c r="G21" s="470"/>
-      <c r="H21" s="470"/>
-      <c r="I21" s="470"/>
+      <c r="D21" s="499"/>
+      <c r="E21" s="499"/>
+      <c r="F21" s="499"/>
+      <c r="G21" s="499"/>
+      <c r="H21" s="499"/>
+      <c r="I21" s="499"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="471"/>
-      <c r="B22" s="472"/>
+      <c r="A22" s="512"/>
+      <c r="B22" s="513"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="470"/>
-      <c r="E22" s="470"/>
-      <c r="F22" s="470"/>
-      <c r="G22" s="470"/>
-      <c r="H22" s="470"/>
-      <c r="I22" s="470"/>
+      <c r="D22" s="499"/>
+      <c r="E22" s="499"/>
+      <c r="F22" s="499"/>
+      <c r="G22" s="499"/>
+      <c r="H22" s="499"/>
+      <c r="I22" s="499"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="471"/>
-      <c r="B23" s="472"/>
+      <c r="A23" s="512"/>
+      <c r="B23" s="513"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="470"/>
-      <c r="E23" s="470"/>
-      <c r="F23" s="470"/>
-      <c r="G23" s="470"/>
-      <c r="H23" s="470"/>
-      <c r="I23" s="470"/>
+      <c r="D23" s="499"/>
+      <c r="E23" s="499"/>
+      <c r="F23" s="499"/>
+      <c r="G23" s="499"/>
+      <c r="H23" s="499"/>
+      <c r="I23" s="499"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="471"/>
-      <c r="B24" s="472"/>
+      <c r="A24" s="512"/>
+      <c r="B24" s="513"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="470"/>
-      <c r="E24" s="470"/>
-      <c r="F24" s="470"/>
-      <c r="G24" s="470"/>
-      <c r="H24" s="470"/>
-      <c r="I24" s="470"/>
+      <c r="D24" s="499"/>
+      <c r="E24" s="499"/>
+      <c r="F24" s="499"/>
+      <c r="G24" s="499"/>
+      <c r="H24" s="499"/>
+      <c r="I24" s="499"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="471"/>
-      <c r="B25" s="472"/>
+      <c r="A25" s="512"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="470"/>
-      <c r="E25" s="470"/>
-      <c r="F25" s="470"/>
-      <c r="G25" s="470"/>
-      <c r="H25" s="470"/>
-      <c r="I25" s="470"/>
+      <c r="D25" s="499"/>
+      <c r="E25" s="499"/>
+      <c r="F25" s="499"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="499"/>
+      <c r="I25" s="499"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="471"/>
-      <c r="B26" s="472"/>
+      <c r="A26" s="512"/>
+      <c r="B26" s="513"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="470"/>
-      <c r="E26" s="470"/>
-      <c r="F26" s="470"/>
-      <c r="G26" s="470"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="470"/>
+      <c r="D26" s="499"/>
+      <c r="E26" s="499"/>
+      <c r="F26" s="499"/>
+      <c r="G26" s="499"/>
+      <c r="H26" s="499"/>
+      <c r="I26" s="499"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="471"/>
-      <c r="B27" s="472"/>
+      <c r="A27" s="512"/>
+      <c r="B27" s="513"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="470"/>
-      <c r="E27" s="470"/>
-      <c r="F27" s="470"/>
-      <c r="G27" s="470"/>
-      <c r="H27" s="470"/>
-      <c r="I27" s="470"/>
+      <c r="D27" s="499"/>
+      <c r="E27" s="499"/>
+      <c r="F27" s="499"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="499"/>
+      <c r="I27" s="499"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="471"/>
-      <c r="B28" s="472"/>
+      <c r="A28" s="512"/>
+      <c r="B28" s="513"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="470"/>
-      <c r="E28" s="470"/>
-      <c r="F28" s="470"/>
-      <c r="G28" s="470"/>
-      <c r="H28" s="470"/>
-      <c r="I28" s="470"/>
+      <c r="D28" s="499"/>
+      <c r="E28" s="499"/>
+      <c r="F28" s="499"/>
+      <c r="G28" s="499"/>
+      <c r="H28" s="499"/>
+      <c r="I28" s="499"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="471"/>
-      <c r="B29" s="472"/>
+      <c r="A29" s="512"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="470"/>
-      <c r="E29" s="470"/>
-      <c r="F29" s="470"/>
-      <c r="G29" s="470"/>
-      <c r="H29" s="470"/>
-      <c r="I29" s="470"/>
+      <c r="D29" s="499"/>
+      <c r="E29" s="499"/>
+      <c r="F29" s="499"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="499"/>
+      <c r="I29" s="499"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="471"/>
-      <c r="B30" s="472"/>
+      <c r="A30" s="512"/>
+      <c r="B30" s="513"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="470"/>
-      <c r="E30" s="470"/>
-      <c r="F30" s="470"/>
-      <c r="G30" s="470"/>
-      <c r="H30" s="470"/>
-      <c r="I30" s="470"/>
+      <c r="D30" s="499"/>
+      <c r="E30" s="499"/>
+      <c r="F30" s="499"/>
+      <c r="G30" s="499"/>
+      <c r="H30" s="499"/>
+      <c r="I30" s="499"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="471"/>
-      <c r="B31" s="472"/>
+      <c r="A31" s="512"/>
+      <c r="B31" s="513"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="470"/>
-      <c r="E31" s="470"/>
-      <c r="F31" s="470"/>
-      <c r="G31" s="470"/>
-      <c r="H31" s="470"/>
-      <c r="I31" s="470"/>
+      <c r="D31" s="499"/>
+      <c r="E31" s="499"/>
+      <c r="F31" s="499"/>
+      <c r="G31" s="499"/>
+      <c r="H31" s="499"/>
+      <c r="I31" s="499"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="471"/>
-      <c r="B32" s="472"/>
+      <c r="A32" s="512"/>
+      <c r="B32" s="513"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="470"/>
-      <c r="E32" s="470"/>
-      <c r="F32" s="470"/>
-      <c r="G32" s="470"/>
-      <c r="H32" s="470"/>
-      <c r="I32" s="470"/>
+      <c r="D32" s="499"/>
+      <c r="E32" s="499"/>
+      <c r="F32" s="499"/>
+      <c r="G32" s="499"/>
+      <c r="H32" s="499"/>
+      <c r="I32" s="499"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="471"/>
-      <c r="B33" s="472"/>
+      <c r="A33" s="512"/>
+      <c r="B33" s="513"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="470"/>
-      <c r="E33" s="470"/>
-      <c r="F33" s="470"/>
-      <c r="G33" s="470"/>
-      <c r="H33" s="470"/>
-      <c r="I33" s="470"/>
+      <c r="D33" s="499"/>
+      <c r="E33" s="499"/>
+      <c r="F33" s="499"/>
+      <c r="G33" s="499"/>
+      <c r="H33" s="499"/>
+      <c r="I33" s="499"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="471"/>
-      <c r="B34" s="472"/>
+      <c r="A34" s="512"/>
+      <c r="B34" s="513"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="470"/>
-      <c r="E34" s="470"/>
-      <c r="F34" s="470"/>
-      <c r="G34" s="470"/>
-      <c r="H34" s="470"/>
-      <c r="I34" s="470"/>
+      <c r="D34" s="499"/>
+      <c r="E34" s="499"/>
+      <c r="F34" s="499"/>
+      <c r="G34" s="499"/>
+      <c r="H34" s="499"/>
+      <c r="I34" s="499"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="471"/>
-      <c r="B35" s="472"/>
+      <c r="A35" s="512"/>
+      <c r="B35" s="513"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="470"/>
-      <c r="E35" s="470"/>
-      <c r="F35" s="470"/>
-      <c r="G35" s="470"/>
-      <c r="H35" s="470"/>
-      <c r="I35" s="470"/>
+      <c r="D35" s="499"/>
+      <c r="E35" s="499"/>
+      <c r="F35" s="499"/>
+      <c r="G35" s="499"/>
+      <c r="H35" s="499"/>
+      <c r="I35" s="499"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="471"/>
-      <c r="B36" s="472"/>
+      <c r="A36" s="512"/>
+      <c r="B36" s="513"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="470"/>
-      <c r="E36" s="470"/>
-      <c r="F36" s="470"/>
-      <c r="G36" s="470"/>
-      <c r="H36" s="470"/>
-      <c r="I36" s="470"/>
+      <c r="D36" s="499"/>
+      <c r="E36" s="499"/>
+      <c r="F36" s="499"/>
+      <c r="G36" s="499"/>
+      <c r="H36" s="499"/>
+      <c r="I36" s="499"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="471"/>
-      <c r="B37" s="472"/>
+      <c r="A37" s="512"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="470"/>
-      <c r="E37" s="470"/>
-      <c r="F37" s="470"/>
-      <c r="G37" s="470"/>
-      <c r="H37" s="470"/>
-      <c r="I37" s="470"/>
+      <c r="D37" s="499"/>
+      <c r="E37" s="499"/>
+      <c r="F37" s="499"/>
+      <c r="G37" s="499"/>
+      <c r="H37" s="499"/>
+      <c r="I37" s="499"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="471"/>
-      <c r="B38" s="472"/>
+      <c r="A38" s="512"/>
+      <c r="B38" s="513"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="470"/>
-      <c r="E38" s="470"/>
-      <c r="F38" s="470"/>
-      <c r="G38" s="470"/>
-      <c r="H38" s="470"/>
-      <c r="I38" s="470"/>
+      <c r="D38" s="499"/>
+      <c r="E38" s="499"/>
+      <c r="F38" s="499"/>
+      <c r="G38" s="499"/>
+      <c r="H38" s="499"/>
+      <c r="I38" s="499"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="471"/>
-      <c r="B39" s="472"/>
+      <c r="A39" s="512"/>
+      <c r="B39" s="513"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="470"/>
-      <c r="E39" s="470"/>
-      <c r="F39" s="470"/>
-      <c r="G39" s="470"/>
-      <c r="H39" s="470"/>
-      <c r="I39" s="470"/>
+      <c r="D39" s="499"/>
+      <c r="E39" s="499"/>
+      <c r="F39" s="499"/>
+      <c r="G39" s="499"/>
+      <c r="H39" s="499"/>
+      <c r="I39" s="499"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="471"/>
-      <c r="B40" s="472"/>
+      <c r="A40" s="512"/>
+      <c r="B40" s="513"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="470"/>
-      <c r="E40" s="470"/>
-      <c r="F40" s="470"/>
-      <c r="G40" s="470"/>
-      <c r="H40" s="470"/>
-      <c r="I40" s="470"/>
+      <c r="D40" s="499"/>
+      <c r="E40" s="499"/>
+      <c r="F40" s="499"/>
+      <c r="G40" s="499"/>
+      <c r="H40" s="499"/>
+      <c r="I40" s="499"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="471"/>
-      <c r="B41" s="472"/>
+      <c r="A41" s="512"/>
+      <c r="B41" s="513"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="470"/>
-      <c r="E41" s="470"/>
-      <c r="F41" s="470"/>
-      <c r="G41" s="470"/>
-      <c r="H41" s="470"/>
-      <c r="I41" s="470"/>
+      <c r="D41" s="499"/>
+      <c r="E41" s="499"/>
+      <c r="F41" s="499"/>
+      <c r="G41" s="499"/>
+      <c r="H41" s="499"/>
+      <c r="I41" s="499"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="471"/>
-      <c r="B42" s="472"/>
+      <c r="A42" s="512"/>
+      <c r="B42" s="513"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="470"/>
-      <c r="E42" s="470"/>
-      <c r="F42" s="470"/>
-      <c r="G42" s="470"/>
-      <c r="H42" s="470"/>
-      <c r="I42" s="470"/>
+      <c r="D42" s="499"/>
+      <c r="E42" s="499"/>
+      <c r="F42" s="499"/>
+      <c r="G42" s="499"/>
+      <c r="H42" s="499"/>
+      <c r="I42" s="499"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="471"/>
-      <c r="B43" s="472"/>
+      <c r="A43" s="512"/>
+      <c r="B43" s="513"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="470"/>
-      <c r="E43" s="470"/>
-      <c r="F43" s="470"/>
-      <c r="G43" s="470"/>
-      <c r="H43" s="470"/>
-      <c r="I43" s="470"/>
+      <c r="D43" s="499"/>
+      <c r="E43" s="499"/>
+      <c r="F43" s="499"/>
+      <c r="G43" s="499"/>
+      <c r="H43" s="499"/>
+      <c r="I43" s="499"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="471"/>
-      <c r="B44" s="472"/>
+      <c r="A44" s="512"/>
+      <c r="B44" s="513"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="470"/>
-      <c r="E44" s="470"/>
-      <c r="F44" s="470"/>
-      <c r="G44" s="470"/>
-      <c r="H44" s="470"/>
-      <c r="I44" s="470"/>
+      <c r="D44" s="499"/>
+      <c r="E44" s="499"/>
+      <c r="F44" s="499"/>
+      <c r="G44" s="499"/>
+      <c r="H44" s="499"/>
+      <c r="I44" s="499"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="473"/>
-      <c r="B45" s="474"/>
+      <c r="A45" s="523"/>
+      <c r="B45" s="524"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="477"/>
-      <c r="E45" s="477"/>
-      <c r="F45" s="477"/>
-      <c r="G45" s="477"/>
-      <c r="H45" s="477"/>
-      <c r="I45" s="477"/>
+      <c r="D45" s="515"/>
+      <c r="E45" s="515"/>
+      <c r="F45" s="515"/>
+      <c r="G45" s="515"/>
+      <c r="H45" s="515"/>
+      <c r="I45" s="515"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="478" t="s">
+      <c r="A46" s="527" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="479"/>
-      <c r="C46" s="479"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
-      <c r="G46" s="479"/>
-      <c r="H46" s="479"/>
-      <c r="I46" s="479"/>
-      <c r="J46" s="479"/>
-      <c r="K46" s="480"/>
-      <c r="L46" s="480"/>
-      <c r="M46" s="481"/>
+      <c r="B46" s="528"/>
+      <c r="C46" s="528"/>
+      <c r="D46" s="528"/>
+      <c r="E46" s="528"/>
+      <c r="F46" s="528"/>
+      <c r="G46" s="528"/>
+      <c r="H46" s="528"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="528"/>
+      <c r="K46" s="529"/>
+      <c r="L46" s="529"/>
+      <c r="M46" s="530"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="447" t="s">
+      <c r="A47" s="275" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="448"/>
-      <c r="C47" s="449"/>
-      <c r="D47" s="503"/>
-      <c r="E47" s="504"/>
-      <c r="F47" s="504"/>
-      <c r="G47" s="504"/>
-      <c r="H47" s="505"/>
+      <c r="B47" s="276"/>
+      <c r="C47" s="277"/>
+      <c r="D47" s="475"/>
+      <c r="E47" s="476"/>
+      <c r="F47" s="476"/>
+      <c r="G47" s="476"/>
+      <c r="H47" s="477"/>
       <c r="I47" s="234" t="s">
         <v>393</v>
       </c>
@@ -13065,21 +13065,21 @@
       <c r="N47" s="237"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="502" t="s">
+      <c r="A48" s="474" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="502"/>
-      <c r="C48" s="502"/>
-      <c r="D48" s="502"/>
-      <c r="E48" s="502"/>
-      <c r="F48" s="502"/>
-      <c r="G48" s="502"/>
-      <c r="H48" s="502"/>
-      <c r="I48" s="502"/>
-      <c r="J48" s="502"/>
-      <c r="K48" s="502"/>
-      <c r="L48" s="502"/>
-      <c r="M48" s="502"/>
+      <c r="B48" s="474"/>
+      <c r="C48" s="474"/>
+      <c r="D48" s="474"/>
+      <c r="E48" s="474"/>
+      <c r="F48" s="474"/>
+      <c r="G48" s="474"/>
+      <c r="H48" s="474"/>
+      <c r="I48" s="474"/>
+      <c r="J48" s="474"/>
+      <c r="K48" s="474"/>
+      <c r="L48" s="474"/>
+      <c r="M48" s="474"/>
       <c r="N48" s="240"/>
     </row>
   </sheetData>
@@ -13093,6 +13093,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
@@ -13117,108 +13219,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13235,8 +13235,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13256,280 +13256,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="549"/>
-      <c r="B1" s="550"/>
-      <c r="C1" s="550"/>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="551"/>
+      <c r="A1" s="560"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="574" t="s">
+      <c r="A2" s="580" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="575"/>
-      <c r="C2" s="575"/>
-      <c r="D2" s="575"/>
-      <c r="E2" s="575"/>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="575"/>
-      <c r="J2" s="575"/>
-      <c r="K2" s="576"/>
+      <c r="B2" s="581"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="581"/>
+      <c r="F2" s="581"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="581"/>
+      <c r="J2" s="581"/>
+      <c r="K2" s="582"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="558" t="s">
+      <c r="A3" s="566" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="559" t="s">
+      <c r="B3" s="568" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="509" t="s">
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="510"/>
-      <c r="G3" s="586" t="s">
+      <c r="F3" s="482"/>
+      <c r="G3" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="511" t="s">
+      <c r="H3" s="485" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="569"/>
-      <c r="J3" s="569"/>
-      <c r="K3" s="570"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="575"/>
+      <c r="K3" s="576"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="548"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="561"/>
-      <c r="D4" s="562"/>
-      <c r="E4" s="485"/>
-      <c r="F4" s="486"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="571"/>
-      <c r="I4" s="552"/>
-      <c r="J4" s="552"/>
-      <c r="K4" s="572"/>
+      <c r="A4" s="567"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="570"/>
+      <c r="D4" s="571"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="577"/>
+      <c r="I4" s="563"/>
+      <c r="J4" s="563"/>
+      <c r="K4" s="578"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
-      <c r="B5" s="577"/>
-      <c r="C5" s="577"/>
-      <c r="D5" s="578"/>
+      <c r="B5" s="583"/>
+      <c r="C5" s="583"/>
+      <c r="D5" s="584"/>
       <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="522"/>
-      <c r="H5" s="573"/>
-      <c r="I5" s="433"/>
-      <c r="J5" s="433"/>
-      <c r="K5" s="434"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="579"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="331"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="566"/>
-      <c r="B6" s="567"/>
-      <c r="C6" s="567"/>
-      <c r="D6" s="568"/>
+      <c r="A6" s="541"/>
+      <c r="B6" s="542"/>
+      <c r="C6" s="542"/>
+      <c r="D6" s="543"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="556"/>
-      <c r="J6" s="556"/>
-      <c r="K6" s="557"/>
+      <c r="H6" s="545"/>
+      <c r="I6" s="546"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="547"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="566"/>
-      <c r="B7" s="567"/>
-      <c r="C7" s="567"/>
-      <c r="D7" s="568"/>
+      <c r="A7" s="541"/>
+      <c r="B7" s="542"/>
+      <c r="C7" s="542"/>
+      <c r="D7" s="543"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="556"/>
-      <c r="J7" s="556"/>
-      <c r="K7" s="557"/>
+      <c r="H7" s="545"/>
+      <c r="I7" s="546"/>
+      <c r="J7" s="546"/>
+      <c r="K7" s="547"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="566"/>
-      <c r="B8" s="567"/>
-      <c r="C8" s="567"/>
-      <c r="D8" s="568"/>
+      <c r="A8" s="541"/>
+      <c r="B8" s="542"/>
+      <c r="C8" s="542"/>
+      <c r="D8" s="543"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="555"/>
-      <c r="I8" s="556"/>
-      <c r="J8" s="556"/>
-      <c r="K8" s="557"/>
+      <c r="H8" s="545"/>
+      <c r="I8" s="546"/>
+      <c r="J8" s="546"/>
+      <c r="K8" s="547"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="566"/>
-      <c r="B9" s="567"/>
-      <c r="C9" s="567"/>
-      <c r="D9" s="568"/>
+      <c r="A9" s="541"/>
+      <c r="B9" s="542"/>
+      <c r="C9" s="542"/>
+      <c r="D9" s="543"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="555"/>
-      <c r="I9" s="556"/>
-      <c r="J9" s="556"/>
-      <c r="K9" s="557"/>
+      <c r="H9" s="545"/>
+      <c r="I9" s="546"/>
+      <c r="J9" s="546"/>
+      <c r="K9" s="547"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="566"/>
-      <c r="B10" s="567"/>
-      <c r="C10" s="567"/>
-      <c r="D10" s="568"/>
+      <c r="A10" s="541"/>
+      <c r="B10" s="542"/>
+      <c r="C10" s="542"/>
+      <c r="D10" s="543"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="555"/>
-      <c r="I10" s="556"/>
-      <c r="J10" s="556"/>
-      <c r="K10" s="557"/>
+      <c r="H10" s="545"/>
+      <c r="I10" s="546"/>
+      <c r="J10" s="546"/>
+      <c r="K10" s="547"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="566"/>
-      <c r="B11" s="567"/>
-      <c r="C11" s="567"/>
-      <c r="D11" s="568"/>
+      <c r="A11" s="541"/>
+      <c r="B11" s="542"/>
+      <c r="C11" s="542"/>
+      <c r="D11" s="543"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="555"/>
-      <c r="I11" s="556"/>
-      <c r="J11" s="556"/>
-      <c r="K11" s="557"/>
+      <c r="H11" s="545"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
+      <c r="K11" s="547"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="563"/>
-      <c r="B12" s="564"/>
-      <c r="C12" s="564"/>
-      <c r="D12" s="565"/>
+      <c r="A12" s="572"/>
+      <c r="B12" s="573"/>
+      <c r="C12" s="573"/>
+      <c r="D12" s="574"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="528"/>
-      <c r="J12" s="528"/>
-      <c r="K12" s="529"/>
+      <c r="H12" s="585"/>
+      <c r="I12" s="586"/>
+      <c r="J12" s="586"/>
+      <c r="K12" s="587"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="487" t="s">
+      <c r="A13" s="516" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="488"/>
-      <c r="C13" s="488"/>
-      <c r="D13" s="488"/>
-      <c r="E13" s="488"/>
-      <c r="F13" s="488"/>
-      <c r="G13" s="488"/>
-      <c r="H13" s="488"/>
-      <c r="I13" s="488"/>
-      <c r="J13" s="488"/>
-      <c r="K13" s="489"/>
+      <c r="B13" s="517"/>
+      <c r="C13" s="517"/>
+      <c r="D13" s="517"/>
+      <c r="E13" s="517"/>
+      <c r="F13" s="517"/>
+      <c r="G13" s="517"/>
+      <c r="H13" s="517"/>
+      <c r="I13" s="517"/>
+      <c r="J13" s="517"/>
+      <c r="K13" s="518"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="530" t="s">
+      <c r="A14" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="531"/>
-      <c r="C14" s="531"/>
-      <c r="D14" s="531"/>
-      <c r="E14" s="531"/>
-      <c r="F14" s="531"/>
-      <c r="G14" s="531"/>
-      <c r="H14" s="531"/>
-      <c r="I14" s="531"/>
-      <c r="J14" s="531"/>
-      <c r="K14" s="532"/>
+      <c r="B14" s="589"/>
+      <c r="C14" s="589"/>
+      <c r="D14" s="589"/>
+      <c r="E14" s="589"/>
+      <c r="F14" s="589"/>
+      <c r="G14" s="589"/>
+      <c r="H14" s="589"/>
+      <c r="I14" s="589"/>
+      <c r="J14" s="589"/>
+      <c r="K14" s="590"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="548" t="s">
+      <c r="A15" s="567" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="483" t="s">
+      <c r="B15" s="505" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="552"/>
-      <c r="D15" s="553"/>
-      <c r="E15" s="483" t="s">
+      <c r="C15" s="563"/>
+      <c r="D15" s="564"/>
+      <c r="E15" s="505" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="484"/>
-      <c r="G15" s="521" t="s">
+      <c r="F15" s="506"/>
+      <c r="G15" s="500" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="500" t="s">
+      <c r="H15" s="510" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="496" t="s">
+      <c r="I15" s="504" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="552"/>
-      <c r="K15" s="572"/>
+      <c r="J15" s="563"/>
+      <c r="K15" s="578"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="548"/>
-      <c r="B16" s="552"/>
-      <c r="C16" s="552"/>
-      <c r="D16" s="553"/>
-      <c r="E16" s="485"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="521"/>
-      <c r="H16" s="500"/>
-      <c r="I16" s="571"/>
-      <c r="J16" s="552"/>
-      <c r="K16" s="572"/>
+      <c r="A16" s="567"/>
+      <c r="B16" s="563"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="564"/>
+      <c r="E16" s="483"/>
+      <c r="F16" s="484"/>
+      <c r="G16" s="500"/>
+      <c r="H16" s="510"/>
+      <c r="I16" s="577"/>
+      <c r="J16" s="563"/>
+      <c r="K16" s="578"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="433"/>
-      <c r="C17" s="433"/>
-      <c r="D17" s="554"/>
+      <c r="B17" s="330"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="565"/>
       <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="522"/>
-      <c r="H17" s="501"/>
-      <c r="I17" s="573"/>
-      <c r="J17" s="433"/>
-      <c r="K17" s="434"/>
+      <c r="G17" s="501"/>
+      <c r="H17" s="511"/>
+      <c r="I17" s="579"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="331"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="539"/>
-      <c r="B18" s="540"/>
-      <c r="C18" s="540"/>
-      <c r="D18" s="541"/>
+      <c r="A18" s="548"/>
+      <c r="B18" s="549"/>
+      <c r="C18" s="549"/>
+      <c r="D18" s="550"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="536"/>
-      <c r="J18" s="537"/>
-      <c r="K18" s="538"/>
+      <c r="I18" s="554"/>
+      <c r="J18" s="555"/>
+      <c r="K18" s="556"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="533"/>
-      <c r="B19" s="534"/>
-      <c r="C19" s="534"/>
-      <c r="D19" s="535"/>
+      <c r="A19" s="551"/>
+      <c r="B19" s="552"/>
+      <c r="C19" s="552"/>
+      <c r="D19" s="553"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="30"/>
@@ -13539,10 +13539,10 @@
       <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="533"/>
-      <c r="B20" s="534"/>
-      <c r="C20" s="534"/>
-      <c r="D20" s="535"/>
+      <c r="A20" s="551"/>
+      <c r="B20" s="552"/>
+      <c r="C20" s="552"/>
+      <c r="D20" s="553"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="30"/>
@@ -13552,10 +13552,10 @@
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="533"/>
-      <c r="B21" s="534"/>
-      <c r="C21" s="534"/>
-      <c r="D21" s="535"/>
+      <c r="A21" s="551"/>
+      <c r="B21" s="552"/>
+      <c r="C21" s="552"/>
+      <c r="D21" s="553"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="30"/>
@@ -13565,10 +13565,10 @@
       <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="533"/>
-      <c r="B22" s="534"/>
-      <c r="C22" s="534"/>
-      <c r="D22" s="535"/>
+      <c r="A22" s="551"/>
+      <c r="B22" s="552"/>
+      <c r="C22" s="552"/>
+      <c r="D22" s="553"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30"/>
@@ -13578,10 +13578,10 @@
       <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="533"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="535"/>
+      <c r="A23" s="551"/>
+      <c r="B23" s="552"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="553"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="30"/>
@@ -13591,10 +13591,10 @@
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="533"/>
-      <c r="B24" s="534"/>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
+      <c r="A24" s="551"/>
+      <c r="B24" s="552"/>
+      <c r="C24" s="552"/>
+      <c r="D24" s="553"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="30"/>
@@ -13604,10 +13604,10 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="533"/>
-      <c r="B25" s="534"/>
-      <c r="C25" s="534"/>
-      <c r="D25" s="535"/>
+      <c r="A25" s="551"/>
+      <c r="B25" s="552"/>
+      <c r="C25" s="552"/>
+      <c r="D25" s="553"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30"/>
@@ -13617,43 +13617,43 @@
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="539"/>
-      <c r="B26" s="540"/>
-      <c r="C26" s="540"/>
-      <c r="D26" s="541"/>
+      <c r="A26" s="548"/>
+      <c r="B26" s="549"/>
+      <c r="C26" s="549"/>
+      <c r="D26" s="550"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
-      <c r="K26" s="538"/>
+      <c r="I26" s="554"/>
+      <c r="J26" s="555"/>
+      <c r="K26" s="556"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="539"/>
-      <c r="B27" s="540"/>
-      <c r="C27" s="540"/>
-      <c r="D27" s="541"/>
+      <c r="A27" s="548"/>
+      <c r="B27" s="549"/>
+      <c r="C27" s="549"/>
+      <c r="D27" s="550"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="30"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="536"/>
-      <c r="J27" s="537"/>
-      <c r="K27" s="538"/>
+      <c r="I27" s="554"/>
+      <c r="J27" s="555"/>
+      <c r="K27" s="556"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="539"/>
-      <c r="B28" s="540"/>
-      <c r="C28" s="540"/>
-      <c r="D28" s="541"/>
+      <c r="A28" s="548"/>
+      <c r="B28" s="549"/>
+      <c r="C28" s="549"/>
+      <c r="D28" s="550"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="30"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
-      <c r="K28" s="538"/>
+      <c r="I28" s="554"/>
+      <c r="J28" s="555"/>
+      <c r="K28" s="556"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="193"/>
@@ -13734,86 +13734,86 @@
       <c r="K34" s="33"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="539"/>
-      <c r="B35" s="540"/>
-      <c r="C35" s="540"/>
-      <c r="D35" s="541"/>
+      <c r="A35" s="548"/>
+      <c r="B35" s="549"/>
+      <c r="C35" s="549"/>
+      <c r="D35" s="550"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="30"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="536"/>
-      <c r="J35" s="537"/>
-      <c r="K35" s="538"/>
+      <c r="I35" s="554"/>
+      <c r="J35" s="555"/>
+      <c r="K35" s="556"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="539"/>
-      <c r="B36" s="540"/>
-      <c r="C36" s="540"/>
-      <c r="D36" s="541"/>
+      <c r="A36" s="548"/>
+      <c r="B36" s="549"/>
+      <c r="C36" s="549"/>
+      <c r="D36" s="550"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="30"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
-      <c r="K36" s="538"/>
+      <c r="I36" s="554"/>
+      <c r="J36" s="555"/>
+      <c r="K36" s="556"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="539"/>
-      <c r="B37" s="540"/>
-      <c r="C37" s="540"/>
-      <c r="D37" s="541"/>
+      <c r="A37" s="548"/>
+      <c r="B37" s="549"/>
+      <c r="C37" s="549"/>
+      <c r="D37" s="550"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="30"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="536"/>
-      <c r="J37" s="537"/>
-      <c r="K37" s="538"/>
+      <c r="I37" s="554"/>
+      <c r="J37" s="555"/>
+      <c r="K37" s="556"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="542"/>
-      <c r="B38" s="543"/>
-      <c r="C38" s="543"/>
-      <c r="D38" s="544"/>
+      <c r="A38" s="591"/>
+      <c r="B38" s="592"/>
+      <c r="C38" s="592"/>
+      <c r="D38" s="593"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="545"/>
-      <c r="J38" s="546"/>
-      <c r="K38" s="547"/>
+      <c r="I38" s="594"/>
+      <c r="J38" s="595"/>
+      <c r="K38" s="596"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="450" t="s">
+      <c r="A39" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="451"/>
-      <c r="C39" s="451"/>
-      <c r="D39" s="451"/>
-      <c r="E39" s="451"/>
-      <c r="F39" s="451"/>
-      <c r="G39" s="451"/>
-      <c r="H39" s="451"/>
-      <c r="I39" s="451"/>
-      <c r="J39" s="451"/>
-      <c r="K39" s="452"/>
+      <c r="B39" s="279"/>
+      <c r="C39" s="279"/>
+      <c r="D39" s="279"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
+      <c r="K39" s="280"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="583" t="s">
+      <c r="A40" s="557" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="584"/>
-      <c r="C40" s="584"/>
-      <c r="D40" s="584"/>
-      <c r="E40" s="584"/>
-      <c r="F40" s="584"/>
-      <c r="G40" s="584"/>
-      <c r="H40" s="584"/>
-      <c r="I40" s="584"/>
-      <c r="J40" s="584"/>
-      <c r="K40" s="585"/>
+      <c r="B40" s="558"/>
+      <c r="C40" s="558"/>
+      <c r="D40" s="558"/>
+      <c r="E40" s="558"/>
+      <c r="F40" s="558"/>
+      <c r="G40" s="558"/>
+      <c r="H40" s="558"/>
+      <c r="I40" s="558"/>
+      <c r="J40" s="558"/>
+      <c r="K40" s="559"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
@@ -13825,143 +13825,143 @@
       <c r="C41" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="587" t="s">
+      <c r="D41" s="538" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="587"/>
-      <c r="F41" s="587"/>
-      <c r="G41" s="587"/>
-      <c r="H41" s="588"/>
+      <c r="E41" s="538"/>
+      <c r="F41" s="538"/>
+      <c r="G41" s="538"/>
+      <c r="H41" s="539"/>
       <c r="I41" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="587" t="s">
+      <c r="J41" s="538" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="590"/>
+      <c r="K41" s="540"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="579"/>
-      <c r="B42" s="580"/>
-      <c r="C42" s="581"/>
-      <c r="D42" s="582"/>
-      <c r="E42" s="582"/>
-      <c r="F42" s="582"/>
-      <c r="G42" s="582"/>
-      <c r="H42" s="580"/>
-      <c r="I42" s="581"/>
-      <c r="J42" s="582"/>
-      <c r="K42" s="589"/>
+      <c r="A42" s="533"/>
+      <c r="B42" s="534"/>
+      <c r="C42" s="535"/>
+      <c r="D42" s="536"/>
+      <c r="E42" s="536"/>
+      <c r="F42" s="536"/>
+      <c r="G42" s="536"/>
+      <c r="H42" s="534"/>
+      <c r="I42" s="535"/>
+      <c r="J42" s="536"/>
+      <c r="K42" s="537"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="579"/>
-      <c r="B43" s="580"/>
-      <c r="C43" s="581"/>
-      <c r="D43" s="582"/>
-      <c r="E43" s="582"/>
-      <c r="F43" s="582"/>
-      <c r="G43" s="582"/>
-      <c r="H43" s="580"/>
-      <c r="I43" s="581"/>
-      <c r="J43" s="582"/>
-      <c r="K43" s="589"/>
+      <c r="A43" s="533"/>
+      <c r="B43" s="534"/>
+      <c r="C43" s="535"/>
+      <c r="D43" s="536"/>
+      <c r="E43" s="536"/>
+      <c r="F43" s="536"/>
+      <c r="G43" s="536"/>
+      <c r="H43" s="534"/>
+      <c r="I43" s="535"/>
+      <c r="J43" s="536"/>
+      <c r="K43" s="537"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="579"/>
-      <c r="B44" s="580"/>
-      <c r="C44" s="581"/>
-      <c r="D44" s="582"/>
-      <c r="E44" s="582"/>
-      <c r="F44" s="582"/>
-      <c r="G44" s="582"/>
-      <c r="H44" s="580"/>
-      <c r="I44" s="581"/>
-      <c r="J44" s="582"/>
-      <c r="K44" s="589"/>
+      <c r="A44" s="533"/>
+      <c r="B44" s="534"/>
+      <c r="C44" s="535"/>
+      <c r="D44" s="536"/>
+      <c r="E44" s="536"/>
+      <c r="F44" s="536"/>
+      <c r="G44" s="536"/>
+      <c r="H44" s="534"/>
+      <c r="I44" s="535"/>
+      <c r="J44" s="536"/>
+      <c r="K44" s="537"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="579"/>
-      <c r="B45" s="580"/>
-      <c r="C45" s="581"/>
-      <c r="D45" s="582"/>
-      <c r="E45" s="582"/>
-      <c r="F45" s="582"/>
-      <c r="G45" s="582"/>
-      <c r="H45" s="580"/>
-      <c r="I45" s="581"/>
-      <c r="J45" s="582"/>
-      <c r="K45" s="589"/>
+      <c r="A45" s="533"/>
+      <c r="B45" s="534"/>
+      <c r="C45" s="535"/>
+      <c r="D45" s="536"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="536"/>
+      <c r="G45" s="536"/>
+      <c r="H45" s="534"/>
+      <c r="I45" s="535"/>
+      <c r="J45" s="536"/>
+      <c r="K45" s="537"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="579"/>
-      <c r="B46" s="580"/>
-      <c r="C46" s="581"/>
-      <c r="D46" s="582"/>
-      <c r="E46" s="582"/>
-      <c r="F46" s="582"/>
-      <c r="G46" s="582"/>
-      <c r="H46" s="580"/>
-      <c r="I46" s="581"/>
-      <c r="J46" s="582"/>
-      <c r="K46" s="589"/>
+      <c r="A46" s="533"/>
+      <c r="B46" s="534"/>
+      <c r="C46" s="535"/>
+      <c r="D46" s="536"/>
+      <c r="E46" s="536"/>
+      <c r="F46" s="536"/>
+      <c r="G46" s="536"/>
+      <c r="H46" s="534"/>
+      <c r="I46" s="535"/>
+      <c r="J46" s="536"/>
+      <c r="K46" s="537"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="579"/>
-      <c r="B47" s="580"/>
-      <c r="C47" s="581"/>
-      <c r="D47" s="582"/>
-      <c r="E47" s="582"/>
-      <c r="F47" s="582"/>
-      <c r="G47" s="582"/>
-      <c r="H47" s="580"/>
-      <c r="I47" s="581"/>
-      <c r="J47" s="582"/>
-      <c r="K47" s="589"/>
+      <c r="A47" s="533"/>
+      <c r="B47" s="534"/>
+      <c r="C47" s="535"/>
+      <c r="D47" s="536"/>
+      <c r="E47" s="536"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="536"/>
+      <c r="H47" s="534"/>
+      <c r="I47" s="535"/>
+      <c r="J47" s="536"/>
+      <c r="K47" s="537"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="579"/>
-      <c r="B48" s="580"/>
-      <c r="C48" s="581"/>
-      <c r="D48" s="582"/>
-      <c r="E48" s="582"/>
-      <c r="F48" s="582"/>
-      <c r="G48" s="582"/>
-      <c r="H48" s="580"/>
-      <c r="I48" s="581"/>
-      <c r="J48" s="582"/>
-      <c r="K48" s="589"/>
+      <c r="A48" s="533"/>
+      <c r="B48" s="534"/>
+      <c r="C48" s="535"/>
+      <c r="D48" s="536"/>
+      <c r="E48" s="536"/>
+      <c r="F48" s="536"/>
+      <c r="G48" s="536"/>
+      <c r="H48" s="534"/>
+      <c r="I48" s="535"/>
+      <c r="J48" s="536"/>
+      <c r="K48" s="537"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="450" t="s">
+      <c r="A49" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="451"/>
-      <c r="C49" s="451"/>
-      <c r="D49" s="451"/>
-      <c r="E49" s="451"/>
-      <c r="F49" s="451"/>
-      <c r="G49" s="451"/>
-      <c r="H49" s="451"/>
-      <c r="I49" s="451"/>
-      <c r="J49" s="451"/>
-      <c r="K49" s="489"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="279"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="279"/>
+      <c r="F49" s="279"/>
+      <c r="G49" s="279"/>
+      <c r="H49" s="279"/>
+      <c r="I49" s="279"/>
+      <c r="J49" s="279"/>
+      <c r="K49" s="518"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="447" t="s">
+      <c r="A50" s="275" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="449"/>
-      <c r="C50" s="503"/>
-      <c r="D50" s="504"/>
-      <c r="E50" s="504"/>
-      <c r="F50" s="505"/>
-      <c r="G50" s="591" t="s">
+      <c r="B50" s="277"/>
+      <c r="C50" s="475"/>
+      <c r="D50" s="476"/>
+      <c r="E50" s="476"/>
+      <c r="F50" s="477"/>
+      <c r="G50" s="531" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="592"/>
-      <c r="I50" s="503"/>
-      <c r="J50" s="504"/>
-      <c r="K50" s="505"/>
+      <c r="H50" s="532"/>
+      <c r="I50" s="475"/>
+      <c r="J50" s="476"/>
+      <c r="K50" s="477"/>
       <c r="L50" s="238"/>
       <c r="M50" s="238"/>
     </row>
@@ -13982,6 +13982,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="I50:K50"/>
@@ -13998,73 +14065,6 @@
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14081,7 +14081,7 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G47" sqref="G47:L47"/>
     </sheetView>
   </sheetViews>
@@ -14102,35 +14102,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="599"/>
-      <c r="B1" s="600"/>
-      <c r="C1" s="600"/>
-      <c r="D1" s="600"/>
-      <c r="E1" s="600"/>
-      <c r="F1" s="600"/>
-      <c r="G1" s="600"/>
-      <c r="H1" s="600"/>
-      <c r="I1" s="600"/>
-      <c r="J1" s="600"/>
-      <c r="K1" s="600"/>
-      <c r="L1" s="600"/>
-      <c r="M1" s="601"/>
+      <c r="A1" s="729"/>
+      <c r="B1" s="730"/>
+      <c r="C1" s="730"/>
+      <c r="D1" s="730"/>
+      <c r="E1" s="730"/>
+      <c r="F1" s="730"/>
+      <c r="G1" s="730"/>
+      <c r="H1" s="730"/>
+      <c r="I1" s="730"/>
+      <c r="J1" s="730"/>
+      <c r="K1" s="730"/>
+      <c r="L1" s="730"/>
+      <c r="M1" s="731"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="623" t="s">
+      <c r="A2" s="705" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="624"/>
-      <c r="C2" s="604" t="s">
+      <c r="B2" s="706"/>
+      <c r="C2" s="734" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="604"/>
-      <c r="E2" s="604"/>
-      <c r="F2" s="605"/>
+      <c r="D2" s="734"/>
+      <c r="E2" s="734"/>
+      <c r="F2" s="735"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
-      <c r="I2" s="602"/>
-      <c r="J2" s="602"/>
+      <c r="I2" s="732"/>
+      <c r="J2" s="732"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
       <c r="M2" s="41"/>
@@ -14138,16 +14138,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="608" t="s">
+      <c r="C3" s="721" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="608"/>
-      <c r="E3" s="608"/>
-      <c r="F3" s="609"/>
+      <c r="D3" s="721"/>
+      <c r="E3" s="721"/>
+      <c r="F3" s="722"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
-      <c r="I3" s="603"/>
-      <c r="J3" s="603"/>
+      <c r="I3" s="733"/>
+      <c r="J3" s="733"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
@@ -14155,45 +14155,45 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="608" t="s">
+      <c r="C4" s="721" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="608"/>
-      <c r="E4" s="608"/>
-      <c r="F4" s="609"/>
+      <c r="D4" s="721"/>
+      <c r="E4" s="721"/>
+      <c r="F4" s="722"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="43"/>
-      <c r="C5" s="608"/>
-      <c r="D5" s="608"/>
-      <c r="E5" s="608"/>
-      <c r="F5" s="609"/>
-      <c r="G5" s="597"/>
-      <c r="H5" s="597"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="597"/>
-      <c r="K5" s="597"/>
-      <c r="L5" s="597"/>
+      <c r="C5" s="721"/>
+      <c r="D5" s="721"/>
+      <c r="E5" s="721"/>
+      <c r="F5" s="722"/>
+      <c r="G5" s="634"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="634"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="608" t="s">
+      <c r="C6" s="721" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="608"/>
-      <c r="E6" s="608"/>
-      <c r="F6" s="609"/>
-      <c r="G6" s="725"/>
-      <c r="H6" s="726"/>
-      <c r="I6" s="726"/>
-      <c r="J6" s="726"/>
-      <c r="K6" s="726"/>
-      <c r="L6" s="726"/>
-      <c r="M6" s="727"/>
+      <c r="D6" s="721"/>
+      <c r="E6" s="721"/>
+      <c r="F6" s="722"/>
+      <c r="G6" s="726"/>
+      <c r="H6" s="727"/>
+      <c r="I6" s="727"/>
+      <c r="J6" s="727"/>
+      <c r="K6" s="727"/>
+      <c r="L6" s="727"/>
+      <c r="M6" s="728"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
@@ -14202,30 +14202,30 @@
       <c r="D7" s="183"/>
       <c r="E7" s="183"/>
       <c r="F7" s="184"/>
-      <c r="G7" s="728"/>
-      <c r="H7" s="728"/>
-      <c r="I7" s="729"/>
-      <c r="J7" s="729"/>
-      <c r="K7" s="729"/>
-      <c r="L7" s="729"/>
-      <c r="M7" s="730"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="269"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="608" t="s">
+      <c r="C8" s="721" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="608"/>
-      <c r="E8" s="608"/>
-      <c r="F8" s="609"/>
-      <c r="G8" s="731"/>
-      <c r="H8" s="732"/>
-      <c r="I8" s="732"/>
-      <c r="J8" s="732"/>
-      <c r="K8" s="732"/>
-      <c r="L8" s="732"/>
-      <c r="M8" s="733"/>
+      <c r="D8" s="721"/>
+      <c r="E8" s="721"/>
+      <c r="F8" s="722"/>
+      <c r="G8" s="600"/>
+      <c r="H8" s="601"/>
+      <c r="I8" s="601"/>
+      <c r="J8" s="601"/>
+      <c r="K8" s="601"/>
+      <c r="L8" s="601"/>
+      <c r="M8" s="602"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
@@ -14239,114 +14239,114 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="608"/>
-      <c r="D10" s="608"/>
-      <c r="E10" s="608"/>
-      <c r="F10" s="609"/>
-      <c r="G10" s="597" t="s">
+      <c r="C10" s="721"/>
+      <c r="D10" s="721"/>
+      <c r="E10" s="721"/>
+      <c r="F10" s="722"/>
+      <c r="G10" s="634" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="597"/>
-      <c r="I10" s="597"/>
-      <c r="J10" s="597"/>
-      <c r="K10" s="597"/>
-      <c r="L10" s="597"/>
+      <c r="H10" s="634"/>
+      <c r="I10" s="634"/>
+      <c r="J10" s="634"/>
+      <c r="K10" s="634"/>
+      <c r="L10" s="634"/>
       <c r="M10" s="94"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="608"/>
-      <c r="D11" s="608"/>
-      <c r="E11" s="608"/>
-      <c r="F11" s="609"/>
+      <c r="C11" s="721"/>
+      <c r="D11" s="721"/>
+      <c r="E11" s="721"/>
+      <c r="F11" s="722"/>
       <c r="G11" s="150"/>
-      <c r="H11" s="734"/>
-      <c r="I11" s="734"/>
-      <c r="J11" s="734"/>
-      <c r="K11" s="734"/>
-      <c r="L11" s="734"/>
+      <c r="H11" s="606"/>
+      <c r="I11" s="606"/>
+      <c r="J11" s="606"/>
+      <c r="K11" s="606"/>
+      <c r="L11" s="606"/>
       <c r="M11" s="94"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="625"/>
-      <c r="D12" s="625"/>
-      <c r="E12" s="625"/>
-      <c r="F12" s="626"/>
+      <c r="C12" s="723"/>
+      <c r="D12" s="723"/>
+      <c r="E12" s="723"/>
+      <c r="F12" s="724"/>
       <c r="G12" s="151"/>
       <c r="H12" s="151"/>
-      <c r="I12" s="627"/>
-      <c r="J12" s="627"/>
-      <c r="K12" s="627"/>
-      <c r="L12" s="627"/>
+      <c r="I12" s="725"/>
+      <c r="J12" s="725"/>
+      <c r="K12" s="725"/>
+      <c r="L12" s="725"/>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="593" t="s">
+      <c r="A13" s="746" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="594"/>
-      <c r="C13" s="595" t="s">
+      <c r="B13" s="747"/>
+      <c r="C13" s="742" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="595"/>
-      <c r="E13" s="552"/>
-      <c r="F13" s="553"/>
-      <c r="G13" s="735"/>
-      <c r="H13" s="736"/>
-      <c r="I13" s="736"/>
-      <c r="J13" s="736"/>
-      <c r="K13" s="736"/>
-      <c r="L13" s="736"/>
-      <c r="M13" s="737"/>
+      <c r="D13" s="742"/>
+      <c r="E13" s="563"/>
+      <c r="F13" s="564"/>
+      <c r="G13" s="597"/>
+      <c r="H13" s="598"/>
+      <c r="I13" s="598"/>
+      <c r="J13" s="598"/>
+      <c r="K13" s="598"/>
+      <c r="L13" s="598"/>
+      <c r="M13" s="681"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
-      <c r="C14" s="595"/>
-      <c r="D14" s="595"/>
-      <c r="E14" s="552"/>
-      <c r="F14" s="553"/>
-      <c r="G14" s="596" t="s">
+      <c r="C14" s="742"/>
+      <c r="D14" s="742"/>
+      <c r="E14" s="563"/>
+      <c r="F14" s="564"/>
+      <c r="G14" s="633" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="597"/>
-      <c r="I14" s="597"/>
-      <c r="J14" s="597"/>
-      <c r="K14" s="597"/>
-      <c r="L14" s="597"/>
+      <c r="H14" s="634"/>
+      <c r="I14" s="634"/>
+      <c r="J14" s="634"/>
+      <c r="K14" s="634"/>
+      <c r="L14" s="634"/>
       <c r="M14" s="131"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65"/>
       <c r="B15" s="66"/>
-      <c r="C15" s="595"/>
-      <c r="D15" s="595"/>
-      <c r="E15" s="552"/>
-      <c r="F15" s="553"/>
+      <c r="C15" s="742"/>
+      <c r="D15" s="742"/>
+      <c r="E15" s="563"/>
+      <c r="F15" s="564"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="738"/>
-      <c r="I15" s="738"/>
-      <c r="J15" s="738"/>
-      <c r="K15" s="738"/>
-      <c r="L15" s="738"/>
+      <c r="H15" s="748"/>
+      <c r="I15" s="748"/>
+      <c r="J15" s="748"/>
+      <c r="K15" s="748"/>
+      <c r="L15" s="748"/>
       <c r="M15" s="131"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="552"/>
-      <c r="D16" s="552"/>
-      <c r="E16" s="552"/>
-      <c r="F16" s="553"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="563"/>
+      <c r="F16" s="564"/>
       <c r="G16" s="128"/>
       <c r="H16" s="243"/>
-      <c r="I16" s="598"/>
-      <c r="J16" s="598"/>
-      <c r="K16" s="598"/>
-      <c r="L16" s="598"/>
+      <c r="I16" s="739"/>
+      <c r="J16" s="739"/>
+      <c r="K16" s="739"/>
+      <c r="L16" s="739"/>
       <c r="M16" s="129"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14367,211 +14367,211 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="719" t="s">
+      <c r="C18" s="636" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="719"/>
-      <c r="E18" s="720"/>
-      <c r="F18" s="721"/>
-      <c r="G18" s="740"/>
-      <c r="H18" s="741"/>
-      <c r="I18" s="741"/>
-      <c r="J18" s="741"/>
-      <c r="K18" s="741"/>
-      <c r="L18" s="741"/>
-      <c r="M18" s="742"/>
+      <c r="D18" s="636"/>
+      <c r="E18" s="637"/>
+      <c r="F18" s="638"/>
+      <c r="G18" s="603"/>
+      <c r="H18" s="604"/>
+      <c r="I18" s="604"/>
+      <c r="J18" s="604"/>
+      <c r="K18" s="604"/>
+      <c r="L18" s="604"/>
+      <c r="M18" s="605"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="719"/>
-      <c r="D19" s="719"/>
-      <c r="E19" s="720"/>
-      <c r="F19" s="721"/>
-      <c r="G19" s="596" t="s">
+      <c r="C19" s="636"/>
+      <c r="D19" s="636"/>
+      <c r="E19" s="637"/>
+      <c r="F19" s="638"/>
+      <c r="G19" s="633" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="597"/>
-      <c r="I19" s="597"/>
-      <c r="J19" s="597"/>
-      <c r="K19" s="597"/>
-      <c r="L19" s="597"/>
+      <c r="H19" s="634"/>
+      <c r="I19" s="634"/>
+      <c r="J19" s="634"/>
+      <c r="K19" s="634"/>
+      <c r="L19" s="634"/>
       <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="719"/>
-      <c r="D20" s="719"/>
-      <c r="E20" s="720"/>
-      <c r="F20" s="721"/>
+      <c r="C20" s="636"/>
+      <c r="D20" s="636"/>
+      <c r="E20" s="637"/>
+      <c r="F20" s="638"/>
       <c r="G20" s="59"/>
-      <c r="H20" s="697" t="s">
+      <c r="H20" s="609" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="697"/>
+      <c r="I20" s="609"/>
       <c r="J20" s="252"/>
-      <c r="K20" s="734"/>
-      <c r="L20" s="734"/>
+      <c r="K20" s="606"/>
+      <c r="L20" s="606"/>
       <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="719"/>
-      <c r="D21" s="719"/>
-      <c r="E21" s="720"/>
-      <c r="F21" s="721"/>
-      <c r="G21" s="698" t="s">
+      <c r="C21" s="636"/>
+      <c r="D21" s="636"/>
+      <c r="E21" s="637"/>
+      <c r="F21" s="638"/>
+      <c r="G21" s="610" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="699"/>
-      <c r="I21" s="699"/>
+      <c r="H21" s="611"/>
+      <c r="I21" s="611"/>
       <c r="J21" s="252"/>
-      <c r="K21" s="739"/>
-      <c r="L21" s="739"/>
+      <c r="K21" s="607"/>
+      <c r="L21" s="607"/>
       <c r="M21" s="60"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="722"/>
-      <c r="D22" s="722"/>
-      <c r="E22" s="722"/>
-      <c r="F22" s="723"/>
+      <c r="C22" s="639"/>
+      <c r="D22" s="639"/>
+      <c r="E22" s="639"/>
+      <c r="F22" s="640"/>
       <c r="G22" s="128" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="243"/>
-      <c r="I22" s="724"/>
-      <c r="J22" s="724"/>
-      <c r="K22" s="724"/>
+      <c r="I22" s="641"/>
+      <c r="J22" s="641"/>
+      <c r="K22" s="641"/>
       <c r="L22" s="133"/>
       <c r="M22" s="129"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="628" t="s">
+      <c r="A23" s="629" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="629"/>
-      <c r="C23" s="619" t="s">
+      <c r="B23" s="630"/>
+      <c r="C23" s="642" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="619"/>
-      <c r="E23" s="619"/>
-      <c r="F23" s="620"/>
-      <c r="G23" s="735"/>
-      <c r="H23" s="736"/>
-      <c r="I23" s="736"/>
-      <c r="J23" s="736"/>
-      <c r="K23" s="736"/>
-      <c r="L23" s="736"/>
+      <c r="D23" s="642"/>
+      <c r="E23" s="642"/>
+      <c r="F23" s="643"/>
+      <c r="G23" s="597"/>
+      <c r="H23" s="598"/>
+      <c r="I23" s="598"/>
+      <c r="J23" s="598"/>
+      <c r="K23" s="598"/>
+      <c r="L23" s="598"/>
       <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="611"/>
-      <c r="D24" s="611"/>
-      <c r="E24" s="611"/>
-      <c r="F24" s="610"/>
-      <c r="G24" s="596" t="s">
+      <c r="C24" s="644"/>
+      <c r="D24" s="644"/>
+      <c r="E24" s="644"/>
+      <c r="F24" s="645"/>
+      <c r="G24" s="633" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="597"/>
-      <c r="I24" s="597"/>
-      <c r="J24" s="597"/>
-      <c r="K24" s="597"/>
-      <c r="L24" s="597"/>
+      <c r="H24" s="634"/>
+      <c r="I24" s="634"/>
+      <c r="J24" s="634"/>
+      <c r="K24" s="634"/>
+      <c r="L24" s="634"/>
       <c r="M24" s="127"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="611"/>
-      <c r="D25" s="611"/>
-      <c r="E25" s="611"/>
-      <c r="F25" s="610"/>
+      <c r="C25" s="644"/>
+      <c r="D25" s="644"/>
+      <c r="E25" s="644"/>
+      <c r="F25" s="645"/>
       <c r="G25" s="126"/>
-      <c r="H25" s="743"/>
-      <c r="I25" s="743"/>
-      <c r="J25" s="743"/>
-      <c r="K25" s="743"/>
-      <c r="L25" s="743"/>
+      <c r="H25" s="608"/>
+      <c r="I25" s="608"/>
+      <c r="J25" s="608"/>
+      <c r="K25" s="608"/>
+      <c r="L25" s="608"/>
       <c r="M25" s="127"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63"/>
       <c r="B26" s="64"/>
-      <c r="C26" s="621"/>
-      <c r="D26" s="621"/>
-      <c r="E26" s="621"/>
-      <c r="F26" s="622"/>
+      <c r="C26" s="646"/>
+      <c r="D26" s="646"/>
+      <c r="E26" s="646"/>
+      <c r="F26" s="647"/>
       <c r="G26" s="128"/>
       <c r="H26" s="243"/>
-      <c r="I26" s="598"/>
-      <c r="J26" s="598"/>
-      <c r="K26" s="598"/>
-      <c r="L26" s="598"/>
+      <c r="I26" s="739"/>
+      <c r="J26" s="739"/>
+      <c r="K26" s="739"/>
+      <c r="L26" s="739"/>
       <c r="M26" s="129"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="628" t="s">
+      <c r="A27" s="629" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="629"/>
-      <c r="C27" s="619" t="s">
+      <c r="B27" s="630"/>
+      <c r="C27" s="642" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="619"/>
-      <c r="E27" s="619"/>
-      <c r="F27" s="620"/>
-      <c r="G27" s="735"/>
-      <c r="H27" s="736"/>
-      <c r="I27" s="736"/>
-      <c r="J27" s="736"/>
-      <c r="K27" s="736"/>
-      <c r="L27" s="736"/>
-      <c r="M27" s="737"/>
+      <c r="D27" s="642"/>
+      <c r="E27" s="642"/>
+      <c r="F27" s="643"/>
+      <c r="G27" s="597"/>
+      <c r="H27" s="598"/>
+      <c r="I27" s="598"/>
+      <c r="J27" s="598"/>
+      <c r="K27" s="598"/>
+      <c r="L27" s="598"/>
+      <c r="M27" s="681"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="611"/>
-      <c r="D28" s="611"/>
-      <c r="E28" s="611"/>
-      <c r="F28" s="610"/>
-      <c r="G28" s="596" t="s">
+      <c r="C28" s="644"/>
+      <c r="D28" s="644"/>
+      <c r="E28" s="644"/>
+      <c r="F28" s="645"/>
+      <c r="G28" s="633" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="597"/>
-      <c r="I28" s="597"/>
-      <c r="J28" s="597"/>
-      <c r="K28" s="597"/>
-      <c r="L28" s="597"/>
+      <c r="H28" s="634"/>
+      <c r="I28" s="634"/>
+      <c r="J28" s="634"/>
+      <c r="K28" s="634"/>
+      <c r="L28" s="634"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="611"/>
-      <c r="D29" s="611"/>
-      <c r="E29" s="611"/>
-      <c r="F29" s="610"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
-      <c r="K29" s="433"/>
-      <c r="L29" s="433"/>
+      <c r="C29" s="644"/>
+      <c r="D29" s="644"/>
+      <c r="E29" s="644"/>
+      <c r="F29" s="645"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="330"/>
+      <c r="L29" s="330"/>
       <c r="M29" s="127"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="621"/>
-      <c r="D30" s="621"/>
-      <c r="E30" s="621"/>
-      <c r="F30" s="622"/>
+      <c r="C30" s="646"/>
+      <c r="D30" s="646"/>
+      <c r="E30" s="646"/>
+      <c r="F30" s="647"/>
       <c r="G30" s="147"/>
       <c r="H30" s="244"/>
       <c r="I30" s="181"/>
@@ -14581,39 +14581,39 @@
       <c r="M30" s="129"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="628" t="s">
+      <c r="A31" s="629" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="629"/>
-      <c r="C31" s="619" t="s">
+      <c r="B31" s="630"/>
+      <c r="C31" s="642" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="619"/>
-      <c r="E31" s="619"/>
-      <c r="F31" s="620"/>
-      <c r="G31" s="735"/>
-      <c r="H31" s="736"/>
-      <c r="I31" s="736"/>
-      <c r="J31" s="736"/>
-      <c r="K31" s="736"/>
-      <c r="L31" s="736"/>
-      <c r="M31" s="737"/>
+      <c r="D31" s="642"/>
+      <c r="E31" s="642"/>
+      <c r="F31" s="643"/>
+      <c r="G31" s="597"/>
+      <c r="H31" s="598"/>
+      <c r="I31" s="598"/>
+      <c r="J31" s="598"/>
+      <c r="K31" s="598"/>
+      <c r="L31" s="598"/>
+      <c r="M31" s="681"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="611"/>
-      <c r="D32" s="611"/>
-      <c r="E32" s="611"/>
-      <c r="F32" s="610"/>
-      <c r="G32" s="664" t="s">
+      <c r="C32" s="644"/>
+      <c r="D32" s="644"/>
+      <c r="E32" s="644"/>
+      <c r="F32" s="645"/>
+      <c r="G32" s="679" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="665"/>
-      <c r="I32" s="665"/>
-      <c r="J32" s="665"/>
-      <c r="K32" s="630"/>
-      <c r="L32" s="630"/>
+      <c r="H32" s="680"/>
+      <c r="I32" s="680"/>
+      <c r="J32" s="680"/>
+      <c r="K32" s="678"/>
+      <c r="L32" s="678"/>
       <c r="M32" s="127"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14634,44 +14634,44 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="53"/>
-      <c r="C34" s="611" t="s">
+      <c r="C34" s="644" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="611"/>
-      <c r="E34" s="611"/>
-      <c r="F34" s="610"/>
-      <c r="G34" s="744"/>
-      <c r="H34" s="745"/>
-      <c r="I34" s="745"/>
-      <c r="J34" s="745"/>
-      <c r="K34" s="745"/>
-      <c r="L34" s="745"/>
-      <c r="M34" s="746"/>
+      <c r="D34" s="644"/>
+      <c r="E34" s="644"/>
+      <c r="F34" s="645"/>
+      <c r="G34" s="682"/>
+      <c r="H34" s="683"/>
+      <c r="I34" s="683"/>
+      <c r="J34" s="683"/>
+      <c r="K34" s="683"/>
+      <c r="L34" s="683"/>
+      <c r="M34" s="684"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="53"/>
-      <c r="C35" s="611"/>
-      <c r="D35" s="611"/>
-      <c r="E35" s="611"/>
-      <c r="F35" s="610"/>
-      <c r="G35" s="664" t="s">
+      <c r="C35" s="644"/>
+      <c r="D35" s="644"/>
+      <c r="E35" s="644"/>
+      <c r="F35" s="645"/>
+      <c r="G35" s="679" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="665"/>
-      <c r="I35" s="665"/>
-      <c r="J35" s="665"/>
-      <c r="K35" s="630"/>
-      <c r="L35" s="630"/>
+      <c r="H35" s="680"/>
+      <c r="I35" s="680"/>
+      <c r="J35" s="680"/>
+      <c r="K35" s="678"/>
+      <c r="L35" s="678"/>
       <c r="M35" s="127"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="64"/>
-      <c r="C36" s="621"/>
-      <c r="D36" s="621"/>
-      <c r="E36" s="621"/>
-      <c r="F36" s="622"/>
+      <c r="C36" s="646"/>
+      <c r="D36" s="646"/>
+      <c r="E36" s="646"/>
+      <c r="F36" s="647"/>
       <c r="G36" s="130"/>
       <c r="H36" s="74"/>
       <c r="I36" s="121"/>
@@ -14680,82 +14680,82 @@
       <c r="M36" s="129"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="628" t="s">
+      <c r="A37" s="629" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="629"/>
-      <c r="C37" s="614" t="s">
+      <c r="B37" s="630"/>
+      <c r="C37" s="740" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="614"/>
-      <c r="E37" s="614"/>
-      <c r="F37" s="615"/>
-      <c r="G37" s="735"/>
-      <c r="H37" s="736"/>
-      <c r="I37" s="736"/>
-      <c r="J37" s="736"/>
-      <c r="K37" s="736"/>
-      <c r="L37" s="736"/>
+      <c r="D37" s="740"/>
+      <c r="E37" s="740"/>
+      <c r="F37" s="741"/>
+      <c r="G37" s="597"/>
+      <c r="H37" s="598"/>
+      <c r="I37" s="598"/>
+      <c r="J37" s="598"/>
+      <c r="K37" s="598"/>
+      <c r="L37" s="598"/>
       <c r="M37" s="51"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="53"/>
-      <c r="C38" s="595"/>
-      <c r="D38" s="595"/>
-      <c r="E38" s="595"/>
-      <c r="F38" s="616"/>
-      <c r="G38" s="596" t="s">
+      <c r="C38" s="742"/>
+      <c r="D38" s="742"/>
+      <c r="E38" s="742"/>
+      <c r="F38" s="743"/>
+      <c r="G38" s="633" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="597"/>
-      <c r="I38" s="597"/>
-      <c r="J38" s="597"/>
-      <c r="K38" s="597"/>
-      <c r="L38" s="597"/>
-      <c r="M38" s="718"/>
+      <c r="H38" s="634"/>
+      <c r="I38" s="634"/>
+      <c r="J38" s="634"/>
+      <c r="K38" s="634"/>
+      <c r="L38" s="634"/>
+      <c r="M38" s="635"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="53"/>
-      <c r="C39" s="595"/>
-      <c r="D39" s="595"/>
-      <c r="E39" s="595"/>
-      <c r="F39" s="616"/>
+      <c r="C39" s="742"/>
+      <c r="D39" s="742"/>
+      <c r="E39" s="742"/>
+      <c r="F39" s="743"/>
       <c r="G39" s="126"/>
-      <c r="H39" s="747"/>
-      <c r="I39" s="747"/>
-      <c r="J39" s="747"/>
-      <c r="K39" s="747"/>
-      <c r="L39" s="747"/>
+      <c r="H39" s="599"/>
+      <c r="I39" s="599"/>
+      <c r="J39" s="599"/>
+      <c r="K39" s="599"/>
+      <c r="L39" s="599"/>
       <c r="M39" s="127"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
       <c r="B40" s="64"/>
-      <c r="C40" s="617"/>
-      <c r="D40" s="617"/>
-      <c r="E40" s="617"/>
-      <c r="F40" s="618"/>
+      <c r="C40" s="744"/>
+      <c r="D40" s="744"/>
+      <c r="E40" s="744"/>
+      <c r="F40" s="745"/>
       <c r="G40" s="128"/>
       <c r="H40" s="243"/>
-      <c r="I40" s="598"/>
-      <c r="J40" s="598"/>
-      <c r="K40" s="598"/>
-      <c r="L40" s="598"/>
+      <c r="I40" s="739"/>
+      <c r="J40" s="739"/>
+      <c r="K40" s="739"/>
+      <c r="L40" s="739"/>
       <c r="M40" s="129"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="612" t="s">
+      <c r="A41" s="737" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="613"/>
-      <c r="C41" s="611" t="s">
+      <c r="B41" s="738"/>
+      <c r="C41" s="644" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="611"/>
-      <c r="E41" s="611"/>
-      <c r="F41" s="610"/>
+      <c r="D41" s="644"/>
+      <c r="E41" s="644"/>
+      <c r="F41" s="645"/>
       <c r="G41" s="50"/>
       <c r="H41" s="50"/>
       <c r="I41" s="69"/>
@@ -14767,10 +14767,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="611"/>
-      <c r="D42" s="611"/>
-      <c r="E42" s="611"/>
-      <c r="F42" s="610"/>
+      <c r="C42" s="644"/>
+      <c r="D42" s="644"/>
+      <c r="E42" s="644"/>
+      <c r="F42" s="645"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
       <c r="I42" s="72"/>
@@ -14784,34 +14784,34 @@
         <v>80</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="611" t="s">
+      <c r="C43" s="644" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="611"/>
-      <c r="E43" s="611"/>
-      <c r="F43" s="610"/>
-      <c r="G43" s="731"/>
-      <c r="H43" s="732"/>
-      <c r="I43" s="732"/>
-      <c r="J43" s="732"/>
-      <c r="K43" s="732"/>
-      <c r="L43" s="732"/>
-      <c r="M43" s="733"/>
+      <c r="D43" s="644"/>
+      <c r="E43" s="644"/>
+      <c r="F43" s="645"/>
+      <c r="G43" s="600"/>
+      <c r="H43" s="601"/>
+      <c r="I43" s="601"/>
+      <c r="J43" s="601"/>
+      <c r="K43" s="601"/>
+      <c r="L43" s="601"/>
+      <c r="M43" s="602"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="611"/>
-      <c r="D44" s="611"/>
-      <c r="E44" s="611"/>
-      <c r="F44" s="610"/>
+      <c r="C44" s="644"/>
+      <c r="D44" s="644"/>
+      <c r="E44" s="644"/>
+      <c r="F44" s="645"/>
       <c r="G44" s="190" t="s">
         <v>327</v>
       </c>
       <c r="H44" s="245"/>
       <c r="I44" s="121"/>
       <c r="J44" s="121"/>
-      <c r="L44" s="748"/>
+      <c r="L44" s="271"/>
       <c r="M44" s="122"/>
       <c r="N44" s="74"/>
     </row>
@@ -14820,27 +14820,27 @@
         <v>81</v>
       </c>
       <c r="B45" s="68"/>
-      <c r="C45" s="610" t="s">
+      <c r="C45" s="645" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="610"/>
-      <c r="E45" s="610"/>
-      <c r="F45" s="610"/>
-      <c r="G45" s="731"/>
-      <c r="H45" s="732"/>
-      <c r="I45" s="732"/>
-      <c r="J45" s="732"/>
-      <c r="K45" s="732"/>
-      <c r="L45" s="732"/>
-      <c r="M45" s="733"/>
+      <c r="D45" s="645"/>
+      <c r="E45" s="645"/>
+      <c r="F45" s="645"/>
+      <c r="G45" s="600"/>
+      <c r="H45" s="601"/>
+      <c r="I45" s="601"/>
+      <c r="J45" s="601"/>
+      <c r="K45" s="601"/>
+      <c r="L45" s="601"/>
+      <c r="M45" s="602"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="67"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="610"/>
-      <c r="D46" s="610"/>
-      <c r="E46" s="610"/>
-      <c r="F46" s="610"/>
+      <c r="C46" s="645"/>
+      <c r="D46" s="645"/>
+      <c r="E46" s="645"/>
+      <c r="F46" s="645"/>
       <c r="G46" s="191" t="s">
         <v>328</v>
       </c>
@@ -14848,7 +14848,7 @@
       <c r="I46" s="121"/>
       <c r="J46" s="121"/>
       <c r="K46" s="121"/>
-      <c r="L46" s="748"/>
+      <c r="L46" s="271"/>
       <c r="M46" s="122"/>
       <c r="N46" s="74"/>
     </row>
@@ -14857,27 +14857,27 @@
         <v>83</v>
       </c>
       <c r="B47" s="68"/>
-      <c r="C47" s="611" t="s">
+      <c r="C47" s="644" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="611"/>
+      <c r="D47" s="644"/>
       <c r="E47" s="118"/>
       <c r="F47" s="119"/>
-      <c r="G47" s="731"/>
-      <c r="H47" s="732"/>
-      <c r="I47" s="732"/>
-      <c r="J47" s="732"/>
-      <c r="K47" s="732"/>
-      <c r="L47" s="732"/>
+      <c r="G47" s="600"/>
+      <c r="H47" s="601"/>
+      <c r="I47" s="601"/>
+      <c r="J47" s="601"/>
+      <c r="K47" s="601"/>
+      <c r="L47" s="601"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="643"/>
-      <c r="B48" s="644"/>
-      <c r="C48" s="644"/>
-      <c r="D48" s="644"/>
-      <c r="E48" s="644"/>
-      <c r="F48" s="645"/>
+      <c r="A48" s="698"/>
+      <c r="B48" s="699"/>
+      <c r="C48" s="699"/>
+      <c r="D48" s="699"/>
+      <c r="E48" s="699"/>
+      <c r="F48" s="700"/>
       <c r="G48" s="192" t="s">
         <v>328</v>
       </c>
@@ -14885,17 +14885,17 @@
       <c r="I48" s="123"/>
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
-      <c r="L48" s="748"/>
+      <c r="L48" s="271"/>
       <c r="M48" s="124"/>
       <c r="N48" s="74"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="646"/>
-      <c r="B49" s="647"/>
-      <c r="C49" s="647"/>
-      <c r="D49" s="647"/>
-      <c r="E49" s="647"/>
-      <c r="F49" s="648"/>
+      <c r="A49" s="701"/>
+      <c r="B49" s="702"/>
+      <c r="C49" s="702"/>
+      <c r="D49" s="702"/>
+      <c r="E49" s="702"/>
+      <c r="F49" s="703"/>
       <c r="G49" s="120"/>
       <c r="H49" s="116"/>
       <c r="I49" s="116"/>
@@ -14906,10 +14906,10 @@
       <c r="N49" s="74"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="716" t="s">
+      <c r="A50" s="631" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="717"/>
+      <c r="B50" s="632"/>
       <c r="C50" s="188" t="s">
         <v>383</v>
       </c>
@@ -14919,127 +14919,127 @@
       <c r="G50" s="188"/>
       <c r="H50" s="188"/>
       <c r="I50" s="189"/>
-      <c r="J50" s="631"/>
-      <c r="K50" s="632"/>
-      <c r="L50" s="632"/>
-      <c r="M50" s="633"/>
+      <c r="J50" s="685"/>
+      <c r="K50" s="686"/>
+      <c r="L50" s="686"/>
+      <c r="M50" s="687"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="640" t="s">
+      <c r="A51" s="695" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="641"/>
-      <c r="C51" s="641"/>
-      <c r="D51" s="641"/>
-      <c r="E51" s="642"/>
+      <c r="B51" s="696"/>
+      <c r="C51" s="696"/>
+      <c r="D51" s="696"/>
+      <c r="E51" s="697"/>
       <c r="F51" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="649" t="s">
+      <c r="G51" s="704" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="587"/>
-      <c r="I51" s="590"/>
-      <c r="J51" s="634"/>
-      <c r="K51" s="635"/>
-      <c r="L51" s="635"/>
-      <c r="M51" s="636"/>
+      <c r="H51" s="538"/>
+      <c r="I51" s="540"/>
+      <c r="J51" s="688"/>
+      <c r="K51" s="689"/>
+      <c r="L51" s="689"/>
+      <c r="M51" s="690"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="657"/>
-      <c r="B52" s="658"/>
-      <c r="C52" s="660"/>
-      <c r="D52" s="660"/>
-      <c r="E52" s="661"/>
+      <c r="A52" s="714"/>
+      <c r="B52" s="715"/>
+      <c r="C52" s="717"/>
+      <c r="D52" s="717"/>
+      <c r="E52" s="718"/>
       <c r="F52" s="75"/>
-      <c r="G52" s="650"/>
-      <c r="H52" s="651"/>
-      <c r="I52" s="652"/>
-      <c r="J52" s="634"/>
-      <c r="K52" s="635"/>
-      <c r="L52" s="635"/>
-      <c r="M52" s="636"/>
+      <c r="G52" s="707"/>
+      <c r="H52" s="708"/>
+      <c r="I52" s="709"/>
+      <c r="J52" s="688"/>
+      <c r="K52" s="689"/>
+      <c r="L52" s="689"/>
+      <c r="M52" s="690"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="657"/>
-      <c r="B53" s="658"/>
-      <c r="C53" s="658"/>
-      <c r="D53" s="658"/>
-      <c r="E53" s="659"/>
+      <c r="A53" s="714"/>
+      <c r="B53" s="715"/>
+      <c r="C53" s="715"/>
+      <c r="D53" s="715"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="75"/>
-      <c r="G53" s="650"/>
-      <c r="H53" s="651"/>
-      <c r="I53" s="652"/>
-      <c r="J53" s="634"/>
-      <c r="K53" s="635"/>
-      <c r="L53" s="635"/>
-      <c r="M53" s="636"/>
+      <c r="G53" s="707"/>
+      <c r="H53" s="708"/>
+      <c r="I53" s="709"/>
+      <c r="J53" s="688"/>
+      <c r="K53" s="689"/>
+      <c r="L53" s="689"/>
+      <c r="M53" s="690"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="653"/>
-      <c r="B54" s="654"/>
-      <c r="C54" s="655"/>
-      <c r="D54" s="655"/>
-      <c r="E54" s="656"/>
+      <c r="A54" s="710"/>
+      <c r="B54" s="711"/>
+      <c r="C54" s="712"/>
+      <c r="D54" s="712"/>
+      <c r="E54" s="713"/>
       <c r="F54" s="199"/>
-      <c r="G54" s="637"/>
-      <c r="H54" s="638"/>
-      <c r="I54" s="639"/>
-      <c r="J54" s="634"/>
-      <c r="K54" s="635"/>
-      <c r="L54" s="635"/>
-      <c r="M54" s="636"/>
+      <c r="G54" s="692"/>
+      <c r="H54" s="693"/>
+      <c r="I54" s="694"/>
+      <c r="J54" s="688"/>
+      <c r="K54" s="689"/>
+      <c r="L54" s="689"/>
+      <c r="M54" s="690"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="623" t="s">
+      <c r="A55" s="705" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="624"/>
-      <c r="C55" s="662" t="s">
+      <c r="B55" s="706"/>
+      <c r="C55" s="719" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="662"/>
-      <c r="E55" s="662"/>
-      <c r="F55" s="662"/>
-      <c r="G55" s="662"/>
-      <c r="H55" s="662"/>
+      <c r="D55" s="719"/>
+      <c r="E55" s="719"/>
+      <c r="F55" s="719"/>
+      <c r="G55" s="719"/>
+      <c r="H55" s="719"/>
       <c r="I55" s="248"/>
-      <c r="J55" s="635"/>
-      <c r="K55" s="635"/>
-      <c r="L55" s="635"/>
-      <c r="M55" s="636"/>
+      <c r="J55" s="689"/>
+      <c r="K55" s="689"/>
+      <c r="L55" s="689"/>
+      <c r="M55" s="690"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76"/>
       <c r="B56" s="77"/>
-      <c r="C56" s="663"/>
-      <c r="D56" s="663"/>
-      <c r="E56" s="663"/>
-      <c r="F56" s="663"/>
-      <c r="G56" s="663"/>
-      <c r="H56" s="663"/>
+      <c r="C56" s="720"/>
+      <c r="D56" s="720"/>
+      <c r="E56" s="720"/>
+      <c r="F56" s="720"/>
+      <c r="G56" s="720"/>
+      <c r="H56" s="720"/>
       <c r="I56" s="249"/>
       <c r="J56" s="198"/>
-      <c r="K56" s="606" t="s">
+      <c r="K56" s="691" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="606"/>
+      <c r="L56" s="691"/>
       <c r="M56" s="179"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="77"/>
-      <c r="C57" s="663"/>
-      <c r="D57" s="663"/>
-      <c r="E57" s="663"/>
-      <c r="F57" s="663"/>
-      <c r="G57" s="663"/>
-      <c r="H57" s="663"/>
+      <c r="C57" s="720"/>
+      <c r="D57" s="720"/>
+      <c r="E57" s="720"/>
+      <c r="F57" s="720"/>
+      <c r="G57" s="720"/>
+      <c r="H57" s="720"/>
       <c r="I57" s="249"/>
-      <c r="J57" s="606"/>
-      <c r="K57" s="606"/>
-      <c r="L57" s="606"/>
-      <c r="M57" s="607"/>
+      <c r="J57" s="691"/>
+      <c r="K57" s="691"/>
+      <c r="L57" s="691"/>
+      <c r="M57" s="736"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="177"/>
@@ -15051,8 +15051,8 @@
       <c r="G58" s="250"/>
       <c r="H58" s="250"/>
       <c r="I58" s="251"/>
-      <c r="K58" s="687"/>
-      <c r="L58" s="688"/>
+      <c r="K58" s="668"/>
+      <c r="L58" s="669"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15064,102 +15064,102 @@
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
-      <c r="K59" s="689"/>
-      <c r="L59" s="690"/>
+      <c r="K59" s="670"/>
+      <c r="L59" s="671"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
-      <c r="B60" s="709" t="s">
+      <c r="B60" s="621" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="710"/>
-      <c r="D60" s="711"/>
-      <c r="F60" s="700"/>
-      <c r="G60" s="701"/>
-      <c r="H60" s="701"/>
-      <c r="I60" s="702"/>
-      <c r="K60" s="689"/>
-      <c r="L60" s="690"/>
+      <c r="C60" s="622"/>
+      <c r="D60" s="623"/>
+      <c r="F60" s="612"/>
+      <c r="G60" s="613"/>
+      <c r="H60" s="613"/>
+      <c r="I60" s="614"/>
+      <c r="K60" s="670"/>
+      <c r="L60" s="671"/>
       <c r="M60" s="79"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
-      <c r="B61" s="693" t="s">
+      <c r="B61" s="674" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="694"/>
+      <c r="C61" s="675"/>
       <c r="D61" s="134"/>
-      <c r="F61" s="703"/>
-      <c r="G61" s="704"/>
-      <c r="H61" s="704"/>
-      <c r="I61" s="705"/>
-      <c r="K61" s="689"/>
-      <c r="L61" s="690"/>
+      <c r="F61" s="615"/>
+      <c r="G61" s="616"/>
+      <c r="H61" s="616"/>
+      <c r="I61" s="617"/>
+      <c r="K61" s="670"/>
+      <c r="L61" s="671"/>
       <c r="M61" s="79"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
-      <c r="B62" s="681" t="s">
+      <c r="B62" s="663" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="682"/>
-      <c r="D62" s="685"/>
-      <c r="F62" s="706"/>
-      <c r="G62" s="707"/>
-      <c r="H62" s="707"/>
-      <c r="I62" s="708"/>
-      <c r="K62" s="689"/>
-      <c r="L62" s="690"/>
+      <c r="C62" s="664"/>
+      <c r="D62" s="624"/>
+      <c r="F62" s="618"/>
+      <c r="G62" s="619"/>
+      <c r="H62" s="619"/>
+      <c r="I62" s="620"/>
+      <c r="K62" s="670"/>
+      <c r="L62" s="671"/>
       <c r="M62" s="79"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="695"/>
-      <c r="C63" s="696"/>
-      <c r="D63" s="712"/>
-      <c r="F63" s="713" t="s">
+      <c r="B63" s="676"/>
+      <c r="C63" s="677"/>
+      <c r="D63" s="625"/>
+      <c r="F63" s="626" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="714"/>
-      <c r="H63" s="714"/>
-      <c r="I63" s="715"/>
-      <c r="K63" s="689"/>
-      <c r="L63" s="690"/>
+      <c r="G63" s="627"/>
+      <c r="H63" s="627"/>
+      <c r="I63" s="628"/>
+      <c r="K63" s="670"/>
+      <c r="L63" s="671"/>
       <c r="M63" s="79"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="681" t="s">
+      <c r="B64" s="663" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="682"/>
-      <c r="D64" s="685"/>
+      <c r="C64" s="664"/>
+      <c r="D64" s="624"/>
       <c r="F64" s="80"/>
       <c r="G64" s="181"/>
       <c r="H64" s="181"/>
       <c r="I64" s="182"/>
       <c r="J64" s="81"/>
-      <c r="K64" s="691"/>
-      <c r="L64" s="692"/>
+      <c r="K64" s="672"/>
+      <c r="L64" s="673"/>
       <c r="M64" s="79"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
-      <c r="B65" s="683"/>
-      <c r="C65" s="684"/>
-      <c r="D65" s="686"/>
-      <c r="F65" s="678" t="s">
+      <c r="B65" s="665"/>
+      <c r="C65" s="666"/>
+      <c r="D65" s="667"/>
+      <c r="F65" s="660" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="679"/>
-      <c r="H65" s="679"/>
-      <c r="I65" s="680"/>
+      <c r="G65" s="661"/>
+      <c r="H65" s="661"/>
+      <c r="I65" s="662"/>
       <c r="J65" s="81"/>
-      <c r="K65" s="676" t="s">
+      <c r="K65" s="658" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="677"/>
+      <c r="L65" s="659"/>
       <c r="M65" s="79"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15178,32 +15178,32 @@
       <c r="M66" s="87"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="673" t="s">
+      <c r="A67" s="655" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="674"/>
-      <c r="C67" s="674"/>
-      <c r="D67" s="674"/>
-      <c r="E67" s="674"/>
-      <c r="F67" s="674"/>
-      <c r="G67" s="674"/>
-      <c r="H67" s="674"/>
-      <c r="I67" s="674"/>
-      <c r="J67" s="674"/>
-      <c r="K67" s="674"/>
-      <c r="L67" s="674"/>
-      <c r="M67" s="675"/>
+      <c r="B67" s="656"/>
+      <c r="C67" s="656"/>
+      <c r="D67" s="656"/>
+      <c r="E67" s="656"/>
+      <c r="F67" s="656"/>
+      <c r="G67" s="656"/>
+      <c r="H67" s="656"/>
+      <c r="I67" s="656"/>
+      <c r="J67" s="656"/>
+      <c r="K67" s="656"/>
+      <c r="L67" s="656"/>
+      <c r="M67" s="657"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="81"/>
       <c r="C68" s="88"/>
       <c r="D68" s="88"/>
-      <c r="E68" s="670"/>
-      <c r="F68" s="671"/>
-      <c r="G68" s="671"/>
-      <c r="H68" s="671"/>
-      <c r="I68" s="672"/>
+      <c r="E68" s="652"/>
+      <c r="F68" s="653"/>
+      <c r="G68" s="653"/>
+      <c r="H68" s="653"/>
+      <c r="I68" s="654"/>
       <c r="J68" s="135"/>
       <c r="K68" s="135"/>
       <c r="M68" s="79"/>
@@ -15213,13 +15213,13 @@
       <c r="B69" s="81"/>
       <c r="C69" s="233"/>
       <c r="D69" s="233"/>
-      <c r="E69" s="667" t="s">
+      <c r="E69" s="649" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="668"/>
-      <c r="G69" s="668"/>
-      <c r="H69" s="668"/>
-      <c r="I69" s="669"/>
+      <c r="F69" s="650"/>
+      <c r="G69" s="650"/>
+      <c r="H69" s="650"/>
+      <c r="I69" s="651"/>
       <c r="J69" s="137"/>
       <c r="K69" s="136"/>
       <c r="L69" s="89"/>
@@ -15241,21 +15241,21 @@
       <c r="M70" s="92"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="666" t="s">
+      <c r="A71" s="648" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="666"/>
-      <c r="C71" s="666"/>
-      <c r="D71" s="666"/>
-      <c r="E71" s="666"/>
-      <c r="F71" s="666"/>
-      <c r="G71" s="666"/>
-      <c r="H71" s="666"/>
-      <c r="I71" s="666"/>
-      <c r="J71" s="666"/>
-      <c r="K71" s="666"/>
-      <c r="L71" s="666"/>
-      <c r="M71" s="666"/>
+      <c r="B71" s="648"/>
+      <c r="C71" s="648"/>
+      <c r="D71" s="648"/>
+      <c r="E71" s="648"/>
+      <c r="F71" s="648"/>
+      <c r="G71" s="648"/>
+      <c r="H71" s="648"/>
+      <c r="I71" s="648"/>
+      <c r="J71" s="648"/>
+      <c r="K71" s="648"/>
+      <c r="L71" s="648"/>
+      <c r="M71" s="648"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15268,82 +15268,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="97">
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="H15:L15"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -15360,11 +15289,82 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="C27:F30"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G47:L47"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/public/pds/PDS.xlsx
+++ b/public/pds/PDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB_PROJECTS\hris\public\pds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C6509-8A40-4FB2-90C1-93B3FA05045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9251A-00EA-40E8-B5B3-90907A60326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -3413,44 +3413,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3460,12 +3496,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3476,6 +3526,345 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3488,285 +3877,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3776,314 +3891,224 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4092,54 +4117,112 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4152,15 +4235,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4170,79 +4244,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4256,91 +4289,38 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4350,10 +4330,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4377,6 +4366,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4403,56 +4404,52 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4460,23 +4457,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4484,365 +4467,11 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4859,45 +4488,416 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6803,8 +6803,8 @@
   </sheetPr>
   <dimension ref="A1:R264"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6829,20 +6829,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379"/>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="381"/>
+      <c r="A1" s="336"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="338"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="158"/>
@@ -6872,58 +6872,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="339" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="383"/>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="383"/>
-      <c r="N3" s="384"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="348" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="392"/>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="392"/>
-      <c r="H4" s="392"/>
-      <c r="I4" s="392"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="393"/>
+      <c r="B4" s="349"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="349"/>
+      <c r="J4" s="349"/>
+      <c r="K4" s="349"/>
+      <c r="L4" s="349"/>
+      <c r="M4" s="349"/>
+      <c r="N4" s="350"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="408" t="s">
+      <c r="A5" s="374" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="409"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="409"/>
-      <c r="F5" s="409"/>
-      <c r="G5" s="409"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="409"/>
-      <c r="J5" s="409"/>
-      <c r="K5" s="409"/>
-      <c r="L5" s="409"/>
-      <c r="M5" s="409"/>
-      <c r="N5" s="410"/>
+      <c r="B5" s="375"/>
+      <c r="C5" s="375"/>
+      <c r="D5" s="375"/>
+      <c r="E5" s="375"/>
+      <c r="F5" s="375"/>
+      <c r="G5" s="375"/>
+      <c r="H5" s="375"/>
+      <c r="I5" s="375"/>
+      <c r="J5" s="375"/>
+      <c r="K5" s="375"/>
+      <c r="L5" s="375"/>
+      <c r="M5" s="375"/>
+      <c r="N5" s="376"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="190"/>
@@ -6957,63 +6957,63 @@
       <c r="K7" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="388" t="s">
+      <c r="L7" s="345" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="389"/>
-      <c r="N7" s="390"/>
+      <c r="M7" s="346"/>
+      <c r="N7" s="347"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="162"/>
       <c r="N8" s="154"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="342" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="386"/>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="386"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="386"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="386"/>
-      <c r="K9" s="386"/>
-      <c r="L9" s="386"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="387"/>
+      <c r="B9" s="343"/>
+      <c r="C9" s="343"/>
+      <c r="D9" s="343"/>
+      <c r="E9" s="343"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="343"/>
+      <c r="H9" s="343"/>
+      <c r="I9" s="343"/>
+      <c r="J9" s="343"/>
+      <c r="K9" s="343"/>
+      <c r="L9" s="343"/>
+      <c r="M9" s="343"/>
+      <c r="N9" s="344"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="357" t="s">
+      <c r="B10" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="358"/>
-      <c r="D10" s="346"/>
-      <c r="E10" s="346"/>
-      <c r="F10" s="346"/>
-      <c r="G10" s="346"/>
-      <c r="H10" s="346"/>
-      <c r="I10" s="346"/>
-      <c r="J10" s="346"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="347"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="385"/>
+      <c r="E10" s="385"/>
+      <c r="F10" s="385"/>
+      <c r="G10" s="385"/>
+      <c r="H10" s="385"/>
+      <c r="I10" s="385"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="385"/>
+      <c r="L10" s="385"/>
+      <c r="M10" s="385"/>
+      <c r="N10" s="386"/>
       <c r="P10" s="95" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="163"/>
-      <c r="B11" s="359" t="s">
+      <c r="B11" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="360"/>
+      <c r="C11" s="397"/>
       <c r="D11" s="197"/>
       <c r="E11" s="198"/>
       <c r="F11" s="198"/>
@@ -7022,10 +7022,10 @@
       <c r="I11" s="198"/>
       <c r="J11" s="198"/>
       <c r="K11" s="198"/>
-      <c r="L11" s="399" t="s">
+      <c r="L11" s="365" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="400"/>
+      <c r="M11" s="366"/>
       <c r="N11" s="252"/>
       <c r="P11" s="96" t="s">
         <v>52</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="164"/>
-      <c r="B12" s="361" t="s">
+      <c r="B12" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="362"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="194"/>
       <c r="E12" s="195"/>
       <c r="F12" s="195"/>
@@ -7062,23 +7062,23 @@
       <c r="A13" s="226" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="415" t="s">
+      <c r="B13" s="379" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="358"/>
-      <c r="D13" s="446"/>
-      <c r="E13" s="446"/>
-      <c r="F13" s="447"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="269"/>
       <c r="G13" s="102" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="145"/>
       <c r="I13" s="145"/>
-      <c r="J13" s="394"/>
-      <c r="K13" s="395"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="395"/>
-      <c r="N13" s="396"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="360"/>
+      <c r="M13" s="360"/>
+      <c r="N13" s="361"/>
       <c r="P13" s="96" t="s">
         <v>53</v>
       </c>
@@ -7112,19 +7112,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="405"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="406"/>
-      <c r="G15" s="451" t="s">
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="273" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="452"/>
-      <c r="I15" s="452"/>
-      <c r="J15" s="459"/>
-      <c r="K15" s="460"/>
-      <c r="L15" s="460"/>
-      <c r="M15" s="460"/>
-      <c r="N15" s="461"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="274"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="285"/>
       <c r="P15" s="96" t="s">
         <v>118</v>
       </c>
@@ -7140,19 +7140,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="348"/>
-      <c r="E16" s="348"/>
-      <c r="F16" s="349"/>
-      <c r="G16" s="448" t="s">
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="270" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="449"/>
-      <c r="I16" s="450"/>
-      <c r="J16" s="462"/>
-      <c r="K16" s="463"/>
-      <c r="L16" s="463"/>
-      <c r="M16" s="463"/>
-      <c r="N16" s="464"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="287"/>
+      <c r="M16" s="287"/>
+      <c r="N16" s="288"/>
       <c r="P16" s="96" t="s">
         <v>119</v>
       </c>
@@ -7161,49 +7161,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="453">
+      <c r="A17" s="275">
         <v>6</v>
       </c>
-      <c r="B17" s="455" t="s">
+      <c r="B17" s="279" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="456"/>
-      <c r="D17" s="424"/>
-      <c r="E17" s="424"/>
-      <c r="F17" s="424"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="277"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="277"/>
       <c r="G17" s="103" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="104"/>
-      <c r="I17" s="326"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="327"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="328"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="355"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="355"/>
+      <c r="M17" s="355"/>
+      <c r="N17" s="362"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="429"/>
-      <c r="B18" s="457"/>
-      <c r="C18" s="458"/>
-      <c r="D18" s="454"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="454"/>
+      <c r="A18" s="276"/>
+      <c r="B18" s="281"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
       <c r="G18" s="151"/>
       <c r="H18" s="255"/>
-      <c r="I18" s="397" t="s">
+      <c r="I18" s="363" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="398"/>
-      <c r="K18" s="398"/>
-      <c r="L18" s="398" t="s">
+      <c r="J18" s="364"/>
+      <c r="K18" s="364"/>
+      <c r="L18" s="364" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="398"/>
-      <c r="N18" s="401"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="367"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7217,100 +7217,100 @@
       <c r="F19" s="257"/>
       <c r="G19" s="151"/>
       <c r="H19" s="255"/>
-      <c r="I19" s="411"/>
-      <c r="J19" s="412"/>
-      <c r="K19" s="412"/>
-      <c r="L19" s="417"/>
-      <c r="M19" s="412"/>
-      <c r="N19" s="418"/>
+      <c r="I19" s="377"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="312"/>
+      <c r="L19" s="311"/>
+      <c r="M19" s="312"/>
+      <c r="N19" s="313"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="429"/>
+      <c r="A20" s="276"/>
       <c r="B20" s="256"/>
       <c r="C20" s="138"/>
       <c r="D20" s="258"/>
-      <c r="E20" s="355"/>
-      <c r="F20" s="355"/>
+      <c r="E20" s="393"/>
+      <c r="F20" s="393"/>
       <c r="G20" s="149"/>
       <c r="H20" s="251"/>
-      <c r="I20" s="413"/>
-      <c r="J20" s="414"/>
-      <c r="K20" s="414"/>
-      <c r="L20" s="414"/>
-      <c r="M20" s="414"/>
-      <c r="N20" s="419"/>
+      <c r="I20" s="378"/>
+      <c r="J20" s="314"/>
+      <c r="K20" s="314"/>
+      <c r="L20" s="314"/>
+      <c r="M20" s="314"/>
+      <c r="N20" s="315"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="430"/>
+      <c r="A21" s="325"/>
       <c r="B21" s="212"/>
       <c r="C21" s="136"/>
       <c r="D21" s="139"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="394"/>
       <c r="G21" s="149"/>
       <c r="H21" s="251"/>
-      <c r="I21" s="420" t="s">
+      <c r="I21" s="316" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="421"/>
-      <c r="K21" s="421"/>
-      <c r="L21" s="323" t="s">
+      <c r="J21" s="317"/>
+      <c r="K21" s="317"/>
+      <c r="L21" s="430" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="324"/>
-      <c r="N21" s="325"/>
+      <c r="M21" s="431"/>
+      <c r="N21" s="432"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="431" t="s">
+      <c r="A22" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="371" t="s">
+      <c r="B22" s="330" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="372"/>
-      <c r="D22" s="349"/>
-      <c r="E22" s="424"/>
-      <c r="F22" s="425"/>
+      <c r="C22" s="331"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="277"/>
+      <c r="F22" s="321"/>
       <c r="G22" s="149"/>
       <c r="H22" s="251"/>
-      <c r="I22" s="326"/>
-      <c r="J22" s="327"/>
-      <c r="K22" s="327"/>
-      <c r="L22" s="327"/>
-      <c r="M22" s="327"/>
-      <c r="N22" s="328"/>
+      <c r="I22" s="354"/>
+      <c r="J22" s="355"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="355"/>
+      <c r="M22" s="355"/>
+      <c r="N22" s="362"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="432"/>
-      <c r="B23" s="373"/>
-      <c r="C23" s="374"/>
-      <c r="D23" s="426"/>
-      <c r="E23" s="427"/>
-      <c r="F23" s="428"/>
+      <c r="A23" s="327"/>
+      <c r="B23" s="332"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="322"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="324"/>
       <c r="G23" s="149"/>
       <c r="H23" s="251"/>
-      <c r="I23" s="331" t="s">
+      <c r="I23" s="435" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="332"/>
-      <c r="K23" s="332"/>
-      <c r="L23" s="329" t="s">
+      <c r="J23" s="436"/>
+      <c r="K23" s="436"/>
+      <c r="L23" s="433" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="329"/>
-      <c r="N23" s="330"/>
+      <c r="M23" s="433"/>
+      <c r="N23" s="434"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7319,163 +7319,163 @@
       <c r="A24" s="163" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="435" t="s">
+      <c r="B24" s="334" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="365"/>
-      <c r="D24" s="367"/>
-      <c r="E24" s="368"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="363" t="s">
+      <c r="C24" s="335"/>
+      <c r="D24" s="351"/>
+      <c r="E24" s="352"/>
+      <c r="F24" s="353"/>
+      <c r="G24" s="400" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="316"/>
-      <c r="I24" s="402"/>
-      <c r="J24" s="403"/>
-      <c r="K24" s="403"/>
-      <c r="L24" s="403"/>
-      <c r="M24" s="403"/>
-      <c r="N24" s="404"/>
+      <c r="H24" s="401"/>
+      <c r="I24" s="368"/>
+      <c r="J24" s="369"/>
+      <c r="K24" s="369"/>
+      <c r="L24" s="369"/>
+      <c r="M24" s="369"/>
+      <c r="N24" s="370"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="422" t="s">
+      <c r="A25" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="371" t="s">
+      <c r="B25" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="372"/>
-      <c r="D25" s="349"/>
-      <c r="E25" s="424"/>
-      <c r="F25" s="425"/>
+      <c r="C25" s="331"/>
+      <c r="D25" s="320"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="321"/>
       <c r="G25" s="109" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="99"/>
-      <c r="I25" s="326"/>
-      <c r="J25" s="327"/>
-      <c r="K25" s="327"/>
-      <c r="L25" s="327"/>
-      <c r="M25" s="327"/>
-      <c r="N25" s="328"/>
+      <c r="I25" s="354"/>
+      <c r="J25" s="355"/>
+      <c r="K25" s="355"/>
+      <c r="L25" s="355"/>
+      <c r="M25" s="355"/>
+      <c r="N25" s="362"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="423"/>
-      <c r="B26" s="373"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="426"/>
-      <c r="E26" s="427"/>
-      <c r="F26" s="428"/>
+      <c r="A26" s="319"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="323"/>
+      <c r="F26" s="324"/>
       <c r="G26" s="149"/>
       <c r="H26" s="251"/>
-      <c r="I26" s="397" t="s">
+      <c r="I26" s="363" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="398"/>
-      <c r="K26" s="398"/>
-      <c r="L26" s="398" t="s">
+      <c r="J26" s="364"/>
+      <c r="K26" s="364"/>
+      <c r="L26" s="364" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="398"/>
-      <c r="N26" s="401"/>
+      <c r="M26" s="364"/>
+      <c r="N26" s="367"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="422" t="s">
+      <c r="A27" s="318" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="371" t="s">
+      <c r="B27" s="330" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="372"/>
-      <c r="D27" s="349"/>
-      <c r="E27" s="424"/>
-      <c r="F27" s="425"/>
+      <c r="C27" s="331"/>
+      <c r="D27" s="320"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="321"/>
       <c r="G27" s="151"/>
       <c r="H27" s="255"/>
-      <c r="I27" s="326"/>
-      <c r="J27" s="327"/>
-      <c r="K27" s="327"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="327"/>
-      <c r="N27" s="328"/>
+      <c r="I27" s="354"/>
+      <c r="J27" s="355"/>
+      <c r="K27" s="355"/>
+      <c r="L27" s="355"/>
+      <c r="M27" s="355"/>
+      <c r="N27" s="362"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="423"/>
-      <c r="B28" s="373"/>
-      <c r="C28" s="374"/>
-      <c r="D28" s="426"/>
-      <c r="E28" s="427"/>
-      <c r="F28" s="428"/>
+      <c r="A28" s="319"/>
+      <c r="B28" s="332"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="322"/>
+      <c r="E28" s="323"/>
+      <c r="F28" s="324"/>
       <c r="G28" s="151"/>
       <c r="H28" s="255"/>
-      <c r="I28" s="378" t="s">
+      <c r="I28" s="412" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="376"/>
-      <c r="K28" s="376"/>
-      <c r="L28" s="375" t="s">
+      <c r="J28" s="410"/>
+      <c r="K28" s="410"/>
+      <c r="L28" s="409" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="376"/>
-      <c r="N28" s="377"/>
+      <c r="M28" s="410"/>
+      <c r="N28" s="411"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="422" t="s">
+      <c r="A29" s="318" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="371" t="s">
+      <c r="B29" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="372"/>
-      <c r="D29" s="349"/>
-      <c r="E29" s="424"/>
-      <c r="F29" s="425"/>
+      <c r="C29" s="331"/>
+      <c r="D29" s="320"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="321"/>
       <c r="G29" s="151"/>
       <c r="H29" s="156"/>
-      <c r="I29" s="370"/>
-      <c r="J29" s="340"/>
-      <c r="K29" s="340"/>
-      <c r="L29" s="340"/>
-      <c r="M29" s="340"/>
-      <c r="N29" s="341"/>
+      <c r="I29" s="407"/>
+      <c r="J29" s="408"/>
+      <c r="K29" s="408"/>
+      <c r="L29" s="408"/>
+      <c r="M29" s="408"/>
+      <c r="N29" s="441"/>
       <c r="Q29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="423"/>
-      <c r="B30" s="373"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="426"/>
-      <c r="E30" s="427"/>
-      <c r="F30" s="428"/>
+      <c r="A30" s="319"/>
+      <c r="B30" s="332"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="323"/>
+      <c r="F30" s="324"/>
       <c r="G30" s="151"/>
       <c r="H30" s="156"/>
-      <c r="I30" s="333" t="s">
+      <c r="I30" s="437" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="333"/>
-      <c r="K30" s="333"/>
-      <c r="L30" s="333" t="s">
+      <c r="J30" s="437"/>
+      <c r="K30" s="437"/>
+      <c r="L30" s="437" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="333"/>
-      <c r="N30" s="334"/>
+      <c r="M30" s="437"/>
+      <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7488,19 +7488,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="98"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="368"/>
-      <c r="F31" s="369"/>
-      <c r="G31" s="335" t="s">
+      <c r="D31" s="351"/>
+      <c r="E31" s="352"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="439" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="336"/>
-      <c r="I31" s="337"/>
-      <c r="J31" s="338"/>
-      <c r="K31" s="338"/>
-      <c r="L31" s="338"/>
-      <c r="M31" s="338"/>
-      <c r="N31" s="339"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="356"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="357"/>
+      <c r="L31" s="357"/>
+      <c r="M31" s="357"/>
+      <c r="N31" s="358"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7513,42 +7513,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="98"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="368"/>
-      <c r="F32" s="369"/>
-      <c r="G32" s="407" t="s">
+      <c r="D32" s="351"/>
+      <c r="E32" s="352"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="373" t="s">
         <v>375</v>
       </c>
-      <c r="H32" s="365"/>
-      <c r="I32" s="337"/>
-      <c r="J32" s="338"/>
-      <c r="K32" s="338"/>
-      <c r="L32" s="338"/>
-      <c r="M32" s="338"/>
-      <c r="N32" s="339"/>
+      <c r="H32" s="335"/>
+      <c r="I32" s="356"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="357"/>
+      <c r="M32" s="357"/>
+      <c r="N32" s="358"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="364" t="s">
+      <c r="A33" s="402" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="365"/>
-      <c r="C33" s="366"/>
-      <c r="D33" s="367"/>
-      <c r="E33" s="368"/>
-      <c r="F33" s="369"/>
+      <c r="B33" s="335"/>
+      <c r="C33" s="403"/>
+      <c r="D33" s="351"/>
+      <c r="E33" s="352"/>
+      <c r="F33" s="353"/>
       <c r="G33" s="196" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="150"/>
-      <c r="I33" s="337"/>
-      <c r="J33" s="338"/>
-      <c r="K33" s="338"/>
-      <c r="L33" s="338"/>
-      <c r="M33" s="338"/>
-      <c r="N33" s="339"/>
+      <c r="I33" s="356"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="357"/>
+      <c r="L33" s="357"/>
+      <c r="M33" s="357"/>
+      <c r="N33" s="358"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7559,19 +7559,19 @@
       </c>
       <c r="B34" s="254"/>
       <c r="C34" s="152"/>
-      <c r="D34" s="352"/>
-      <c r="E34" s="353"/>
-      <c r="F34" s="354"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="391"/>
+      <c r="F34" s="392"/>
       <c r="G34" s="109" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="99"/>
-      <c r="I34" s="337"/>
-      <c r="J34" s="338"/>
-      <c r="K34" s="338"/>
-      <c r="L34" s="338"/>
-      <c r="M34" s="338"/>
-      <c r="N34" s="339"/>
+      <c r="I34" s="356"/>
+      <c r="J34" s="357"/>
+      <c r="K34" s="357"/>
+      <c r="L34" s="357"/>
+      <c r="M34" s="357"/>
+      <c r="N34" s="358"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -7605,21 +7605,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="216"/>
-      <c r="D36" s="416"/>
-      <c r="E36" s="416"/>
-      <c r="F36" s="416"/>
-      <c r="G36" s="416"/>
-      <c r="H36" s="416"/>
-      <c r="I36" s="465" t="s">
+      <c r="D36" s="309"/>
+      <c r="E36" s="309"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="309"/>
+      <c r="H36" s="309"/>
+      <c r="I36" s="291" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="465"/>
-      <c r="K36" s="465"/>
-      <c r="L36" s="466"/>
-      <c r="M36" s="433" t="s">
+      <c r="J36" s="291"/>
+      <c r="K36" s="291"/>
+      <c r="L36" s="292"/>
+      <c r="M36" s="328" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="434"/>
+      <c r="N36" s="329"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -7630,19 +7630,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="156"/>
-      <c r="D37" s="284"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="286"/>
+      <c r="D37" s="404"/>
+      <c r="E37" s="405"/>
+      <c r="F37" s="406"/>
       <c r="G37" s="247" t="s">
         <v>382</v>
       </c>
       <c r="H37" s="248"/>
-      <c r="I37" s="467"/>
-      <c r="J37" s="280"/>
-      <c r="K37" s="280"/>
-      <c r="L37" s="281"/>
-      <c r="M37" s="278"/>
-      <c r="N37" s="279"/>
+      <c r="I37" s="293"/>
+      <c r="J37" s="266"/>
+      <c r="K37" s="266"/>
+      <c r="L37" s="267"/>
+      <c r="M37" s="289"/>
+      <c r="N37" s="290"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -7653,17 +7653,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="209"/>
-      <c r="D38" s="284"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="286"/>
-      <c r="I38" s="280"/>
-      <c r="J38" s="280"/>
-      <c r="K38" s="280"/>
-      <c r="L38" s="281"/>
-      <c r="M38" s="278"/>
-      <c r="N38" s="279"/>
+      <c r="D38" s="404"/>
+      <c r="E38" s="405"/>
+      <c r="F38" s="405"/>
+      <c r="G38" s="405"/>
+      <c r="H38" s="406"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="266"/>
+      <c r="K38" s="266"/>
+      <c r="L38" s="267"/>
+      <c r="M38" s="289"/>
+      <c r="N38" s="290"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -7674,17 +7674,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="98"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
-      <c r="H39" s="297"/>
-      <c r="I39" s="280"/>
-      <c r="J39" s="280"/>
-      <c r="K39" s="280"/>
-      <c r="L39" s="281"/>
-      <c r="M39" s="278"/>
-      <c r="N39" s="279"/>
+      <c r="D39" s="310"/>
+      <c r="E39" s="310"/>
+      <c r="F39" s="310"/>
+      <c r="G39" s="310"/>
+      <c r="H39" s="310"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="289"/>
+      <c r="N39" s="290"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -7695,17 +7695,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="98"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="297"/>
-      <c r="I40" s="280"/>
-      <c r="J40" s="280"/>
-      <c r="K40" s="280"/>
-      <c r="L40" s="281"/>
-      <c r="M40" s="278"/>
-      <c r="N40" s="279"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="310"/>
+      <c r="F40" s="310"/>
+      <c r="G40" s="310"/>
+      <c r="H40" s="310"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="266"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="289"/>
+      <c r="N40" s="290"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -7716,17 +7716,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="98"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
-      <c r="G41" s="297"/>
-      <c r="H41" s="297"/>
-      <c r="I41" s="280"/>
-      <c r="J41" s="280"/>
-      <c r="K41" s="280"/>
-      <c r="L41" s="281"/>
-      <c r="M41" s="278"/>
-      <c r="N41" s="279"/>
+      <c r="D41" s="310"/>
+      <c r="E41" s="310"/>
+      <c r="F41" s="310"/>
+      <c r="G41" s="310"/>
+      <c r="H41" s="310"/>
+      <c r="I41" s="266"/>
+      <c r="J41" s="266"/>
+      <c r="K41" s="266"/>
+      <c r="L41" s="267"/>
+      <c r="M41" s="289"/>
+      <c r="N41" s="290"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -7737,17 +7737,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="137"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="297"/>
-      <c r="I42" s="280"/>
-      <c r="J42" s="280"/>
-      <c r="K42" s="280"/>
-      <c r="L42" s="281"/>
-      <c r="M42" s="278"/>
-      <c r="N42" s="279"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="310"/>
+      <c r="F42" s="310"/>
+      <c r="G42" s="310"/>
+      <c r="H42" s="310"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="266"/>
+      <c r="L42" s="267"/>
+      <c r="M42" s="289"/>
+      <c r="N42" s="290"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -7760,17 +7760,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="104"/>
-      <c r="D43" s="297"/>
-      <c r="E43" s="297"/>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-      <c r="H43" s="297"/>
-      <c r="I43" s="280"/>
-      <c r="J43" s="280"/>
-      <c r="K43" s="280"/>
-      <c r="L43" s="281"/>
-      <c r="M43" s="278"/>
-      <c r="N43" s="279"/>
+      <c r="D43" s="310"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="310"/>
+      <c r="G43" s="310"/>
+      <c r="H43" s="310"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="266"/>
+      <c r="K43" s="266"/>
+      <c r="L43" s="267"/>
+      <c r="M43" s="289"/>
+      <c r="N43" s="290"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -7781,19 +7781,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="251"/>
-      <c r="D44" s="284"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="286"/>
+      <c r="D44" s="404"/>
+      <c r="E44" s="405"/>
+      <c r="F44" s="406"/>
       <c r="G44" s="247" t="s">
         <v>402</v>
       </c>
       <c r="H44" s="248"/>
-      <c r="I44" s="280"/>
-      <c r="J44" s="280"/>
-      <c r="K44" s="280"/>
-      <c r="L44" s="281"/>
-      <c r="M44" s="278"/>
-      <c r="N44" s="279"/>
+      <c r="I44" s="266"/>
+      <c r="J44" s="266"/>
+      <c r="K44" s="266"/>
+      <c r="L44" s="267"/>
+      <c r="M44" s="289"/>
+      <c r="N44" s="290"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -7804,17 +7804,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="203"/>
-      <c r="D45" s="284"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286"/>
-      <c r="I45" s="282"/>
-      <c r="J45" s="282"/>
-      <c r="K45" s="282"/>
-      <c r="L45" s="283"/>
-      <c r="M45" s="278"/>
-      <c r="N45" s="279"/>
+      <c r="D45" s="404"/>
+      <c r="E45" s="405"/>
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="406"/>
+      <c r="I45" s="297"/>
+      <c r="J45" s="297"/>
+      <c r="K45" s="297"/>
+      <c r="L45" s="298"/>
+      <c r="M45" s="289"/>
+      <c r="N45" s="290"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -7827,17 +7827,17 @@
         <v>85</v>
       </c>
       <c r="C46" s="104"/>
-      <c r="D46" s="445"/>
-      <c r="E46" s="445"/>
-      <c r="F46" s="445"/>
-      <c r="G46" s="445"/>
-      <c r="H46" s="445"/>
-      <c r="I46" s="282"/>
-      <c r="J46" s="282"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="283"/>
-      <c r="M46" s="278"/>
-      <c r="N46" s="279"/>
+      <c r="D46" s="308"/>
+      <c r="E46" s="308"/>
+      <c r="F46" s="308"/>
+      <c r="G46" s="308"/>
+      <c r="H46" s="308"/>
+      <c r="I46" s="297"/>
+      <c r="J46" s="297"/>
+      <c r="K46" s="297"/>
+      <c r="L46" s="298"/>
+      <c r="M46" s="289"/>
+      <c r="N46" s="290"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -7848,17 +7848,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="251"/>
-      <c r="D47" s="298"/>
-      <c r="E47" s="298"/>
-      <c r="F47" s="298"/>
-      <c r="G47" s="298"/>
-      <c r="H47" s="298"/>
-      <c r="I47" s="282"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
-      <c r="L47" s="283"/>
-      <c r="M47" s="278"/>
-      <c r="N47" s="279"/>
+      <c r="D47" s="461"/>
+      <c r="E47" s="461"/>
+      <c r="F47" s="461"/>
+      <c r="G47" s="461"/>
+      <c r="H47" s="461"/>
+      <c r="I47" s="297"/>
+      <c r="J47" s="297"/>
+      <c r="K47" s="297"/>
+      <c r="L47" s="298"/>
+      <c r="M47" s="289"/>
+      <c r="N47" s="290"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -7869,17 +7869,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="251"/>
-      <c r="D48" s="298"/>
-      <c r="E48" s="298"/>
-      <c r="F48" s="298"/>
-      <c r="G48" s="298"/>
-      <c r="H48" s="298"/>
-      <c r="I48" s="282"/>
-      <c r="J48" s="282"/>
-      <c r="K48" s="282"/>
-      <c r="L48" s="283"/>
-      <c r="M48" s="278"/>
-      <c r="N48" s="279"/>
+      <c r="D48" s="461"/>
+      <c r="E48" s="461"/>
+      <c r="F48" s="461"/>
+      <c r="G48" s="461"/>
+      <c r="H48" s="461"/>
+      <c r="I48" s="297"/>
+      <c r="J48" s="297"/>
+      <c r="K48" s="297"/>
+      <c r="L48" s="298"/>
+      <c r="M48" s="289"/>
+      <c r="N48" s="290"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -7890,19 +7890,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="204"/>
-      <c r="D49" s="438"/>
-      <c r="E49" s="438"/>
-      <c r="F49" s="438"/>
-      <c r="G49" s="438"/>
-      <c r="H49" s="438"/>
-      <c r="I49" s="436" t="s">
+      <c r="D49" s="301"/>
+      <c r="E49" s="301"/>
+      <c r="F49" s="301"/>
+      <c r="G49" s="301"/>
+      <c r="H49" s="301"/>
+      <c r="I49" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="436"/>
-      <c r="K49" s="436"/>
-      <c r="L49" s="436"/>
-      <c r="M49" s="436"/>
-      <c r="N49" s="437"/>
+      <c r="J49" s="299"/>
+      <c r="K49" s="299"/>
+      <c r="L49" s="299"/>
+      <c r="M49" s="299"/>
+      <c r="N49" s="300"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -7918,47 +7918,47 @@
       <c r="F50" s="101"/>
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
-      <c r="I50" s="350" t="s">
+      <c r="I50" s="388" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="350"/>
-      <c r="K50" s="350"/>
-      <c r="L50" s="350"/>
-      <c r="M50" s="350"/>
-      <c r="N50" s="351"/>
+      <c r="J50" s="388"/>
+      <c r="K50" s="388"/>
+      <c r="L50" s="388"/>
+      <c r="M50" s="388"/>
+      <c r="N50" s="389"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="342" t="s">
+      <c r="A51" s="381" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="413" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="311"/>
-      <c r="D51" s="299" t="s">
+      <c r="C51" s="413"/>
+      <c r="D51" s="416" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="300"/>
-      <c r="F51" s="314"/>
-      <c r="G51" s="299" t="s">
+      <c r="E51" s="417"/>
+      <c r="F51" s="418"/>
+      <c r="G51" s="416" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="300"/>
-      <c r="I51" s="301"/>
-      <c r="J51" s="439" t="s">
+      <c r="H51" s="417"/>
+      <c r="I51" s="462"/>
+      <c r="J51" s="302" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="440"/>
-      <c r="L51" s="292" t="s">
+      <c r="K51" s="303"/>
+      <c r="L51" s="459" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="344" t="s">
+      <c r="M51" s="383" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="443" t="s">
+      <c r="N51" s="306" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7966,43 +7966,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="343"/>
-      <c r="B52" s="312"/>
-      <c r="C52" s="312"/>
-      <c r="D52" s="302"/>
-      <c r="E52" s="303"/>
-      <c r="F52" s="315"/>
-      <c r="G52" s="302"/>
-      <c r="H52" s="303"/>
-      <c r="I52" s="304"/>
-      <c r="J52" s="441"/>
-      <c r="K52" s="442"/>
-      <c r="L52" s="292"/>
-      <c r="M52" s="344"/>
-      <c r="N52" s="443"/>
+      <c r="A52" s="382"/>
+      <c r="B52" s="414"/>
+      <c r="C52" s="414"/>
+      <c r="D52" s="419"/>
+      <c r="E52" s="420"/>
+      <c r="F52" s="421"/>
+      <c r="G52" s="419"/>
+      <c r="H52" s="420"/>
+      <c r="I52" s="463"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="305"/>
+      <c r="L52" s="459"/>
+      <c r="M52" s="383"/>
+      <c r="N52" s="306"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="214"/>
-      <c r="B53" s="313"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="305"/>
-      <c r="E53" s="306"/>
-      <c r="F53" s="316"/>
-      <c r="G53" s="305"/>
-      <c r="H53" s="306"/>
-      <c r="I53" s="307"/>
+      <c r="B53" s="415"/>
+      <c r="C53" s="415"/>
+      <c r="D53" s="422"/>
+      <c r="E53" s="423"/>
+      <c r="F53" s="401"/>
+      <c r="G53" s="422"/>
+      <c r="H53" s="423"/>
+      <c r="I53" s="464"/>
       <c r="J53" s="105" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="293"/>
-      <c r="M53" s="345"/>
-      <c r="N53" s="444"/>
+      <c r="L53" s="460"/>
+      <c r="M53" s="384"/>
+      <c r="N53" s="307"/>
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="3" t="s">
@@ -8015,9 +8015,9 @@
         <v>23</v>
       </c>
       <c r="C54" s="218"/>
-      <c r="D54" s="317"/>
-      <c r="E54" s="318"/>
-      <c r="F54" s="319"/>
+      <c r="D54" s="424"/>
+      <c r="E54" s="425"/>
+      <c r="F54" s="426"/>
       <c r="G54" s="294"/>
       <c r="H54" s="295"/>
       <c r="I54" s="296"/>
@@ -8036,9 +8036,9 @@
         <v>24</v>
       </c>
       <c r="C55" s="218"/>
-      <c r="D55" s="317"/>
-      <c r="E55" s="318"/>
-      <c r="F55" s="319"/>
+      <c r="D55" s="424"/>
+      <c r="E55" s="425"/>
+      <c r="F55" s="426"/>
       <c r="G55" s="294"/>
       <c r="H55" s="295"/>
       <c r="I55" s="296"/>
@@ -8057,9 +8057,9 @@
         <v>58</v>
       </c>
       <c r="C56" s="218"/>
-      <c r="D56" s="317"/>
-      <c r="E56" s="318"/>
-      <c r="F56" s="319"/>
+      <c r="D56" s="424"/>
+      <c r="E56" s="425"/>
+      <c r="F56" s="426"/>
       <c r="G56" s="294"/>
       <c r="H56" s="295"/>
       <c r="I56" s="296"/>
@@ -8078,9 +8078,9 @@
         <v>71</v>
       </c>
       <c r="C57" s="218"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="318"/>
-      <c r="F57" s="319"/>
+      <c r="D57" s="424"/>
+      <c r="E57" s="425"/>
+      <c r="F57" s="426"/>
       <c r="G57" s="294"/>
       <c r="H57" s="295"/>
       <c r="I57" s="296"/>
@@ -8099,12 +8099,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="220"/>
-      <c r="D58" s="320"/>
-      <c r="E58" s="321"/>
-      <c r="F58" s="322"/>
-      <c r="G58" s="308"/>
-      <c r="H58" s="309"/>
-      <c r="I58" s="310"/>
+      <c r="D58" s="427"/>
+      <c r="E58" s="428"/>
+      <c r="F58" s="429"/>
+      <c r="G58" s="465"/>
+      <c r="H58" s="466"/>
+      <c r="I58" s="467"/>
       <c r="J58" s="259"/>
       <c r="K58" s="261"/>
       <c r="L58" s="20"/>
@@ -8115,66 +8115,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="272" t="s">
+      <c r="A59" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="273"/>
-      <c r="C59" s="273"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="273"/>
-      <c r="F59" s="273"/>
-      <c r="G59" s="273"/>
-      <c r="H59" s="273"/>
-      <c r="I59" s="273"/>
-      <c r="J59" s="273"/>
-      <c r="K59" s="273"/>
-      <c r="L59" s="273"/>
-      <c r="M59" s="273"/>
-      <c r="N59" s="274"/>
+      <c r="B59" s="449"/>
+      <c r="C59" s="449"/>
+      <c r="D59" s="449"/>
+      <c r="E59" s="449"/>
+      <c r="F59" s="449"/>
+      <c r="G59" s="449"/>
+      <c r="H59" s="449"/>
+      <c r="I59" s="449"/>
+      <c r="J59" s="449"/>
+      <c r="K59" s="449"/>
+      <c r="L59" s="449"/>
+      <c r="M59" s="449"/>
+      <c r="N59" s="450"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="269" t="s">
+      <c r="A60" s="445" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="270"/>
-      <c r="C60" s="271"/>
-      <c r="D60" s="287"/>
-      <c r="E60" s="288"/>
-      <c r="F60" s="288"/>
-      <c r="G60" s="288"/>
-      <c r="H60" s="288"/>
-      <c r="I60" s="289"/>
-      <c r="J60" s="290" t="s">
+      <c r="B60" s="446"/>
+      <c r="C60" s="447"/>
+      <c r="D60" s="454"/>
+      <c r="E60" s="455"/>
+      <c r="F60" s="455"/>
+      <c r="G60" s="455"/>
+      <c r="H60" s="455"/>
+      <c r="I60" s="456"/>
+      <c r="J60" s="457" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="291"/>
-      <c r="L60" s="275"/>
-      <c r="M60" s="276"/>
-      <c r="N60" s="277"/>
+      <c r="K60" s="458"/>
+      <c r="L60" s="451"/>
+      <c r="M60" s="452"/>
+      <c r="N60" s="453"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="143" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="266" t="s">
+      <c r="A61" s="442" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="267"/>
-      <c r="C61" s="267"/>
-      <c r="D61" s="267"/>
-      <c r="E61" s="267"/>
-      <c r="F61" s="267"/>
-      <c r="G61" s="267"/>
-      <c r="H61" s="267"/>
-      <c r="I61" s="267"/>
-      <c r="J61" s="267"/>
-      <c r="K61" s="267"/>
-      <c r="L61" s="267"/>
-      <c r="M61" s="267"/>
-      <c r="N61" s="268"/>
+      <c r="B61" s="443"/>
+      <c r="C61" s="443"/>
+      <c r="D61" s="443"/>
+      <c r="E61" s="443"/>
+      <c r="F61" s="443"/>
+      <c r="G61" s="443"/>
+      <c r="H61" s="443"/>
+      <c r="I61" s="443"/>
+      <c r="J61" s="443"/>
+      <c r="K61" s="443"/>
+      <c r="L61" s="443"/>
+      <c r="M61" s="443"/>
+      <c r="N61" s="444"/>
       <c r="Q61" s="233" t="s">
         <v>396</v>
       </c>
@@ -11901,28 +11901,102 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="142">
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="I41:L41"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
@@ -11947,102 +12021,28 @@
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12287,76 +12287,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="472"/>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="473"/>
-      <c r="J1" s="473"/>
-      <c r="K1" s="473"/>
-      <c r="L1" s="473"/>
-      <c r="M1" s="474"/>
+      <c r="A1" s="504"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="506"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="485" t="s">
+      <c r="A2" s="514" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="516"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="475" t="s">
+      <c r="B3" s="507" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="475"/>
-      <c r="D3" s="475"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="483" t="s">
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="512" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="479" t="s">
+      <c r="G3" s="509" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="476"/>
-      <c r="I3" s="479" t="s">
+      <c r="H3" s="508"/>
+      <c r="I3" s="509" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="475"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="481" t="s">
+      <c r="J3" s="507"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="510" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="482"/>
+      <c r="M3" s="511"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="480"/>
-      <c r="H4" s="478"/>
-      <c r="I4" s="480"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="478"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="513"/>
+      <c r="G4" s="495"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
         <v>91</v>
       </c>
@@ -12365,143 +12365,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="492"/>
-      <c r="B5" s="493"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493"/>
-      <c r="E5" s="493"/>
+      <c r="A5" s="493"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
+      <c r="D5" s="468"/>
+      <c r="E5" s="468"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="490"/>
-      <c r="H5" s="490"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="491"/>
-      <c r="K5" s="491"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="492"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="496"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="492"/>
-      <c r="B6" s="493"/>
-      <c r="C6" s="493"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="493"/>
+      <c r="A6" s="493"/>
+      <c r="B6" s="468"/>
+      <c r="C6" s="468"/>
+      <c r="D6" s="468"/>
+      <c r="E6" s="468"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="501"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="491"/>
-      <c r="K6" s="491"/>
+      <c r="G6" s="523"/>
+      <c r="H6" s="524"/>
+      <c r="I6" s="496"/>
+      <c r="J6" s="496"/>
+      <c r="K6" s="496"/>
       <c r="L6" s="9"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="492"/>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="A7" s="493"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="468"/>
+      <c r="D7" s="468"/>
+      <c r="E7" s="468"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="490"/>
-      <c r="H7" s="490"/>
-      <c r="I7" s="491"/>
-      <c r="J7" s="491"/>
-      <c r="K7" s="491"/>
+      <c r="G7" s="492"/>
+      <c r="H7" s="492"/>
+      <c r="I7" s="496"/>
+      <c r="J7" s="496"/>
+      <c r="K7" s="496"/>
       <c r="L7" s="9"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="492"/>
-      <c r="B8" s="493"/>
-      <c r="C8" s="493"/>
-      <c r="D8" s="493"/>
-      <c r="E8" s="493"/>
+      <c r="A8" s="493"/>
+      <c r="B8" s="468"/>
+      <c r="C8" s="468"/>
+      <c r="D8" s="468"/>
+      <c r="E8" s="468"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="490"/>
-      <c r="H8" s="490"/>
-      <c r="I8" s="491"/>
-      <c r="J8" s="491"/>
-      <c r="K8" s="491"/>
+      <c r="G8" s="492"/>
+      <c r="H8" s="492"/>
+      <c r="I8" s="496"/>
+      <c r="J8" s="496"/>
+      <c r="K8" s="496"/>
       <c r="L8" s="9"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="492"/>
-      <c r="B9" s="493"/>
-      <c r="C9" s="493"/>
-      <c r="D9" s="493"/>
-      <c r="E9" s="493"/>
+      <c r="A9" s="493"/>
+      <c r="B9" s="468"/>
+      <c r="C9" s="468"/>
+      <c r="D9" s="468"/>
+      <c r="E9" s="468"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="490"/>
-      <c r="H9" s="490"/>
-      <c r="I9" s="491"/>
-      <c r="J9" s="491"/>
-      <c r="K9" s="491"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
       <c r="L9" s="9"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="492"/>
-      <c r="B10" s="493"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="493"/>
-      <c r="E10" s="493"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="468"/>
+      <c r="C10" s="468"/>
+      <c r="D10" s="468"/>
+      <c r="E10" s="468"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="490"/>
-      <c r="H10" s="490"/>
-      <c r="I10" s="491"/>
-      <c r="J10" s="491"/>
-      <c r="K10" s="491"/>
+      <c r="G10" s="492"/>
+      <c r="H10" s="492"/>
+      <c r="I10" s="496"/>
+      <c r="J10" s="496"/>
+      <c r="K10" s="496"/>
       <c r="L10" s="9"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="508"/>
-      <c r="B11" s="509"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="509"/>
-      <c r="E11" s="509"/>
+      <c r="A11" s="480"/>
+      <c r="B11" s="475"/>
+      <c r="C11" s="475"/>
+      <c r="D11" s="475"/>
+      <c r="E11" s="475"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="516"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="503"/>
-      <c r="K11" s="503"/>
+      <c r="G11" s="491"/>
+      <c r="H11" s="491"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="497"/>
+      <c r="K11" s="497"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="510" t="s">
+      <c r="A12" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="511"/>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
-      <c r="F12" s="511"/>
-      <c r="G12" s="511"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="511"/>
-      <c r="J12" s="511"/>
-      <c r="K12" s="511"/>
-      <c r="L12" s="511"/>
-      <c r="M12" s="512"/>
+      <c r="B12" s="486"/>
+      <c r="C12" s="486"/>
+      <c r="D12" s="486"/>
+      <c r="E12" s="486"/>
+      <c r="F12" s="486"/>
+      <c r="G12" s="486"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="486"/>
+      <c r="K12" s="486"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="487"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="513" t="s">
+      <c r="A13" s="488" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="514"/>
-      <c r="C13" s="514"/>
-      <c r="D13" s="514"/>
-      <c r="E13" s="514"/>
-      <c r="F13" s="514"/>
-      <c r="G13" s="514"/>
-      <c r="H13" s="514"/>
-      <c r="I13" s="514"/>
-      <c r="J13" s="514"/>
-      <c r="K13" s="514"/>
-      <c r="L13" s="514"/>
-      <c r="M13" s="515"/>
+      <c r="B13" s="489"/>
+      <c r="C13" s="489"/>
+      <c r="D13" s="489"/>
+      <c r="E13" s="489"/>
+      <c r="F13" s="489"/>
+      <c r="G13" s="489"/>
+      <c r="H13" s="489"/>
+      <c r="I13" s="489"/>
+      <c r="J13" s="489"/>
+      <c r="K13" s="489"/>
+      <c r="L13" s="489"/>
+      <c r="M13" s="490"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="202" t="s">
@@ -12524,515 +12524,515 @@
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="499" t="s">
+      <c r="B15" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="500"/>
-      <c r="D15" s="498" t="s">
+      <c r="C15" s="482"/>
+      <c r="D15" s="494" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="499"/>
-      <c r="F15" s="500"/>
-      <c r="G15" s="498" t="s">
+      <c r="E15" s="481"/>
+      <c r="F15" s="482"/>
+      <c r="G15" s="494" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="499"/>
-      <c r="I15" s="500"/>
-      <c r="J15" s="504" t="s">
+      <c r="H15" s="481"/>
+      <c r="I15" s="482"/>
+      <c r="J15" s="498" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="494" t="s">
+      <c r="K15" s="519" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="519" t="s">
+      <c r="L15" s="473" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="488" t="s">
+      <c r="M15" s="517" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="477"/>
-      <c r="C16" s="478"/>
-      <c r="D16" s="498"/>
-      <c r="E16" s="499"/>
-      <c r="F16" s="500"/>
-      <c r="G16" s="498"/>
-      <c r="H16" s="499"/>
-      <c r="I16" s="500"/>
-      <c r="J16" s="504"/>
-      <c r="K16" s="494"/>
-      <c r="L16" s="519"/>
-      <c r="M16" s="488"/>
+      <c r="B16" s="483"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="494"/>
+      <c r="E16" s="481"/>
+      <c r="F16" s="482"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="481"/>
+      <c r="I16" s="482"/>
+      <c r="J16" s="498"/>
+      <c r="K16" s="519"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="517"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="496" t="s">
+      <c r="A17" s="521" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="497"/>
+      <c r="B17" s="522"/>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="480"/>
-      <c r="E17" s="477"/>
-      <c r="F17" s="478"/>
-      <c r="G17" s="480"/>
-      <c r="H17" s="477"/>
-      <c r="I17" s="478"/>
-      <c r="J17" s="505"/>
-      <c r="K17" s="495"/>
-      <c r="L17" s="520"/>
-      <c r="M17" s="489"/>
+      <c r="D17" s="495"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="495"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="499"/>
+      <c r="K17" s="520"/>
+      <c r="L17" s="474"/>
+      <c r="M17" s="518"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="506"/>
-      <c r="B18" s="507"/>
+      <c r="A18" s="469"/>
+      <c r="B18" s="470"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="493"/>
-      <c r="E18" s="493"/>
-      <c r="F18" s="493"/>
-      <c r="G18" s="493"/>
-      <c r="H18" s="493"/>
-      <c r="I18" s="493"/>
+      <c r="D18" s="468"/>
+      <c r="E18" s="468"/>
+      <c r="F18" s="468"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="468"/>
+      <c r="I18" s="468"/>
       <c r="J18" s="14"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="506"/>
-      <c r="B19" s="507"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="470"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="493"/>
-      <c r="E19" s="493"/>
-      <c r="F19" s="493"/>
-      <c r="G19" s="493"/>
-      <c r="H19" s="493"/>
-      <c r="I19" s="493"/>
+      <c r="D19" s="468"/>
+      <c r="E19" s="468"/>
+      <c r="F19" s="468"/>
+      <c r="G19" s="468"/>
+      <c r="H19" s="468"/>
+      <c r="I19" s="468"/>
       <c r="J19" s="14"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="506"/>
-      <c r="B20" s="507"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="470"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="493"/>
-      <c r="E20" s="493"/>
-      <c r="F20" s="493"/>
-      <c r="G20" s="493"/>
-      <c r="H20" s="493"/>
-      <c r="I20" s="493"/>
+      <c r="D20" s="468"/>
+      <c r="E20" s="468"/>
+      <c r="F20" s="468"/>
+      <c r="G20" s="468"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="468"/>
       <c r="J20" s="14"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="506"/>
-      <c r="B21" s="507"/>
+      <c r="A21" s="469"/>
+      <c r="B21" s="470"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="493"/>
-      <c r="E21" s="493"/>
-      <c r="F21" s="493"/>
-      <c r="G21" s="493"/>
-      <c r="H21" s="493"/>
-      <c r="I21" s="493"/>
+      <c r="D21" s="468"/>
+      <c r="E21" s="468"/>
+      <c r="F21" s="468"/>
+      <c r="G21" s="468"/>
+      <c r="H21" s="468"/>
+      <c r="I21" s="468"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="506"/>
-      <c r="B22" s="507"/>
+      <c r="A22" s="469"/>
+      <c r="B22" s="470"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="493"/>
-      <c r="E22" s="493"/>
-      <c r="F22" s="493"/>
-      <c r="G22" s="493"/>
-      <c r="H22" s="493"/>
-      <c r="I22" s="493"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="468"/>
+      <c r="G22" s="468"/>
+      <c r="H22" s="468"/>
+      <c r="I22" s="468"/>
       <c r="J22" s="14"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="506"/>
-      <c r="B23" s="507"/>
+      <c r="A23" s="469"/>
+      <c r="B23" s="470"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="493"/>
-      <c r="E23" s="493"/>
-      <c r="F23" s="493"/>
-      <c r="G23" s="493"/>
-      <c r="H23" s="493"/>
-      <c r="I23" s="493"/>
+      <c r="D23" s="468"/>
+      <c r="E23" s="468"/>
+      <c r="F23" s="468"/>
+      <c r="G23" s="468"/>
+      <c r="H23" s="468"/>
+      <c r="I23" s="468"/>
       <c r="J23" s="14"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="506"/>
-      <c r="B24" s="507"/>
+      <c r="A24" s="469"/>
+      <c r="B24" s="470"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="493"/>
-      <c r="E24" s="493"/>
-      <c r="F24" s="493"/>
-      <c r="G24" s="493"/>
-      <c r="H24" s="493"/>
-      <c r="I24" s="493"/>
+      <c r="D24" s="468"/>
+      <c r="E24" s="468"/>
+      <c r="F24" s="468"/>
+      <c r="G24" s="468"/>
+      <c r="H24" s="468"/>
+      <c r="I24" s="468"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="506"/>
-      <c r="B25" s="507"/>
+      <c r="A25" s="469"/>
+      <c r="B25" s="470"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="493"/>
-      <c r="E25" s="493"/>
-      <c r="F25" s="493"/>
-      <c r="G25" s="493"/>
-      <c r="H25" s="493"/>
-      <c r="I25" s="493"/>
+      <c r="D25" s="468"/>
+      <c r="E25" s="468"/>
+      <c r="F25" s="468"/>
+      <c r="G25" s="468"/>
+      <c r="H25" s="468"/>
+      <c r="I25" s="468"/>
       <c r="J25" s="14"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="506"/>
-      <c r="B26" s="507"/>
+      <c r="A26" s="469"/>
+      <c r="B26" s="470"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="493"/>
-      <c r="E26" s="493"/>
-      <c r="F26" s="493"/>
-      <c r="G26" s="493"/>
-      <c r="H26" s="493"/>
-      <c r="I26" s="493"/>
+      <c r="D26" s="468"/>
+      <c r="E26" s="468"/>
+      <c r="F26" s="468"/>
+      <c r="G26" s="468"/>
+      <c r="H26" s="468"/>
+      <c r="I26" s="468"/>
       <c r="J26" s="14"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="506"/>
-      <c r="B27" s="507"/>
+      <c r="A27" s="469"/>
+      <c r="B27" s="470"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="493"/>
-      <c r="E27" s="493"/>
-      <c r="F27" s="493"/>
-      <c r="G27" s="493"/>
-      <c r="H27" s="493"/>
-      <c r="I27" s="493"/>
+      <c r="D27" s="468"/>
+      <c r="E27" s="468"/>
+      <c r="F27" s="468"/>
+      <c r="G27" s="468"/>
+      <c r="H27" s="468"/>
+      <c r="I27" s="468"/>
       <c r="J27" s="14"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="506"/>
-      <c r="B28" s="507"/>
+      <c r="A28" s="469"/>
+      <c r="B28" s="470"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="493"/>
-      <c r="E28" s="493"/>
-      <c r="F28" s="493"/>
-      <c r="G28" s="493"/>
-      <c r="H28" s="493"/>
-      <c r="I28" s="493"/>
+      <c r="D28" s="468"/>
+      <c r="E28" s="468"/>
+      <c r="F28" s="468"/>
+      <c r="G28" s="468"/>
+      <c r="H28" s="468"/>
+      <c r="I28" s="468"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="506"/>
-      <c r="B29" s="507"/>
+      <c r="A29" s="469"/>
+      <c r="B29" s="470"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="493"/>
-      <c r="E29" s="493"/>
-      <c r="F29" s="493"/>
-      <c r="G29" s="493"/>
-      <c r="H29" s="493"/>
-      <c r="I29" s="493"/>
+      <c r="D29" s="468"/>
+      <c r="E29" s="468"/>
+      <c r="F29" s="468"/>
+      <c r="G29" s="468"/>
+      <c r="H29" s="468"/>
+      <c r="I29" s="468"/>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="506"/>
-      <c r="B30" s="507"/>
+      <c r="A30" s="469"/>
+      <c r="B30" s="470"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="493"/>
-      <c r="E30" s="493"/>
-      <c r="F30" s="493"/>
-      <c r="G30" s="493"/>
-      <c r="H30" s="493"/>
-      <c r="I30" s="493"/>
+      <c r="D30" s="468"/>
+      <c r="E30" s="468"/>
+      <c r="F30" s="468"/>
+      <c r="G30" s="468"/>
+      <c r="H30" s="468"/>
+      <c r="I30" s="468"/>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="506"/>
-      <c r="B31" s="507"/>
+      <c r="A31" s="469"/>
+      <c r="B31" s="470"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="493"/>
-      <c r="E31" s="493"/>
-      <c r="F31" s="493"/>
-      <c r="G31" s="493"/>
-      <c r="H31" s="493"/>
-      <c r="I31" s="493"/>
+      <c r="D31" s="468"/>
+      <c r="E31" s="468"/>
+      <c r="F31" s="468"/>
+      <c r="G31" s="468"/>
+      <c r="H31" s="468"/>
+      <c r="I31" s="468"/>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="506"/>
-      <c r="B32" s="507"/>
+      <c r="A32" s="469"/>
+      <c r="B32" s="470"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="493"/>
-      <c r="E32" s="493"/>
-      <c r="F32" s="493"/>
-      <c r="G32" s="493"/>
-      <c r="H32" s="493"/>
-      <c r="I32" s="493"/>
+      <c r="D32" s="468"/>
+      <c r="E32" s="468"/>
+      <c r="F32" s="468"/>
+      <c r="G32" s="468"/>
+      <c r="H32" s="468"/>
+      <c r="I32" s="468"/>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="506"/>
-      <c r="B33" s="507"/>
+      <c r="A33" s="469"/>
+      <c r="B33" s="470"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="493"/>
-      <c r="E33" s="493"/>
-      <c r="F33" s="493"/>
-      <c r="G33" s="493"/>
-      <c r="H33" s="493"/>
-      <c r="I33" s="493"/>
+      <c r="D33" s="468"/>
+      <c r="E33" s="468"/>
+      <c r="F33" s="468"/>
+      <c r="G33" s="468"/>
+      <c r="H33" s="468"/>
+      <c r="I33" s="468"/>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="506"/>
-      <c r="B34" s="507"/>
+      <c r="A34" s="469"/>
+      <c r="B34" s="470"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="493"/>
-      <c r="E34" s="493"/>
-      <c r="F34" s="493"/>
-      <c r="G34" s="493"/>
-      <c r="H34" s="493"/>
-      <c r="I34" s="493"/>
+      <c r="D34" s="468"/>
+      <c r="E34" s="468"/>
+      <c r="F34" s="468"/>
+      <c r="G34" s="468"/>
+      <c r="H34" s="468"/>
+      <c r="I34" s="468"/>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:14" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="506"/>
-      <c r="B35" s="507"/>
+      <c r="A35" s="469"/>
+      <c r="B35" s="470"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="493"/>
-      <c r="E35" s="493"/>
-      <c r="F35" s="493"/>
-      <c r="G35" s="493"/>
-      <c r="H35" s="493"/>
-      <c r="I35" s="493"/>
+      <c r="D35" s="468"/>
+      <c r="E35" s="468"/>
+      <c r="F35" s="468"/>
+      <c r="G35" s="468"/>
+      <c r="H35" s="468"/>
+      <c r="I35" s="468"/>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="506"/>
-      <c r="B36" s="507"/>
+      <c r="A36" s="469"/>
+      <c r="B36" s="470"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="493"/>
-      <c r="E36" s="493"/>
-      <c r="F36" s="493"/>
-      <c r="G36" s="493"/>
-      <c r="H36" s="493"/>
-      <c r="I36" s="493"/>
+      <c r="D36" s="468"/>
+      <c r="E36" s="468"/>
+      <c r="F36" s="468"/>
+      <c r="G36" s="468"/>
+      <c r="H36" s="468"/>
+      <c r="I36" s="468"/>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="506"/>
-      <c r="B37" s="507"/>
+      <c r="A37" s="469"/>
+      <c r="B37" s="470"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="493"/>
-      <c r="E37" s="493"/>
-      <c r="F37" s="493"/>
-      <c r="G37" s="493"/>
-      <c r="H37" s="493"/>
-      <c r="I37" s="493"/>
+      <c r="D37" s="468"/>
+      <c r="E37" s="468"/>
+      <c r="F37" s="468"/>
+      <c r="G37" s="468"/>
+      <c r="H37" s="468"/>
+      <c r="I37" s="468"/>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="506"/>
-      <c r="B38" s="507"/>
+      <c r="A38" s="469"/>
+      <c r="B38" s="470"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="493"/>
-      <c r="E38" s="493"/>
-      <c r="F38" s="493"/>
-      <c r="G38" s="493"/>
-      <c r="H38" s="493"/>
-      <c r="I38" s="493"/>
+      <c r="D38" s="468"/>
+      <c r="E38" s="468"/>
+      <c r="F38" s="468"/>
+      <c r="G38" s="468"/>
+      <c r="H38" s="468"/>
+      <c r="I38" s="468"/>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="506"/>
-      <c r="B39" s="507"/>
+      <c r="A39" s="469"/>
+      <c r="B39" s="470"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="493"/>
-      <c r="E39" s="493"/>
-      <c r="F39" s="493"/>
-      <c r="G39" s="493"/>
-      <c r="H39" s="493"/>
-      <c r="I39" s="493"/>
+      <c r="D39" s="468"/>
+      <c r="E39" s="468"/>
+      <c r="F39" s="468"/>
+      <c r="G39" s="468"/>
+      <c r="H39" s="468"/>
+      <c r="I39" s="468"/>
       <c r="J39" s="14"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="506"/>
-      <c r="B40" s="507"/>
+      <c r="A40" s="469"/>
+      <c r="B40" s="470"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="493"/>
-      <c r="E40" s="493"/>
-      <c r="F40" s="493"/>
-      <c r="G40" s="493"/>
-      <c r="H40" s="493"/>
-      <c r="I40" s="493"/>
+      <c r="D40" s="468"/>
+      <c r="E40" s="468"/>
+      <c r="F40" s="468"/>
+      <c r="G40" s="468"/>
+      <c r="H40" s="468"/>
+      <c r="I40" s="468"/>
       <c r="J40" s="14"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="506"/>
-      <c r="B41" s="507"/>
+      <c r="A41" s="469"/>
+      <c r="B41" s="470"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="493"/>
-      <c r="E41" s="493"/>
-      <c r="F41" s="493"/>
-      <c r="G41" s="493"/>
-      <c r="H41" s="493"/>
-      <c r="I41" s="493"/>
+      <c r="D41" s="468"/>
+      <c r="E41" s="468"/>
+      <c r="F41" s="468"/>
+      <c r="G41" s="468"/>
+      <c r="H41" s="468"/>
+      <c r="I41" s="468"/>
       <c r="J41" s="14"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="506"/>
-      <c r="B42" s="507"/>
+      <c r="A42" s="469"/>
+      <c r="B42" s="470"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="493"/>
-      <c r="E42" s="493"/>
-      <c r="F42" s="493"/>
-      <c r="G42" s="493"/>
-      <c r="H42" s="493"/>
-      <c r="I42" s="493"/>
+      <c r="D42" s="468"/>
+      <c r="E42" s="468"/>
+      <c r="F42" s="468"/>
+      <c r="G42" s="468"/>
+      <c r="H42" s="468"/>
+      <c r="I42" s="468"/>
       <c r="J42" s="14"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="506"/>
-      <c r="B43" s="507"/>
+      <c r="A43" s="469"/>
+      <c r="B43" s="470"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="493"/>
-      <c r="E43" s="493"/>
-      <c r="F43" s="493"/>
-      <c r="G43" s="493"/>
-      <c r="H43" s="493"/>
-      <c r="I43" s="493"/>
+      <c r="D43" s="468"/>
+      <c r="E43" s="468"/>
+      <c r="F43" s="468"/>
+      <c r="G43" s="468"/>
+      <c r="H43" s="468"/>
+      <c r="I43" s="468"/>
       <c r="J43" s="14"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="506"/>
-      <c r="B44" s="507"/>
+      <c r="A44" s="469"/>
+      <c r="B44" s="470"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="493"/>
-      <c r="E44" s="493"/>
-      <c r="F44" s="493"/>
-      <c r="G44" s="493"/>
-      <c r="H44" s="493"/>
-      <c r="I44" s="493"/>
+      <c r="D44" s="468"/>
+      <c r="E44" s="468"/>
+      <c r="F44" s="468"/>
+      <c r="G44" s="468"/>
+      <c r="H44" s="468"/>
+      <c r="I44" s="468"/>
       <c r="J44" s="14"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="517"/>
-      <c r="B45" s="518"/>
+      <c r="A45" s="471"/>
+      <c r="B45" s="472"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="509"/>
-      <c r="E45" s="509"/>
-      <c r="F45" s="509"/>
-      <c r="G45" s="509"/>
-      <c r="H45" s="509"/>
-      <c r="I45" s="509"/>
+      <c r="D45" s="475"/>
+      <c r="E45" s="475"/>
+      <c r="F45" s="475"/>
+      <c r="G45" s="475"/>
+      <c r="H45" s="475"/>
+      <c r="I45" s="475"/>
       <c r="J45" s="15"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="521" t="s">
+      <c r="A46" s="476" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="522"/>
-      <c r="C46" s="522"/>
-      <c r="D46" s="522"/>
-      <c r="E46" s="522"/>
-      <c r="F46" s="522"/>
-      <c r="G46" s="522"/>
-      <c r="H46" s="522"/>
-      <c r="I46" s="522"/>
-      <c r="J46" s="522"/>
-      <c r="K46" s="523"/>
-      <c r="L46" s="523"/>
-      <c r="M46" s="524"/>
+      <c r="B46" s="477"/>
+      <c r="C46" s="477"/>
+      <c r="D46" s="477"/>
+      <c r="E46" s="477"/>
+      <c r="F46" s="477"/>
+      <c r="G46" s="477"/>
+      <c r="H46" s="477"/>
+      <c r="I46" s="477"/>
+      <c r="J46" s="477"/>
+      <c r="K46" s="478"/>
+      <c r="L46" s="478"/>
+      <c r="M46" s="479"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="269" t="s">
+      <c r="A47" s="445" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="270"/>
-      <c r="C47" s="271"/>
-      <c r="D47" s="469"/>
-      <c r="E47" s="470"/>
-      <c r="F47" s="470"/>
-      <c r="G47" s="470"/>
-      <c r="H47" s="471"/>
+      <c r="B47" s="446"/>
+      <c r="C47" s="447"/>
+      <c r="D47" s="501"/>
+      <c r="E47" s="502"/>
+      <c r="F47" s="502"/>
+      <c r="G47" s="502"/>
+      <c r="H47" s="503"/>
       <c r="I47" s="228" t="s">
         <v>393</v>
       </c>
@@ -13043,21 +13043,21 @@
       <c r="N47" s="231"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="468" t="s">
+      <c r="A48" s="500" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="468"/>
-      <c r="C48" s="468"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
-      <c r="F48" s="468"/>
-      <c r="G48" s="468"/>
-      <c r="H48" s="468"/>
-      <c r="I48" s="468"/>
-      <c r="J48" s="468"/>
-      <c r="K48" s="468"/>
-      <c r="L48" s="468"/>
-      <c r="M48" s="468"/>
+      <c r="B48" s="500"/>
+      <c r="C48" s="500"/>
+      <c r="D48" s="500"/>
+      <c r="E48" s="500"/>
+      <c r="F48" s="500"/>
+      <c r="G48" s="500"/>
+      <c r="H48" s="500"/>
+      <c r="I48" s="500"/>
+      <c r="J48" s="500"/>
+      <c r="K48" s="500"/>
+      <c r="L48" s="500"/>
+      <c r="M48" s="500"/>
       <c r="N48" s="234"/>
     </row>
   </sheetData>
@@ -13071,6 +13071,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:F37"/>
@@ -13095,108 +13197,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13213,7 +13213,7 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="I48" sqref="A42:K48"/>
     </sheetView>
   </sheetViews>
@@ -13234,564 +13234,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="552"/>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="554"/>
+      <c r="A1" s="546"/>
+      <c r="B1" s="547"/>
+      <c r="C1" s="547"/>
+      <c r="D1" s="547"/>
+      <c r="E1" s="547"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="548"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="572" t="s">
+      <c r="A2" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="573"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="573"/>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="573"/>
-      <c r="J2" s="573"/>
-      <c r="K2" s="574"/>
+      <c r="B2" s="572"/>
+      <c r="C2" s="572"/>
+      <c r="D2" s="572"/>
+      <c r="E2" s="572"/>
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="572"/>
+      <c r="J2" s="572"/>
+      <c r="K2" s="573"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="558" t="s">
+      <c r="A3" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="560" t="s">
+      <c r="B3" s="556" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="475" t="s">
+      <c r="C3" s="556"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="507" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="577" t="s">
+      <c r="F3" s="508"/>
+      <c r="G3" s="576" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="479" t="s">
+      <c r="H3" s="509" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="567"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="568"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="567"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="559"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="494"/>
-      <c r="H4" s="569"/>
-      <c r="I4" s="555"/>
-      <c r="J4" s="555"/>
-      <c r="K4" s="570"/>
+      <c r="A4" s="543"/>
+      <c r="B4" s="558"/>
+      <c r="C4" s="558"/>
+      <c r="D4" s="559"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="519"/>
+      <c r="H4" s="568"/>
+      <c r="I4" s="549"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="569"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="576"/>
+      <c r="B5" s="574"/>
+      <c r="C5" s="574"/>
+      <c r="D5" s="575"/>
       <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="495"/>
-      <c r="H5" s="571"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="325"/>
+      <c r="G5" s="520"/>
+      <c r="H5" s="570"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="432"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="549"/>
-      <c r="B6" s="550"/>
-      <c r="C6" s="550"/>
-      <c r="D6" s="551"/>
+      <c r="A6" s="563"/>
+      <c r="B6" s="564"/>
+      <c r="C6" s="564"/>
+      <c r="D6" s="565"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="543"/>
-      <c r="I6" s="544"/>
-      <c r="J6" s="544"/>
-      <c r="K6" s="545"/>
+      <c r="H6" s="552"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="554"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="549"/>
-      <c r="B7" s="550"/>
-      <c r="C7" s="550"/>
-      <c r="D7" s="551"/>
+      <c r="A7" s="563"/>
+      <c r="B7" s="564"/>
+      <c r="C7" s="564"/>
+      <c r="D7" s="565"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="543"/>
-      <c r="I7" s="544"/>
-      <c r="J7" s="544"/>
-      <c r="K7" s="545"/>
+      <c r="H7" s="552"/>
+      <c r="I7" s="553"/>
+      <c r="J7" s="553"/>
+      <c r="K7" s="554"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="549"/>
-      <c r="B8" s="550"/>
-      <c r="C8" s="550"/>
-      <c r="D8" s="551"/>
+      <c r="A8" s="563"/>
+      <c r="B8" s="564"/>
+      <c r="C8" s="564"/>
+      <c r="D8" s="565"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="543"/>
-      <c r="I8" s="544"/>
-      <c r="J8" s="544"/>
-      <c r="K8" s="545"/>
+      <c r="H8" s="552"/>
+      <c r="I8" s="553"/>
+      <c r="J8" s="553"/>
+      <c r="K8" s="554"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="549"/>
-      <c r="B9" s="550"/>
-      <c r="C9" s="550"/>
-      <c r="D9" s="551"/>
+      <c r="A9" s="563"/>
+      <c r="B9" s="564"/>
+      <c r="C9" s="564"/>
+      <c r="D9" s="565"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="543"/>
-      <c r="I9" s="544"/>
-      <c r="J9" s="544"/>
-      <c r="K9" s="545"/>
+      <c r="H9" s="552"/>
+      <c r="I9" s="553"/>
+      <c r="J9" s="553"/>
+      <c r="K9" s="554"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="549"/>
-      <c r="B10" s="550"/>
-      <c r="C10" s="550"/>
-      <c r="D10" s="551"/>
+      <c r="A10" s="563"/>
+      <c r="B10" s="564"/>
+      <c r="C10" s="564"/>
+      <c r="D10" s="565"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="543"/>
-      <c r="I10" s="544"/>
-      <c r="J10" s="544"/>
-      <c r="K10" s="545"/>
+      <c r="H10" s="552"/>
+      <c r="I10" s="553"/>
+      <c r="J10" s="553"/>
+      <c r="K10" s="554"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="549"/>
-      <c r="B11" s="550"/>
-      <c r="C11" s="550"/>
-      <c r="D11" s="551"/>
+      <c r="A11" s="563"/>
+      <c r="B11" s="564"/>
+      <c r="C11" s="564"/>
+      <c r="D11" s="565"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="543"/>
-      <c r="I11" s="544"/>
-      <c r="J11" s="544"/>
-      <c r="K11" s="545"/>
+      <c r="H11" s="552"/>
+      <c r="I11" s="553"/>
+      <c r="J11" s="553"/>
+      <c r="K11" s="554"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="564"/>
-      <c r="B12" s="565"/>
-      <c r="C12" s="565"/>
-      <c r="D12" s="566"/>
+      <c r="A12" s="560"/>
+      <c r="B12" s="561"/>
+      <c r="C12" s="561"/>
+      <c r="D12" s="562"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="578"/>
-      <c r="I12" s="579"/>
-      <c r="J12" s="579"/>
-      <c r="K12" s="580"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="526"/>
+      <c r="J12" s="526"/>
+      <c r="K12" s="527"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="510" t="s">
+      <c r="A13" s="485" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="511"/>
-      <c r="C13" s="511"/>
-      <c r="D13" s="511"/>
-      <c r="E13" s="511"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="511"/>
-      <c r="K13" s="512"/>
+      <c r="B13" s="486"/>
+      <c r="C13" s="486"/>
+      <c r="D13" s="486"/>
+      <c r="E13" s="486"/>
+      <c r="F13" s="486"/>
+      <c r="G13" s="486"/>
+      <c r="H13" s="486"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="486"/>
+      <c r="K13" s="487"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="581" t="s">
+      <c r="A14" s="528" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="582"/>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="582"/>
-      <c r="G14" s="582"/>
-      <c r="H14" s="582"/>
-      <c r="I14" s="582"/>
-      <c r="J14" s="582"/>
-      <c r="K14" s="583"/>
+      <c r="B14" s="529"/>
+      <c r="C14" s="529"/>
+      <c r="D14" s="529"/>
+      <c r="E14" s="529"/>
+      <c r="F14" s="529"/>
+      <c r="G14" s="529"/>
+      <c r="H14" s="529"/>
+      <c r="I14" s="529"/>
+      <c r="J14" s="529"/>
+      <c r="K14" s="530"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="559" t="s">
+      <c r="A15" s="543" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="499" t="s">
+      <c r="B15" s="481" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="555"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="499" t="s">
+      <c r="C15" s="549"/>
+      <c r="D15" s="550"/>
+      <c r="E15" s="481" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="500"/>
-      <c r="G15" s="494" t="s">
+      <c r="F15" s="482"/>
+      <c r="G15" s="519" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="504" t="s">
+      <c r="H15" s="498" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="498" t="s">
+      <c r="I15" s="494" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="555"/>
-      <c r="K15" s="570"/>
+      <c r="J15" s="549"/>
+      <c r="K15" s="569"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="559"/>
-      <c r="B16" s="555"/>
-      <c r="C16" s="555"/>
-      <c r="D16" s="556"/>
-      <c r="E16" s="477"/>
-      <c r="F16" s="478"/>
-      <c r="G16" s="494"/>
-      <c r="H16" s="504"/>
-      <c r="I16" s="569"/>
-      <c r="J16" s="555"/>
-      <c r="K16" s="570"/>
+      <c r="A16" s="543"/>
+      <c r="B16" s="549"/>
+      <c r="C16" s="549"/>
+      <c r="D16" s="550"/>
+      <c r="E16" s="483"/>
+      <c r="F16" s="484"/>
+      <c r="G16" s="519"/>
+      <c r="H16" s="498"/>
+      <c r="I16" s="568"/>
+      <c r="J16" s="549"/>
+      <c r="K16" s="569"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="324"/>
-      <c r="C17" s="324"/>
-      <c r="D17" s="557"/>
+      <c r="B17" s="431"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="551"/>
       <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="495"/>
-      <c r="H17" s="505"/>
-      <c r="I17" s="571"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="325"/>
+      <c r="G17" s="520"/>
+      <c r="H17" s="499"/>
+      <c r="I17" s="570"/>
+      <c r="J17" s="431"/>
+      <c r="K17" s="432"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="530"/>
-      <c r="B18" s="531"/>
-      <c r="C18" s="531"/>
-      <c r="D18" s="532"/>
+      <c r="A18" s="531"/>
+      <c r="B18" s="532"/>
+      <c r="C18" s="532"/>
+      <c r="D18" s="533"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="525"/>
-      <c r="J18" s="526"/>
-      <c r="K18" s="527"/>
+      <c r="I18" s="534"/>
+      <c r="J18" s="535"/>
+      <c r="K18" s="536"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="530"/>
-      <c r="B19" s="531"/>
-      <c r="C19" s="531"/>
-      <c r="D19" s="532"/>
+      <c r="A19" s="531"/>
+      <c r="B19" s="532"/>
+      <c r="C19" s="532"/>
+      <c r="D19" s="533"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="30"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="525"/>
-      <c r="J19" s="528"/>
-      <c r="K19" s="529"/>
+      <c r="I19" s="534"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="545"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="530"/>
-      <c r="B20" s="531"/>
-      <c r="C20" s="531"/>
-      <c r="D20" s="532"/>
+      <c r="A20" s="531"/>
+      <c r="B20" s="532"/>
+      <c r="C20" s="532"/>
+      <c r="D20" s="533"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="525"/>
-      <c r="J20" s="528"/>
-      <c r="K20" s="529"/>
+      <c r="I20" s="534"/>
+      <c r="J20" s="544"/>
+      <c r="K20" s="545"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="530"/>
-      <c r="B21" s="531"/>
-      <c r="C21" s="531"/>
-      <c r="D21" s="532"/>
+      <c r="A21" s="531"/>
+      <c r="B21" s="532"/>
+      <c r="C21" s="532"/>
+      <c r="D21" s="533"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="30"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="525"/>
-      <c r="J21" s="528"/>
-      <c r="K21" s="529"/>
+      <c r="I21" s="534"/>
+      <c r="J21" s="544"/>
+      <c r="K21" s="545"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="530"/>
-      <c r="B22" s="531"/>
-      <c r="C22" s="531"/>
-      <c r="D22" s="532"/>
+      <c r="A22" s="531"/>
+      <c r="B22" s="532"/>
+      <c r="C22" s="532"/>
+      <c r="D22" s="533"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="525"/>
-      <c r="J22" s="528"/>
-      <c r="K22" s="529"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="544"/>
+      <c r="K22" s="545"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="530"/>
-      <c r="B23" s="531"/>
-      <c r="C23" s="531"/>
-      <c r="D23" s="532"/>
+      <c r="A23" s="531"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="532"/>
+      <c r="D23" s="533"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="30"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="525"/>
-      <c r="J23" s="528"/>
-      <c r="K23" s="529"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="544"/>
+      <c r="K23" s="545"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="530"/>
-      <c r="B24" s="531"/>
-      <c r="C24" s="531"/>
-      <c r="D24" s="532"/>
+      <c r="A24" s="531"/>
+      <c r="B24" s="532"/>
+      <c r="C24" s="532"/>
+      <c r="D24" s="533"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="30"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="525"/>
-      <c r="J24" s="528"/>
-      <c r="K24" s="529"/>
+      <c r="I24" s="534"/>
+      <c r="J24" s="544"/>
+      <c r="K24" s="545"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="530"/>
-      <c r="B25" s="531"/>
-      <c r="C25" s="531"/>
-      <c r="D25" s="532"/>
+      <c r="A25" s="531"/>
+      <c r="B25" s="532"/>
+      <c r="C25" s="532"/>
+      <c r="D25" s="533"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="525"/>
-      <c r="J25" s="528"/>
-      <c r="K25" s="529"/>
+      <c r="I25" s="534"/>
+      <c r="J25" s="544"/>
+      <c r="K25" s="545"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="530"/>
-      <c r="B26" s="531"/>
-      <c r="C26" s="531"/>
-      <c r="D26" s="532"/>
+      <c r="A26" s="531"/>
+      <c r="B26" s="532"/>
+      <c r="C26" s="532"/>
+      <c r="D26" s="533"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="525"/>
-      <c r="J26" s="526"/>
-      <c r="K26" s="527"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
+      <c r="K26" s="536"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="530"/>
-      <c r="B27" s="531"/>
-      <c r="C27" s="531"/>
-      <c r="D27" s="532"/>
+      <c r="A27" s="531"/>
+      <c r="B27" s="532"/>
+      <c r="C27" s="532"/>
+      <c r="D27" s="533"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="30"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="525"/>
-      <c r="J27" s="526"/>
-      <c r="K27" s="527"/>
+      <c r="I27" s="534"/>
+      <c r="J27" s="535"/>
+      <c r="K27" s="536"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="530"/>
-      <c r="B28" s="531"/>
-      <c r="C28" s="531"/>
-      <c r="D28" s="532"/>
+      <c r="A28" s="531"/>
+      <c r="B28" s="532"/>
+      <c r="C28" s="532"/>
+      <c r="D28" s="533"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="30"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="525"/>
-      <c r="J28" s="526"/>
-      <c r="K28" s="527"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
+      <c r="K28" s="536"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="530"/>
-      <c r="B29" s="531"/>
-      <c r="C29" s="531"/>
-      <c r="D29" s="532"/>
+      <c r="A29" s="531"/>
+      <c r="B29" s="532"/>
+      <c r="C29" s="532"/>
+      <c r="D29" s="533"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="30"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="525"/>
-      <c r="J29" s="526"/>
-      <c r="K29" s="527"/>
+      <c r="I29" s="534"/>
+      <c r="J29" s="535"/>
+      <c r="K29" s="536"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="530"/>
-      <c r="B30" s="531"/>
-      <c r="C30" s="531"/>
-      <c r="D30" s="532"/>
+      <c r="A30" s="531"/>
+      <c r="B30" s="532"/>
+      <c r="C30" s="532"/>
+      <c r="D30" s="533"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="525"/>
-      <c r="J30" s="526"/>
-      <c r="K30" s="527"/>
+      <c r="I30" s="534"/>
+      <c r="J30" s="535"/>
+      <c r="K30" s="536"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="530"/>
-      <c r="B31" s="531"/>
-      <c r="C31" s="531"/>
-      <c r="D31" s="532"/>
+      <c r="A31" s="531"/>
+      <c r="B31" s="532"/>
+      <c r="C31" s="532"/>
+      <c r="D31" s="533"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="30"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="525"/>
-      <c r="J31" s="528"/>
-      <c r="K31" s="529"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="544"/>
+      <c r="K31" s="545"/>
     </row>
     <row r="32" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="530"/>
-      <c r="B32" s="531"/>
-      <c r="C32" s="531"/>
-      <c r="D32" s="532"/>
+      <c r="A32" s="531"/>
+      <c r="B32" s="532"/>
+      <c r="C32" s="532"/>
+      <c r="D32" s="533"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="525"/>
-      <c r="J32" s="528"/>
-      <c r="K32" s="529"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="544"/>
+      <c r="K32" s="545"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="530"/>
-      <c r="B33" s="531"/>
-      <c r="C33" s="531"/>
-      <c r="D33" s="532"/>
+      <c r="A33" s="531"/>
+      <c r="B33" s="532"/>
+      <c r="C33" s="532"/>
+      <c r="D33" s="533"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="30"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="528"/>
-      <c r="K33" s="529"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="544"/>
+      <c r="K33" s="545"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="530"/>
-      <c r="B34" s="531"/>
-      <c r="C34" s="531"/>
-      <c r="D34" s="532"/>
+      <c r="A34" s="531"/>
+      <c r="B34" s="532"/>
+      <c r="C34" s="532"/>
+      <c r="D34" s="533"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="30"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="525"/>
-      <c r="J34" s="528"/>
-      <c r="K34" s="529"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="544"/>
+      <c r="K34" s="545"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="530"/>
-      <c r="B35" s="531"/>
-      <c r="C35" s="531"/>
-      <c r="D35" s="532"/>
+      <c r="A35" s="531"/>
+      <c r="B35" s="532"/>
+      <c r="C35" s="532"/>
+      <c r="D35" s="533"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="30"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="526"/>
-      <c r="K35" s="527"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
+      <c r="K35" s="536"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="530"/>
-      <c r="B36" s="531"/>
-      <c r="C36" s="531"/>
-      <c r="D36" s="532"/>
+      <c r="A36" s="531"/>
+      <c r="B36" s="532"/>
+      <c r="C36" s="532"/>
+      <c r="D36" s="533"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="30"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="525"/>
-      <c r="J36" s="526"/>
-      <c r="K36" s="527"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="536"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="530"/>
-      <c r="B37" s="531"/>
-      <c r="C37" s="531"/>
-      <c r="D37" s="532"/>
+      <c r="A37" s="531"/>
+      <c r="B37" s="532"/>
+      <c r="C37" s="532"/>
+      <c r="D37" s="533"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="30"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="526"/>
-      <c r="K37" s="527"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="536"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="584"/>
-      <c r="B38" s="585"/>
-      <c r="C38" s="585"/>
-      <c r="D38" s="586"/>
+      <c r="A38" s="537"/>
+      <c r="B38" s="538"/>
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
-      <c r="K38" s="589"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="541"/>
+      <c r="K38" s="542"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="273"/>
-      <c r="D39" s="273"/>
-      <c r="E39" s="273"/>
-      <c r="F39" s="273"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="273"/>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="274"/>
+      <c r="B39" s="449"/>
+      <c r="C39" s="449"/>
+      <c r="D39" s="449"/>
+      <c r="E39" s="449"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="449"/>
+      <c r="H39" s="449"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="449"/>
+      <c r="K39" s="450"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="533" t="s">
+      <c r="A40" s="585" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="534"/>
-      <c r="C40" s="534"/>
-      <c r="D40" s="534"/>
-      <c r="E40" s="534"/>
-      <c r="F40" s="534"/>
-      <c r="G40" s="534"/>
-      <c r="H40" s="534"/>
-      <c r="I40" s="534"/>
-      <c r="J40" s="534"/>
-      <c r="K40" s="535"/>
+      <c r="B40" s="586"/>
+      <c r="C40" s="586"/>
+      <c r="D40" s="586"/>
+      <c r="E40" s="586"/>
+      <c r="F40" s="586"/>
+      <c r="G40" s="586"/>
+      <c r="H40" s="586"/>
+      <c r="I40" s="586"/>
+      <c r="J40" s="586"/>
+      <c r="K40" s="587"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="141" t="s">
@@ -13803,143 +13803,143 @@
       <c r="C41" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="546" t="s">
+      <c r="D41" s="577" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="546"/>
-      <c r="F41" s="546"/>
-      <c r="G41" s="546"/>
-      <c r="H41" s="547"/>
+      <c r="E41" s="577"/>
+      <c r="F41" s="577"/>
+      <c r="G41" s="577"/>
+      <c r="H41" s="578"/>
       <c r="I41" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="546" t="s">
+      <c r="J41" s="577" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="548"/>
+      <c r="K41" s="584"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="538"/>
-      <c r="B42" s="539"/>
-      <c r="C42" s="540"/>
-      <c r="D42" s="541"/>
-      <c r="E42" s="541"/>
-      <c r="F42" s="541"/>
-      <c r="G42" s="541"/>
-      <c r="H42" s="539"/>
-      <c r="I42" s="540"/>
-      <c r="J42" s="541"/>
-      <c r="K42" s="542"/>
+      <c r="A42" s="582"/>
+      <c r="B42" s="583"/>
+      <c r="C42" s="579"/>
+      <c r="D42" s="580"/>
+      <c r="E42" s="580"/>
+      <c r="F42" s="580"/>
+      <c r="G42" s="580"/>
+      <c r="H42" s="583"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
+      <c r="K42" s="581"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="538"/>
-      <c r="B43" s="539"/>
-      <c r="C43" s="540"/>
-      <c r="D43" s="541"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="541"/>
-      <c r="G43" s="541"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
-      <c r="K43" s="542"/>
+      <c r="A43" s="582"/>
+      <c r="B43" s="583"/>
+      <c r="C43" s="579"/>
+      <c r="D43" s="580"/>
+      <c r="E43" s="580"/>
+      <c r="F43" s="580"/>
+      <c r="G43" s="580"/>
+      <c r="H43" s="583"/>
+      <c r="I43" s="579"/>
+      <c r="J43" s="580"/>
+      <c r="K43" s="581"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="538"/>
-      <c r="B44" s="539"/>
-      <c r="C44" s="540"/>
-      <c r="D44" s="541"/>
-      <c r="E44" s="541"/>
-      <c r="F44" s="541"/>
-      <c r="G44" s="541"/>
-      <c r="H44" s="539"/>
-      <c r="I44" s="540"/>
-      <c r="J44" s="541"/>
-      <c r="K44" s="542"/>
+      <c r="A44" s="582"/>
+      <c r="B44" s="583"/>
+      <c r="C44" s="579"/>
+      <c r="D44" s="580"/>
+      <c r="E44" s="580"/>
+      <c r="F44" s="580"/>
+      <c r="G44" s="580"/>
+      <c r="H44" s="583"/>
+      <c r="I44" s="579"/>
+      <c r="J44" s="580"/>
+      <c r="K44" s="581"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="538"/>
-      <c r="B45" s="539"/>
-      <c r="C45" s="540"/>
-      <c r="D45" s="541"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="541"/>
-      <c r="G45" s="541"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
-      <c r="K45" s="542"/>
+      <c r="A45" s="582"/>
+      <c r="B45" s="583"/>
+      <c r="C45" s="579"/>
+      <c r="D45" s="580"/>
+      <c r="E45" s="580"/>
+      <c r="F45" s="580"/>
+      <c r="G45" s="580"/>
+      <c r="H45" s="583"/>
+      <c r="I45" s="579"/>
+      <c r="J45" s="580"/>
+      <c r="K45" s="581"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="538"/>
-      <c r="B46" s="539"/>
-      <c r="C46" s="540"/>
-      <c r="D46" s="541"/>
-      <c r="E46" s="541"/>
-      <c r="F46" s="541"/>
-      <c r="G46" s="541"/>
-      <c r="H46" s="539"/>
-      <c r="I46" s="540"/>
-      <c r="J46" s="541"/>
-      <c r="K46" s="542"/>
+      <c r="A46" s="582"/>
+      <c r="B46" s="583"/>
+      <c r="C46" s="579"/>
+      <c r="D46" s="580"/>
+      <c r="E46" s="580"/>
+      <c r="F46" s="580"/>
+      <c r="G46" s="580"/>
+      <c r="H46" s="583"/>
+      <c r="I46" s="579"/>
+      <c r="J46" s="580"/>
+      <c r="K46" s="581"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="538"/>
-      <c r="B47" s="539"/>
-      <c r="C47" s="540"/>
-      <c r="D47" s="541"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="541"/>
-      <c r="G47" s="541"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
-      <c r="K47" s="542"/>
+      <c r="A47" s="582"/>
+      <c r="B47" s="583"/>
+      <c r="C47" s="579"/>
+      <c r="D47" s="580"/>
+      <c r="E47" s="580"/>
+      <c r="F47" s="580"/>
+      <c r="G47" s="580"/>
+      <c r="H47" s="583"/>
+      <c r="I47" s="579"/>
+      <c r="J47" s="580"/>
+      <c r="K47" s="581"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="538"/>
-      <c r="B48" s="539"/>
-      <c r="C48" s="540"/>
-      <c r="D48" s="541"/>
-      <c r="E48" s="541"/>
-      <c r="F48" s="541"/>
-      <c r="G48" s="541"/>
-      <c r="H48" s="539"/>
-      <c r="I48" s="540"/>
-      <c r="J48" s="541"/>
-      <c r="K48" s="542"/>
+      <c r="A48" s="582"/>
+      <c r="B48" s="583"/>
+      <c r="C48" s="579"/>
+      <c r="D48" s="580"/>
+      <c r="E48" s="580"/>
+      <c r="F48" s="580"/>
+      <c r="G48" s="580"/>
+      <c r="H48" s="583"/>
+      <c r="I48" s="579"/>
+      <c r="J48" s="580"/>
+      <c r="K48" s="581"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="272" t="s">
+      <c r="A49" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="273"/>
-      <c r="C49" s="273"/>
-      <c r="D49" s="273"/>
-      <c r="E49" s="273"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
-      <c r="K49" s="512"/>
+      <c r="B49" s="449"/>
+      <c r="C49" s="449"/>
+      <c r="D49" s="449"/>
+      <c r="E49" s="449"/>
+      <c r="F49" s="449"/>
+      <c r="G49" s="449"/>
+      <c r="H49" s="449"/>
+      <c r="I49" s="449"/>
+      <c r="J49" s="449"/>
+      <c r="K49" s="487"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="269" t="s">
+      <c r="A50" s="445" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="271"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="470"/>
-      <c r="E50" s="470"/>
-      <c r="F50" s="471"/>
-      <c r="G50" s="536" t="s">
+      <c r="B50" s="447"/>
+      <c r="C50" s="501"/>
+      <c r="D50" s="502"/>
+      <c r="E50" s="502"/>
+      <c r="F50" s="503"/>
+      <c r="G50" s="588" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="537"/>
-      <c r="I50" s="469"/>
-      <c r="J50" s="470"/>
-      <c r="K50" s="471"/>
+      <c r="H50" s="589"/>
+      <c r="I50" s="501"/>
+      <c r="J50" s="502"/>
+      <c r="K50" s="503"/>
       <c r="L50" s="232"/>
       <c r="M50" s="232"/>
     </row>
@@ -13960,6 +13960,84 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="102">
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A39:K39"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="A14:K14"/>
@@ -13984,84 +14062,6 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14099,35 +14099,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="722"/>
-      <c r="B1" s="723"/>
-      <c r="C1" s="723"/>
-      <c r="D1" s="723"/>
-      <c r="E1" s="723"/>
-      <c r="F1" s="723"/>
-      <c r="G1" s="723"/>
-      <c r="H1" s="723"/>
-      <c r="I1" s="723"/>
-      <c r="J1" s="723"/>
-      <c r="K1" s="723"/>
-      <c r="L1" s="723"/>
-      <c r="M1" s="724"/>
+      <c r="A1" s="598"/>
+      <c r="B1" s="599"/>
+      <c r="C1" s="599"/>
+      <c r="D1" s="599"/>
+      <c r="E1" s="599"/>
+      <c r="F1" s="599"/>
+      <c r="G1" s="599"/>
+      <c r="H1" s="599"/>
+      <c r="I1" s="599"/>
+      <c r="J1" s="599"/>
+      <c r="K1" s="599"/>
+      <c r="L1" s="599"/>
+      <c r="M1" s="600"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="698" t="s">
+      <c r="A2" s="624" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="699"/>
-      <c r="C2" s="727" t="s">
+      <c r="B2" s="625"/>
+      <c r="C2" s="603" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="727"/>
-      <c r="E2" s="727"/>
-      <c r="F2" s="728"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="603"/>
+      <c r="F2" s="604"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="725"/>
+      <c r="I2" s="601"/>
+      <c r="J2" s="601"/>
       <c r="K2" s="37"/>
       <c r="L2" s="37"/>
       <c r="M2" s="38"/>
@@ -14135,16 +14135,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="714" t="s">
+      <c r="C3" s="607" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="714"/>
-      <c r="E3" s="714"/>
-      <c r="F3" s="715"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="607"/>
+      <c r="F3" s="608"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="726"/>
-      <c r="J3" s="726"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="602"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="43"/>
@@ -14152,45 +14152,45 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="607" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="714"/>
-      <c r="E4" s="714"/>
-      <c r="F4" s="715"/>
+      <c r="D4" s="607"/>
+      <c r="E4" s="607"/>
+      <c r="F4" s="608"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="714"/>
-      <c r="D5" s="714"/>
-      <c r="E5" s="714"/>
-      <c r="F5" s="715"/>
-      <c r="G5" s="593"/>
-      <c r="H5" s="593"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="593"/>
+      <c r="C5" s="607"/>
+      <c r="D5" s="607"/>
+      <c r="E5" s="607"/>
+      <c r="F5" s="608"/>
+      <c r="G5" s="592"/>
+      <c r="H5" s="592"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="592"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="714" t="s">
+      <c r="C6" s="607" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="714"/>
-      <c r="E6" s="714"/>
-      <c r="F6" s="715"/>
-      <c r="G6" s="719"/>
-      <c r="H6" s="720"/>
-      <c r="I6" s="720"/>
-      <c r="J6" s="720"/>
-      <c r="K6" s="720"/>
-      <c r="L6" s="720"/>
-      <c r="M6" s="721"/>
+      <c r="D6" s="607"/>
+      <c r="E6" s="607"/>
+      <c r="F6" s="608"/>
+      <c r="G6" s="629"/>
+      <c r="H6" s="630"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="630"/>
+      <c r="M6" s="631"/>
     </row>
     <row r="7" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
@@ -14210,19 +14210,19 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="714" t="s">
+      <c r="C8" s="607" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="714"/>
-      <c r="E8" s="714"/>
-      <c r="F8" s="715"/>
-      <c r="G8" s="607"/>
-      <c r="H8" s="608"/>
-      <c r="I8" s="608"/>
-      <c r="J8" s="608"/>
-      <c r="K8" s="608"/>
-      <c r="L8" s="608"/>
-      <c r="M8" s="609"/>
+      <c r="D8" s="607"/>
+      <c r="E8" s="607"/>
+      <c r="F8" s="608"/>
+      <c r="G8" s="632"/>
+      <c r="H8" s="633"/>
+      <c r="I8" s="633"/>
+      <c r="J8" s="633"/>
+      <c r="K8" s="633"/>
+      <c r="L8" s="633"/>
+      <c r="M8" s="634"/>
     </row>
     <row r="9" spans="1:13" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
@@ -14236,114 +14236,114 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="714"/>
-      <c r="D10" s="714"/>
-      <c r="E10" s="714"/>
-      <c r="F10" s="715"/>
-      <c r="G10" s="593" t="s">
+      <c r="C10" s="607"/>
+      <c r="D10" s="607"/>
+      <c r="E10" s="607"/>
+      <c r="F10" s="608"/>
+      <c r="G10" s="592" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="593"/>
-      <c r="I10" s="593"/>
-      <c r="J10" s="593"/>
-      <c r="K10" s="593"/>
-      <c r="L10" s="593"/>
+      <c r="H10" s="592"/>
+      <c r="I10" s="592"/>
+      <c r="J10" s="592"/>
+      <c r="K10" s="592"/>
+      <c r="L10" s="592"/>
       <c r="M10" s="91"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="714"/>
-      <c r="D11" s="714"/>
-      <c r="E11" s="714"/>
-      <c r="F11" s="715"/>
+      <c r="C11" s="607"/>
+      <c r="D11" s="607"/>
+      <c r="E11" s="607"/>
+      <c r="F11" s="608"/>
       <c r="G11" s="147"/>
-      <c r="H11" s="598"/>
-      <c r="I11" s="598"/>
-      <c r="J11" s="598"/>
-      <c r="K11" s="598"/>
-      <c r="L11" s="598"/>
+      <c r="H11" s="635"/>
+      <c r="I11" s="635"/>
+      <c r="J11" s="635"/>
+      <c r="K11" s="635"/>
+      <c r="L11" s="635"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="716"/>
-      <c r="D12" s="716"/>
-      <c r="E12" s="716"/>
-      <c r="F12" s="717"/>
+      <c r="C12" s="626"/>
+      <c r="D12" s="626"/>
+      <c r="E12" s="626"/>
+      <c r="F12" s="627"/>
       <c r="G12" s="148"/>
       <c r="H12" s="148"/>
-      <c r="I12" s="718"/>
-      <c r="J12" s="718"/>
-      <c r="K12" s="718"/>
-      <c r="L12" s="718"/>
+      <c r="I12" s="628"/>
+      <c r="J12" s="628"/>
+      <c r="K12" s="628"/>
+      <c r="L12" s="628"/>
       <c r="M12" s="129"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="739" t="s">
+      <c r="A13" s="622" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="740"/>
-      <c r="C13" s="735" t="s">
+      <c r="B13" s="623"/>
+      <c r="C13" s="590" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="735"/>
-      <c r="E13" s="555"/>
-      <c r="F13" s="556"/>
-      <c r="G13" s="600"/>
-      <c r="H13" s="601"/>
-      <c r="I13" s="601"/>
-      <c r="J13" s="601"/>
-      <c r="K13" s="601"/>
-      <c r="L13" s="601"/>
-      <c r="M13" s="674"/>
+      <c r="D13" s="590"/>
+      <c r="E13" s="549"/>
+      <c r="F13" s="550"/>
+      <c r="G13" s="594"/>
+      <c r="H13" s="595"/>
+      <c r="I13" s="595"/>
+      <c r="J13" s="595"/>
+      <c r="K13" s="595"/>
+      <c r="L13" s="595"/>
+      <c r="M13" s="596"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
-      <c r="C14" s="735"/>
-      <c r="D14" s="735"/>
-      <c r="E14" s="555"/>
-      <c r="F14" s="556"/>
-      <c r="G14" s="592" t="s">
+      <c r="C14" s="590"/>
+      <c r="D14" s="590"/>
+      <c r="E14" s="549"/>
+      <c r="F14" s="550"/>
+      <c r="G14" s="591" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="593"/>
-      <c r="I14" s="593"/>
-      <c r="J14" s="593"/>
-      <c r="K14" s="593"/>
-      <c r="L14" s="593"/>
+      <c r="H14" s="592"/>
+      <c r="I14" s="592"/>
+      <c r="J14" s="592"/>
+      <c r="K14" s="592"/>
+      <c r="L14" s="592"/>
       <c r="M14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="63"/>
-      <c r="C15" s="735"/>
-      <c r="D15" s="735"/>
-      <c r="E15" s="555"/>
-      <c r="F15" s="556"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="549"/>
+      <c r="F15" s="550"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="741"/>
-      <c r="I15" s="741"/>
-      <c r="J15" s="741"/>
-      <c r="K15" s="741"/>
-      <c r="L15" s="741"/>
+      <c r="H15" s="597"/>
+      <c r="I15" s="597"/>
+      <c r="J15" s="597"/>
+      <c r="K15" s="597"/>
+      <c r="L15" s="597"/>
       <c r="M15" s="128"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="555"/>
-      <c r="D16" s="555"/>
-      <c r="E16" s="555"/>
-      <c r="F16" s="556"/>
+      <c r="C16" s="549"/>
+      <c r="D16" s="549"/>
+      <c r="E16" s="549"/>
+      <c r="F16" s="550"/>
       <c r="G16" s="125"/>
       <c r="H16" s="237"/>
-      <c r="I16" s="732"/>
-      <c r="J16" s="732"/>
-      <c r="K16" s="732"/>
-      <c r="L16" s="732"/>
+      <c r="I16" s="593"/>
+      <c r="J16" s="593"/>
+      <c r="K16" s="593"/>
+      <c r="L16" s="593"/>
       <c r="M16" s="126"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14364,137 +14364,137 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="610" t="s">
+      <c r="C18" s="737" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="610"/>
-      <c r="E18" s="611"/>
-      <c r="F18" s="612"/>
-      <c r="G18" s="595"/>
-      <c r="H18" s="596"/>
-      <c r="I18" s="596"/>
-      <c r="J18" s="596"/>
-      <c r="K18" s="596"/>
-      <c r="L18" s="596"/>
-      <c r="M18" s="597"/>
+      <c r="D18" s="737"/>
+      <c r="E18" s="738"/>
+      <c r="F18" s="739"/>
+      <c r="G18" s="728"/>
+      <c r="H18" s="729"/>
+      <c r="I18" s="729"/>
+      <c r="J18" s="729"/>
+      <c r="K18" s="729"/>
+      <c r="L18" s="729"/>
+      <c r="M18" s="730"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="52"/>
-      <c r="C19" s="610"/>
-      <c r="D19" s="610"/>
-      <c r="E19" s="611"/>
-      <c r="F19" s="612"/>
-      <c r="G19" s="592" t="s">
+      <c r="C19" s="737"/>
+      <c r="D19" s="737"/>
+      <c r="E19" s="738"/>
+      <c r="F19" s="739"/>
+      <c r="G19" s="591" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="593"/>
-      <c r="I19" s="593"/>
-      <c r="J19" s="593"/>
-      <c r="K19" s="593"/>
-      <c r="L19" s="593"/>
+      <c r="H19" s="592"/>
+      <c r="I19" s="592"/>
+      <c r="J19" s="592"/>
+      <c r="K19" s="592"/>
+      <c r="L19" s="592"/>
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="610"/>
-      <c r="D20" s="610"/>
-      <c r="E20" s="611"/>
-      <c r="F20" s="612"/>
+      <c r="C20" s="737"/>
+      <c r="D20" s="737"/>
+      <c r="E20" s="738"/>
+      <c r="F20" s="739"/>
       <c r="G20" s="56"/>
-      <c r="H20" s="603" t="s">
+      <c r="H20" s="733" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="603"/>
+      <c r="I20" s="733"/>
       <c r="J20" s="246"/>
-      <c r="K20" s="598"/>
-      <c r="L20" s="598"/>
+      <c r="K20" s="635"/>
+      <c r="L20" s="635"/>
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="610"/>
-      <c r="D21" s="610"/>
-      <c r="E21" s="611"/>
-      <c r="F21" s="612"/>
-      <c r="G21" s="604" t="s">
+      <c r="C21" s="737"/>
+      <c r="D21" s="737"/>
+      <c r="E21" s="738"/>
+      <c r="F21" s="739"/>
+      <c r="G21" s="734" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="605"/>
-      <c r="I21" s="605"/>
+      <c r="H21" s="735"/>
+      <c r="I21" s="735"/>
       <c r="J21" s="246"/>
-      <c r="K21" s="599"/>
-      <c r="L21" s="599"/>
+      <c r="K21" s="731"/>
+      <c r="L21" s="731"/>
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="613"/>
-      <c r="D22" s="613"/>
-      <c r="E22" s="613"/>
-      <c r="F22" s="614"/>
+      <c r="C22" s="740"/>
+      <c r="D22" s="740"/>
+      <c r="E22" s="740"/>
+      <c r="F22" s="741"/>
       <c r="G22" s="125" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="237"/>
-      <c r="I22" s="615"/>
-      <c r="J22" s="615"/>
-      <c r="K22" s="615"/>
+      <c r="I22" s="685"/>
+      <c r="J22" s="685"/>
+      <c r="K22" s="685"/>
       <c r="L22" s="130"/>
       <c r="M22" s="126"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="622" t="s">
+      <c r="A23" s="636" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="623"/>
-      <c r="C23" s="616" t="s">
+      <c r="B23" s="637"/>
+      <c r="C23" s="618" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="616"/>
-      <c r="E23" s="616"/>
-      <c r="F23" s="617"/>
-      <c r="G23" s="600"/>
-      <c r="H23" s="601"/>
-      <c r="I23" s="601"/>
-      <c r="J23" s="601"/>
-      <c r="K23" s="601"/>
-      <c r="L23" s="601"/>
+      <c r="D23" s="618"/>
+      <c r="E23" s="618"/>
+      <c r="F23" s="619"/>
+      <c r="G23" s="594"/>
+      <c r="H23" s="595"/>
+      <c r="I23" s="595"/>
+      <c r="J23" s="595"/>
+      <c r="K23" s="595"/>
+      <c r="L23" s="595"/>
       <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="618"/>
-      <c r="D24" s="618"/>
-      <c r="E24" s="618"/>
-      <c r="F24" s="619"/>
-      <c r="G24" s="592" t="s">
+      <c r="C24" s="610"/>
+      <c r="D24" s="610"/>
+      <c r="E24" s="610"/>
+      <c r="F24" s="609"/>
+      <c r="G24" s="591" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="593"/>
-      <c r="I24" s="593"/>
-      <c r="J24" s="593"/>
-      <c r="K24" s="593"/>
-      <c r="L24" s="593"/>
+      <c r="H24" s="592"/>
+      <c r="I24" s="592"/>
+      <c r="J24" s="592"/>
+      <c r="K24" s="592"/>
+      <c r="L24" s="592"/>
       <c r="M24" s="124"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="50"/>
-      <c r="C25" s="618"/>
-      <c r="D25" s="618"/>
-      <c r="E25" s="618"/>
-      <c r="F25" s="619"/>
+      <c r="C25" s="610"/>
+      <c r="D25" s="610"/>
+      <c r="E25" s="610"/>
+      <c r="F25" s="609"/>
       <c r="G25" s="123"/>
-      <c r="H25" s="602"/>
-      <c r="I25" s="602"/>
-      <c r="J25" s="602"/>
-      <c r="K25" s="602"/>
-      <c r="L25" s="602"/>
+      <c r="H25" s="732"/>
+      <c r="I25" s="732"/>
+      <c r="J25" s="732"/>
+      <c r="K25" s="732"/>
+      <c r="L25" s="732"/>
       <c r="M25" s="124"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -14506,60 +14506,60 @@
       <c r="F26" s="621"/>
       <c r="G26" s="125"/>
       <c r="H26" s="237"/>
-      <c r="I26" s="732"/>
-      <c r="J26" s="732"/>
-      <c r="K26" s="732"/>
-      <c r="L26" s="732"/>
+      <c r="I26" s="593"/>
+      <c r="J26" s="593"/>
+      <c r="K26" s="593"/>
+      <c r="L26" s="593"/>
       <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="622" t="s">
+      <c r="A27" s="636" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="623"/>
-      <c r="C27" s="616" t="s">
+      <c r="B27" s="637"/>
+      <c r="C27" s="618" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="616"/>
-      <c r="E27" s="616"/>
-      <c r="F27" s="617"/>
-      <c r="G27" s="600"/>
-      <c r="H27" s="601"/>
-      <c r="I27" s="601"/>
-      <c r="J27" s="601"/>
-      <c r="K27" s="601"/>
-      <c r="L27" s="601"/>
-      <c r="M27" s="674"/>
+      <c r="D27" s="618"/>
+      <c r="E27" s="618"/>
+      <c r="F27" s="619"/>
+      <c r="G27" s="594"/>
+      <c r="H27" s="595"/>
+      <c r="I27" s="595"/>
+      <c r="J27" s="595"/>
+      <c r="K27" s="595"/>
+      <c r="L27" s="595"/>
+      <c r="M27" s="596"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="618"/>
-      <c r="D28" s="618"/>
-      <c r="E28" s="618"/>
-      <c r="F28" s="619"/>
-      <c r="G28" s="592" t="s">
+      <c r="C28" s="610"/>
+      <c r="D28" s="610"/>
+      <c r="E28" s="610"/>
+      <c r="F28" s="609"/>
+      <c r="G28" s="591" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="593"/>
-      <c r="I28" s="593"/>
-      <c r="J28" s="593"/>
-      <c r="K28" s="593"/>
-      <c r="L28" s="593"/>
+      <c r="H28" s="592"/>
+      <c r="I28" s="592"/>
+      <c r="J28" s="592"/>
+      <c r="K28" s="592"/>
+      <c r="L28" s="592"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="618"/>
-      <c r="D29" s="618"/>
-      <c r="E29" s="618"/>
-      <c r="F29" s="619"/>
-      <c r="H29" s="324"/>
-      <c r="I29" s="324"/>
-      <c r="J29" s="324"/>
-      <c r="K29" s="324"/>
-      <c r="L29" s="324"/>
+      <c r="C29" s="610"/>
+      <c r="D29" s="610"/>
+      <c r="E29" s="610"/>
+      <c r="F29" s="609"/>
+      <c r="H29" s="431"/>
+      <c r="I29" s="431"/>
+      <c r="J29" s="431"/>
+      <c r="K29" s="431"/>
+      <c r="L29" s="431"/>
       <c r="M29" s="124"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -14578,39 +14578,39 @@
       <c r="M30" s="126"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="622" t="s">
+      <c r="A31" s="636" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="623"/>
-      <c r="C31" s="616" t="s">
+      <c r="B31" s="637"/>
+      <c r="C31" s="618" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="616"/>
-      <c r="E31" s="616"/>
-      <c r="F31" s="617"/>
-      <c r="G31" s="600"/>
-      <c r="H31" s="601"/>
-      <c r="I31" s="601"/>
-      <c r="J31" s="601"/>
-      <c r="K31" s="601"/>
-      <c r="L31" s="601"/>
-      <c r="M31" s="674"/>
+      <c r="D31" s="618"/>
+      <c r="E31" s="618"/>
+      <c r="F31" s="619"/>
+      <c r="G31" s="594"/>
+      <c r="H31" s="595"/>
+      <c r="I31" s="595"/>
+      <c r="J31" s="595"/>
+      <c r="K31" s="595"/>
+      <c r="L31" s="595"/>
+      <c r="M31" s="596"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="618"/>
-      <c r="D32" s="618"/>
-      <c r="E32" s="618"/>
-      <c r="F32" s="619"/>
+      <c r="C32" s="610"/>
+      <c r="D32" s="610"/>
+      <c r="E32" s="610"/>
+      <c r="F32" s="609"/>
       <c r="G32" s="672" t="s">
         <v>356</v>
       </c>
       <c r="H32" s="673"/>
       <c r="I32" s="673"/>
       <c r="J32" s="673"/>
-      <c r="K32" s="671"/>
-      <c r="L32" s="671"/>
+      <c r="K32" s="638"/>
+      <c r="L32" s="638"/>
       <c r="M32" s="124"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14631,35 +14631,35 @@
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="618" t="s">
+      <c r="C34" s="610" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="618"/>
-      <c r="E34" s="618"/>
-      <c r="F34" s="619"/>
-      <c r="G34" s="675"/>
-      <c r="H34" s="676"/>
-      <c r="I34" s="676"/>
-      <c r="J34" s="676"/>
-      <c r="K34" s="676"/>
-      <c r="L34" s="676"/>
-      <c r="M34" s="677"/>
+      <c r="D34" s="610"/>
+      <c r="E34" s="610"/>
+      <c r="F34" s="609"/>
+      <c r="G34" s="674"/>
+      <c r="H34" s="675"/>
+      <c r="I34" s="675"/>
+      <c r="J34" s="675"/>
+      <c r="K34" s="675"/>
+      <c r="L34" s="675"/>
+      <c r="M34" s="676"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="618"/>
-      <c r="D35" s="618"/>
-      <c r="E35" s="618"/>
-      <c r="F35" s="619"/>
+      <c r="C35" s="610"/>
+      <c r="D35" s="610"/>
+      <c r="E35" s="610"/>
+      <c r="F35" s="609"/>
       <c r="G35" s="672" t="s">
         <v>356</v>
       </c>
       <c r="H35" s="673"/>
       <c r="I35" s="673"/>
       <c r="J35" s="673"/>
-      <c r="K35" s="671"/>
-      <c r="L35" s="671"/>
+      <c r="K35" s="638"/>
+      <c r="L35" s="638"/>
       <c r="M35" s="124"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14677,82 +14677,82 @@
       <c r="M36" s="126"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="622" t="s">
+      <c r="A37" s="636" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="623"/>
-      <c r="C37" s="733" t="s">
+      <c r="B37" s="637"/>
+      <c r="C37" s="613" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="733"/>
-      <c r="E37" s="733"/>
-      <c r="F37" s="734"/>
-      <c r="G37" s="600"/>
-      <c r="H37" s="601"/>
-      <c r="I37" s="601"/>
-      <c r="J37" s="601"/>
-      <c r="K37" s="601"/>
-      <c r="L37" s="601"/>
+      <c r="D37" s="613"/>
+      <c r="E37" s="613"/>
+      <c r="F37" s="614"/>
+      <c r="G37" s="594"/>
+      <c r="H37" s="595"/>
+      <c r="I37" s="595"/>
+      <c r="J37" s="595"/>
+      <c r="K37" s="595"/>
+      <c r="L37" s="595"/>
       <c r="M37" s="48"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="735"/>
-      <c r="D38" s="735"/>
-      <c r="E38" s="735"/>
-      <c r="F38" s="736"/>
-      <c r="G38" s="592" t="s">
+      <c r="C38" s="590"/>
+      <c r="D38" s="590"/>
+      <c r="E38" s="590"/>
+      <c r="F38" s="615"/>
+      <c r="G38" s="591" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="593"/>
-      <c r="I38" s="593"/>
-      <c r="J38" s="593"/>
-      <c r="K38" s="593"/>
-      <c r="L38" s="593"/>
-      <c r="M38" s="594"/>
+      <c r="H38" s="592"/>
+      <c r="I38" s="592"/>
+      <c r="J38" s="592"/>
+      <c r="K38" s="592"/>
+      <c r="L38" s="592"/>
+      <c r="M38" s="727"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="735"/>
-      <c r="D39" s="735"/>
-      <c r="E39" s="735"/>
-      <c r="F39" s="736"/>
+      <c r="C39" s="590"/>
+      <c r="D39" s="590"/>
+      <c r="E39" s="590"/>
+      <c r="F39" s="615"/>
       <c r="G39" s="123"/>
-      <c r="H39" s="606"/>
-      <c r="I39" s="606"/>
-      <c r="J39" s="606"/>
-      <c r="K39" s="606"/>
-      <c r="L39" s="606"/>
+      <c r="H39" s="736"/>
+      <c r="I39" s="736"/>
+      <c r="J39" s="736"/>
+      <c r="K39" s="736"/>
+      <c r="L39" s="736"/>
       <c r="M39" s="124"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="737"/>
-      <c r="D40" s="737"/>
-      <c r="E40" s="737"/>
-      <c r="F40" s="738"/>
+      <c r="C40" s="616"/>
+      <c r="D40" s="616"/>
+      <c r="E40" s="616"/>
+      <c r="F40" s="617"/>
       <c r="G40" s="125"/>
       <c r="H40" s="237"/>
-      <c r="I40" s="732"/>
-      <c r="J40" s="732"/>
-      <c r="K40" s="732"/>
-      <c r="L40" s="732"/>
+      <c r="I40" s="593"/>
+      <c r="J40" s="593"/>
+      <c r="K40" s="593"/>
+      <c r="L40" s="593"/>
       <c r="M40" s="126"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="730" t="s">
+      <c r="A41" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="731"/>
-      <c r="C41" s="618" t="s">
+      <c r="B41" s="612"/>
+      <c r="C41" s="610" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="618"/>
-      <c r="E41" s="618"/>
-      <c r="F41" s="619"/>
+      <c r="D41" s="610"/>
+      <c r="E41" s="610"/>
+      <c r="F41" s="609"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="66"/>
@@ -14764,10 +14764,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64"/>
       <c r="B42" s="65"/>
-      <c r="C42" s="618"/>
-      <c r="D42" s="618"/>
-      <c r="E42" s="618"/>
-      <c r="F42" s="619"/>
+      <c r="C42" s="610"/>
+      <c r="D42" s="610"/>
+      <c r="E42" s="610"/>
+      <c r="F42" s="609"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
       <c r="I42" s="69"/>
@@ -14781,27 +14781,27 @@
         <v>80</v>
       </c>
       <c r="B43" s="65"/>
-      <c r="C43" s="618" t="s">
+      <c r="C43" s="610" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="618"/>
-      <c r="E43" s="618"/>
-      <c r="F43" s="619"/>
-      <c r="G43" s="607"/>
-      <c r="H43" s="608"/>
-      <c r="I43" s="608"/>
-      <c r="J43" s="608"/>
-      <c r="K43" s="608"/>
-      <c r="L43" s="608"/>
-      <c r="M43" s="609"/>
+      <c r="D43" s="610"/>
+      <c r="E43" s="610"/>
+      <c r="F43" s="609"/>
+      <c r="G43" s="632"/>
+      <c r="H43" s="633"/>
+      <c r="I43" s="633"/>
+      <c r="J43" s="633"/>
+      <c r="K43" s="633"/>
+      <c r="L43" s="633"/>
+      <c r="M43" s="634"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="64"/>
       <c r="B44" s="65"/>
-      <c r="C44" s="618"/>
-      <c r="D44" s="618"/>
-      <c r="E44" s="618"/>
-      <c r="F44" s="619"/>
+      <c r="C44" s="610"/>
+      <c r="D44" s="610"/>
+      <c r="E44" s="610"/>
+      <c r="F44" s="609"/>
       <c r="G44" s="187" t="s">
         <v>327</v>
       </c>
@@ -14817,27 +14817,27 @@
         <v>81</v>
       </c>
       <c r="B45" s="65"/>
-      <c r="C45" s="619" t="s">
+      <c r="C45" s="609" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="619"/>
-      <c r="E45" s="619"/>
-      <c r="F45" s="619"/>
-      <c r="G45" s="607"/>
-      <c r="H45" s="608"/>
-      <c r="I45" s="608"/>
-      <c r="J45" s="608"/>
-      <c r="K45" s="608"/>
-      <c r="L45" s="608"/>
-      <c r="M45" s="609"/>
+      <c r="D45" s="609"/>
+      <c r="E45" s="609"/>
+      <c r="F45" s="609"/>
+      <c r="G45" s="632"/>
+      <c r="H45" s="633"/>
+      <c r="I45" s="633"/>
+      <c r="J45" s="633"/>
+      <c r="K45" s="633"/>
+      <c r="L45" s="633"/>
+      <c r="M45" s="634"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="619"/>
-      <c r="D46" s="619"/>
-      <c r="E46" s="619"/>
-      <c r="F46" s="619"/>
+      <c r="C46" s="609"/>
+      <c r="D46" s="609"/>
+      <c r="E46" s="609"/>
+      <c r="F46" s="609"/>
       <c r="G46" s="188" t="s">
         <v>328</v>
       </c>
@@ -14854,27 +14854,27 @@
         <v>83</v>
       </c>
       <c r="B47" s="65"/>
-      <c r="C47" s="618" t="s">
+      <c r="C47" s="610" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="618"/>
+      <c r="D47" s="610"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
-      <c r="G47" s="607"/>
-      <c r="H47" s="608"/>
-      <c r="I47" s="608"/>
-      <c r="J47" s="608"/>
-      <c r="K47" s="608"/>
-      <c r="L47" s="608"/>
+      <c r="G47" s="632"/>
+      <c r="H47" s="633"/>
+      <c r="I47" s="633"/>
+      <c r="J47" s="633"/>
+      <c r="K47" s="633"/>
+      <c r="L47" s="633"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="691"/>
-      <c r="B48" s="692"/>
-      <c r="C48" s="692"/>
-      <c r="D48" s="692"/>
-      <c r="E48" s="692"/>
-      <c r="F48" s="693"/>
+      <c r="A48" s="651"/>
+      <c r="B48" s="652"/>
+      <c r="C48" s="652"/>
+      <c r="D48" s="652"/>
+      <c r="E48" s="652"/>
+      <c r="F48" s="653"/>
       <c r="G48" s="189" t="s">
         <v>328</v>
       </c>
@@ -14887,12 +14887,12 @@
       <c r="N48" s="71"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="694"/>
-      <c r="B49" s="695"/>
-      <c r="C49" s="695"/>
-      <c r="D49" s="695"/>
-      <c r="E49" s="695"/>
-      <c r="F49" s="696"/>
+      <c r="A49" s="654"/>
+      <c r="B49" s="655"/>
+      <c r="C49" s="655"/>
+      <c r="D49" s="655"/>
+      <c r="E49" s="655"/>
+      <c r="F49" s="656"/>
       <c r="G49" s="117"/>
       <c r="H49" s="113"/>
       <c r="I49" s="113"/>
@@ -14903,10 +14903,10 @@
       <c r="N49" s="71"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="590" t="s">
+      <c r="A50" s="725" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="591"/>
+      <c r="B50" s="726"/>
       <c r="C50" s="185" t="s">
         <v>383</v>
       </c>
@@ -14916,127 +14916,127 @@
       <c r="G50" s="185"/>
       <c r="H50" s="185"/>
       <c r="I50" s="186"/>
-      <c r="J50" s="678"/>
-      <c r="K50" s="679"/>
-      <c r="L50" s="679"/>
-      <c r="M50" s="680"/>
+      <c r="J50" s="639"/>
+      <c r="K50" s="640"/>
+      <c r="L50" s="640"/>
+      <c r="M50" s="641"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="688" t="s">
+      <c r="A51" s="648" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="689"/>
-      <c r="C51" s="689"/>
-      <c r="D51" s="689"/>
-      <c r="E51" s="690"/>
+      <c r="B51" s="649"/>
+      <c r="C51" s="649"/>
+      <c r="D51" s="649"/>
+      <c r="E51" s="650"/>
       <c r="F51" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="697" t="s">
+      <c r="G51" s="657" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="546"/>
-      <c r="I51" s="548"/>
-      <c r="J51" s="681"/>
-      <c r="K51" s="682"/>
-      <c r="L51" s="682"/>
-      <c r="M51" s="683"/>
+      <c r="H51" s="577"/>
+      <c r="I51" s="584"/>
+      <c r="J51" s="642"/>
+      <c r="K51" s="643"/>
+      <c r="L51" s="643"/>
+      <c r="M51" s="644"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="707"/>
-      <c r="B52" s="708"/>
-      <c r="C52" s="710"/>
-      <c r="D52" s="710"/>
-      <c r="E52" s="711"/>
+      <c r="A52" s="665"/>
+      <c r="B52" s="666"/>
+      <c r="C52" s="668"/>
+      <c r="D52" s="668"/>
+      <c r="E52" s="669"/>
       <c r="F52" s="72"/>
-      <c r="G52" s="700"/>
-      <c r="H52" s="701"/>
-      <c r="I52" s="702"/>
-      <c r="J52" s="681"/>
-      <c r="K52" s="682"/>
-      <c r="L52" s="682"/>
-      <c r="M52" s="683"/>
+      <c r="G52" s="658"/>
+      <c r="H52" s="659"/>
+      <c r="I52" s="660"/>
+      <c r="J52" s="642"/>
+      <c r="K52" s="643"/>
+      <c r="L52" s="643"/>
+      <c r="M52" s="644"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="707"/>
-      <c r="B53" s="708"/>
-      <c r="C53" s="708"/>
-      <c r="D53" s="708"/>
-      <c r="E53" s="709"/>
+      <c r="A53" s="665"/>
+      <c r="B53" s="666"/>
+      <c r="C53" s="666"/>
+      <c r="D53" s="666"/>
+      <c r="E53" s="667"/>
       <c r="F53" s="72"/>
-      <c r="G53" s="700"/>
-      <c r="H53" s="701"/>
-      <c r="I53" s="702"/>
-      <c r="J53" s="681"/>
-      <c r="K53" s="682"/>
-      <c r="L53" s="682"/>
-      <c r="M53" s="683"/>
+      <c r="G53" s="658"/>
+      <c r="H53" s="659"/>
+      <c r="I53" s="660"/>
+      <c r="J53" s="642"/>
+      <c r="K53" s="643"/>
+      <c r="L53" s="643"/>
+      <c r="M53" s="644"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="703"/>
-      <c r="B54" s="704"/>
-      <c r="C54" s="705"/>
-      <c r="D54" s="705"/>
-      <c r="E54" s="706"/>
+      <c r="A54" s="661"/>
+      <c r="B54" s="662"/>
+      <c r="C54" s="663"/>
+      <c r="D54" s="663"/>
+      <c r="E54" s="664"/>
       <c r="F54" s="193"/>
-      <c r="G54" s="685"/>
-      <c r="H54" s="686"/>
-      <c r="I54" s="687"/>
-      <c r="J54" s="681"/>
-      <c r="K54" s="682"/>
-      <c r="L54" s="682"/>
-      <c r="M54" s="683"/>
+      <c r="G54" s="645"/>
+      <c r="H54" s="646"/>
+      <c r="I54" s="647"/>
+      <c r="J54" s="642"/>
+      <c r="K54" s="643"/>
+      <c r="L54" s="643"/>
+      <c r="M54" s="644"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="698" t="s">
+      <c r="A55" s="624" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="699"/>
-      <c r="C55" s="712" t="s">
+      <c r="B55" s="625"/>
+      <c r="C55" s="670" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="712"/>
-      <c r="E55" s="712"/>
-      <c r="F55" s="712"/>
-      <c r="G55" s="712"/>
-      <c r="H55" s="712"/>
+      <c r="D55" s="670"/>
+      <c r="E55" s="670"/>
+      <c r="F55" s="670"/>
+      <c r="G55" s="670"/>
+      <c r="H55" s="670"/>
       <c r="I55" s="242"/>
-      <c r="J55" s="682"/>
-      <c r="K55" s="682"/>
-      <c r="L55" s="682"/>
-      <c r="M55" s="683"/>
+      <c r="J55" s="643"/>
+      <c r="K55" s="643"/>
+      <c r="L55" s="643"/>
+      <c r="M55" s="644"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="73"/>
       <c r="B56" s="74"/>
-      <c r="C56" s="713"/>
-      <c r="D56" s="713"/>
-      <c r="E56" s="713"/>
-      <c r="F56" s="713"/>
-      <c r="G56" s="713"/>
-      <c r="H56" s="713"/>
+      <c r="C56" s="671"/>
+      <c r="D56" s="671"/>
+      <c r="E56" s="671"/>
+      <c r="F56" s="671"/>
+      <c r="G56" s="671"/>
+      <c r="H56" s="671"/>
       <c r="I56" s="243"/>
       <c r="J56" s="192"/>
-      <c r="K56" s="684" t="s">
+      <c r="K56" s="605" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="684"/>
+      <c r="L56" s="605"/>
       <c r="M56" s="176"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="73"/>
       <c r="B57" s="74"/>
-      <c r="C57" s="713"/>
-      <c r="D57" s="713"/>
-      <c r="E57" s="713"/>
-      <c r="F57" s="713"/>
-      <c r="G57" s="713"/>
-      <c r="H57" s="713"/>
+      <c r="C57" s="671"/>
+      <c r="D57" s="671"/>
+      <c r="E57" s="671"/>
+      <c r="F57" s="671"/>
+      <c r="G57" s="671"/>
+      <c r="H57" s="671"/>
       <c r="I57" s="243"/>
-      <c r="J57" s="684"/>
-      <c r="K57" s="684"/>
-      <c r="L57" s="684"/>
-      <c r="M57" s="729"/>
+      <c r="J57" s="605"/>
+      <c r="K57" s="605"/>
+      <c r="L57" s="605"/>
+      <c r="M57" s="606"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="174"/>
@@ -15048,8 +15048,8 @@
       <c r="G58" s="244"/>
       <c r="H58" s="244"/>
       <c r="I58" s="245"/>
-      <c r="K58" s="645"/>
-      <c r="L58" s="646"/>
+      <c r="K58" s="706"/>
+      <c r="L58" s="707"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15061,102 +15061,102 @@
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
-      <c r="K59" s="647"/>
-      <c r="L59" s="648"/>
+      <c r="K59" s="708"/>
+      <c r="L59" s="709"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="75"/>
-      <c r="B60" s="664" t="s">
+      <c r="B60" s="677" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="665"/>
-      <c r="D60" s="666"/>
-      <c r="F60" s="655"/>
-      <c r="G60" s="656"/>
-      <c r="H60" s="656"/>
-      <c r="I60" s="657"/>
-      <c r="K60" s="647"/>
-      <c r="L60" s="648"/>
+      <c r="C60" s="678"/>
+      <c r="D60" s="679"/>
+      <c r="F60" s="716"/>
+      <c r="G60" s="717"/>
+      <c r="H60" s="717"/>
+      <c r="I60" s="718"/>
+      <c r="K60" s="708"/>
+      <c r="L60" s="709"/>
       <c r="M60" s="76"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="75"/>
-      <c r="B61" s="651" t="s">
+      <c r="B61" s="712" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="652"/>
+      <c r="C61" s="713"/>
       <c r="D61" s="131"/>
-      <c r="F61" s="658"/>
-      <c r="G61" s="659"/>
-      <c r="H61" s="659"/>
-      <c r="I61" s="660"/>
-      <c r="K61" s="647"/>
-      <c r="L61" s="648"/>
+      <c r="F61" s="719"/>
+      <c r="G61" s="720"/>
+      <c r="H61" s="720"/>
+      <c r="I61" s="721"/>
+      <c r="K61" s="708"/>
+      <c r="L61" s="709"/>
       <c r="M61" s="76"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="75"/>
-      <c r="B62" s="639" t="s">
+      <c r="B62" s="701" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="640"/>
-      <c r="D62" s="643"/>
-      <c r="F62" s="661"/>
-      <c r="G62" s="662"/>
-      <c r="H62" s="662"/>
-      <c r="I62" s="663"/>
-      <c r="K62" s="647"/>
-      <c r="L62" s="648"/>
+      <c r="C62" s="702"/>
+      <c r="D62" s="680"/>
+      <c r="F62" s="722"/>
+      <c r="G62" s="723"/>
+      <c r="H62" s="723"/>
+      <c r="I62" s="724"/>
+      <c r="K62" s="708"/>
+      <c r="L62" s="709"/>
       <c r="M62" s="76"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
-      <c r="B63" s="653"/>
-      <c r="C63" s="654"/>
-      <c r="D63" s="667"/>
-      <c r="F63" s="668" t="s">
+      <c r="B63" s="714"/>
+      <c r="C63" s="715"/>
+      <c r="D63" s="681"/>
+      <c r="F63" s="682" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="669"/>
-      <c r="H63" s="669"/>
-      <c r="I63" s="670"/>
-      <c r="K63" s="647"/>
-      <c r="L63" s="648"/>
+      <c r="G63" s="683"/>
+      <c r="H63" s="683"/>
+      <c r="I63" s="684"/>
+      <c r="K63" s="708"/>
+      <c r="L63" s="709"/>
       <c r="M63" s="76"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="75"/>
-      <c r="B64" s="639" t="s">
+      <c r="B64" s="701" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="640"/>
-      <c r="D64" s="643"/>
+      <c r="C64" s="702"/>
+      <c r="D64" s="680"/>
       <c r="F64" s="77"/>
       <c r="G64" s="178"/>
       <c r="H64" s="178"/>
       <c r="I64" s="179"/>
       <c r="J64" s="78"/>
-      <c r="K64" s="649"/>
-      <c r="L64" s="650"/>
+      <c r="K64" s="710"/>
+      <c r="L64" s="711"/>
       <c r="M64" s="76"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
-      <c r="B65" s="641"/>
-      <c r="C65" s="642"/>
-      <c r="D65" s="644"/>
-      <c r="F65" s="636" t="s">
+      <c r="B65" s="703"/>
+      <c r="C65" s="704"/>
+      <c r="D65" s="705"/>
+      <c r="F65" s="698" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="637"/>
-      <c r="H65" s="637"/>
-      <c r="I65" s="638"/>
+      <c r="G65" s="699"/>
+      <c r="H65" s="699"/>
+      <c r="I65" s="700"/>
       <c r="J65" s="78"/>
-      <c r="K65" s="634" t="s">
+      <c r="K65" s="696" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="635"/>
+      <c r="L65" s="697"/>
       <c r="M65" s="76"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15175,32 +15175,32 @@
       <c r="M66" s="84"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="631" t="s">
+      <c r="A67" s="693" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="632"/>
-      <c r="C67" s="632"/>
-      <c r="D67" s="632"/>
-      <c r="E67" s="632"/>
-      <c r="F67" s="632"/>
-      <c r="G67" s="632"/>
-      <c r="H67" s="632"/>
-      <c r="I67" s="632"/>
-      <c r="J67" s="632"/>
-      <c r="K67" s="632"/>
-      <c r="L67" s="632"/>
-      <c r="M67" s="633"/>
+      <c r="B67" s="694"/>
+      <c r="C67" s="694"/>
+      <c r="D67" s="694"/>
+      <c r="E67" s="694"/>
+      <c r="F67" s="694"/>
+      <c r="G67" s="694"/>
+      <c r="H67" s="694"/>
+      <c r="I67" s="694"/>
+      <c r="J67" s="694"/>
+      <c r="K67" s="694"/>
+      <c r="L67" s="694"/>
+      <c r="M67" s="695"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="75"/>
       <c r="B68" s="78"/>
       <c r="C68" s="85"/>
       <c r="D68" s="85"/>
-      <c r="E68" s="628"/>
-      <c r="F68" s="629"/>
-      <c r="G68" s="629"/>
-      <c r="H68" s="629"/>
-      <c r="I68" s="630"/>
+      <c r="E68" s="690"/>
+      <c r="F68" s="691"/>
+      <c r="G68" s="691"/>
+      <c r="H68" s="691"/>
+      <c r="I68" s="692"/>
       <c r="J68" s="132"/>
       <c r="K68" s="132"/>
       <c r="M68" s="76"/>
@@ -15210,13 +15210,13 @@
       <c r="B69" s="78"/>
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
-      <c r="E69" s="625" t="s">
+      <c r="E69" s="687" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="626"/>
-      <c r="G69" s="626"/>
-      <c r="H69" s="626"/>
-      <c r="I69" s="627"/>
+      <c r="F69" s="688"/>
+      <c r="G69" s="688"/>
+      <c r="H69" s="688"/>
+      <c r="I69" s="689"/>
       <c r="J69" s="134"/>
       <c r="K69" s="133"/>
       <c r="L69" s="86"/>
@@ -15238,21 +15238,21 @@
       <c r="M70" s="89"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="624" t="s">
+      <c r="A71" s="686" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="624"/>
-      <c r="C71" s="624"/>
-      <c r="D71" s="624"/>
-      <c r="E71" s="624"/>
-      <c r="F71" s="624"/>
-      <c r="G71" s="624"/>
-      <c r="H71" s="624"/>
-      <c r="I71" s="624"/>
-      <c r="J71" s="624"/>
-      <c r="K71" s="624"/>
-      <c r="L71" s="624"/>
-      <c r="M71" s="624"/>
+      <c r="B71" s="686"/>
+      <c r="C71" s="686"/>
+      <c r="D71" s="686"/>
+      <c r="E71" s="686"/>
+      <c r="F71" s="686"/>
+      <c r="G71" s="686"/>
+      <c r="H71" s="686"/>
+      <c r="I71" s="686"/>
+      <c r="J71" s="686"/>
+      <c r="K71" s="686"/>
+      <c r="L71" s="686"/>
+      <c r="M71" s="686"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15265,11 +15265,82 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="97">
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -15286,82 +15357,11 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="C27:F30"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="H15:L15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
